--- a/data/breakpoint_data.xlsx
+++ b/data/breakpoint_data.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="142">
   <si>
     <t>Player</t>
   </si>
@@ -185,7 +185,7 @@
     <t>aBeZy</t>
   </si>
   <si>
-    <t>Lynz</t>
+    <t>Lyynnz</t>
   </si>
   <si>
     <t>Nero</t>
@@ -350,6 +350,24 @@
     <t>#</t>
   </si>
   <si>
+    <t>Total_Series_Wins</t>
+  </si>
+  <si>
+    <t>Total_Series_Losses</t>
+  </si>
+  <si>
+    <t>Total_Series %</t>
+  </si>
+  <si>
+    <t>Total_Map_Wins</t>
+  </si>
+  <si>
+    <t>Total_Map_Losses</t>
+  </si>
+  <si>
+    <t>Total_Maps %</t>
+  </si>
+  <si>
     <t>HP +/-</t>
   </si>
   <si>
@@ -473,7 +491,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -505,6 +523,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="10" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -2478,7 +2499,7 @@
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="6" t="s">
         <v>57</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -5146,7 +5167,7 @@
       </c>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="5" t="s">
+      <c r="A49" s="9" t="s">
         <v>89</v>
       </c>
       <c r="B49" s="6" t="s">
@@ -13635,7 +13656,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="30" width="10.56"/>
+    <col customWidth="1" min="1" max="36" width="10.56"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -13645,38 +13666,38 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>121</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>122</v>
@@ -13684,65 +13705,95 @@
       <c r="O1" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="P1" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="V1" s="11" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="D2" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="E2" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="F2" s="8">
+        <v>13.0</v>
+      </c>
+      <c r="G2" s="8">
+        <v>8.0</v>
+      </c>
+      <c r="H2" s="8">
+        <v>0.619</v>
+      </c>
+      <c r="I2" s="7">
         <v>38.9</v>
       </c>
-      <c r="D2" s="14">
+      <c r="J2" s="14">
         <v>0.7</v>
       </c>
-      <c r="E2" s="7">
+      <c r="K2" s="7">
         <v>1.05</v>
       </c>
-      <c r="F2" s="7">
+      <c r="L2" s="7">
         <v>234.7</v>
-      </c>
-      <c r="G2" s="7">
-        <v>1.04</v>
-      </c>
-      <c r="H2" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="I2" s="7">
-        <v>0.96</v>
-      </c>
-      <c r="J2" s="7">
-        <v>4.33</v>
-      </c>
-      <c r="K2" s="7">
-        <v>-0.67</v>
-      </c>
-      <c r="L2" s="14">
-        <v>0.6</v>
       </c>
       <c r="M2" s="7">
         <v>1.04</v>
       </c>
-      <c r="N2" s="7">
+      <c r="N2" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="O2" s="7">
+        <v>0.96</v>
+      </c>
+      <c r="P2" s="7">
+        <v>4.33</v>
+      </c>
+      <c r="Q2" s="7">
+        <v>-0.67</v>
+      </c>
+      <c r="R2" s="14">
+        <v>0.6</v>
+      </c>
+      <c r="S2" s="7">
+        <v>1.04</v>
+      </c>
+      <c r="T2" s="7">
         <v>2.4</v>
       </c>
-      <c r="O2" s="7">
+      <c r="U2" s="7">
         <v>0.2</v>
       </c>
-      <c r="P2" s="8">
+      <c r="V2" s="8">
         <v>2025.0</v>
       </c>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13"/>
-      <c r="V2" s="13"/>
       <c r="W2" s="13"/>
       <c r="X2" s="13"/>
       <c r="Y2" s="13"/>
@@ -13751,62 +13802,80 @@
       <c r="AB2" s="13"/>
       <c r="AC2" s="13"/>
       <c r="AD2" s="13"/>
+      <c r="AE2" s="13"/>
+      <c r="AF2" s="13"/>
+      <c r="AG2" s="13"/>
+      <c r="AH2" s="13"/>
+      <c r="AI2" s="13"/>
+      <c r="AJ2" s="13"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="7" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="D3" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="E3" s="8">
+        <v>0.714</v>
+      </c>
+      <c r="F3" s="8">
+        <v>19.0</v>
+      </c>
+      <c r="G3" s="8">
+        <v>11.0</v>
+      </c>
+      <c r="H3" s="8">
+        <v>0.633</v>
+      </c>
+      <c r="I3" s="7">
         <v>33.33</v>
       </c>
-      <c r="D3" s="14">
+      <c r="J3" s="14">
         <v>0.583</v>
       </c>
-      <c r="E3" s="7">
+      <c r="K3" s="7">
         <v>1.1</v>
       </c>
-      <c r="F3" s="7">
+      <c r="L3" s="7">
         <v>231.08</v>
       </c>
-      <c r="G3" s="7">
+      <c r="M3" s="7">
         <v>1.08</v>
       </c>
-      <c r="H3" s="14">
+      <c r="N3" s="14">
         <v>0.636</v>
       </c>
-      <c r="I3" s="7">
+      <c r="O3" s="7">
         <v>1.06</v>
       </c>
-      <c r="J3" s="7">
+      <c r="P3" s="7">
         <v>5.0</v>
       </c>
-      <c r="K3" s="7">
+      <c r="Q3" s="7">
         <v>0.64</v>
       </c>
-      <c r="L3" s="14">
+      <c r="R3" s="14">
         <v>0.714</v>
       </c>
-      <c r="M3" s="7">
+      <c r="S3" s="7">
         <v>1.06</v>
       </c>
-      <c r="N3" s="7">
+      <c r="T3" s="7">
         <v>2.43</v>
       </c>
-      <c r="O3" s="7">
+      <c r="U3" s="7">
         <v>1.0</v>
       </c>
-      <c r="P3" s="8">
+      <c r="V3" s="8">
         <v>2025.0</v>
       </c>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="13"/>
-      <c r="T3" s="13"/>
-      <c r="U3" s="13"/>
-      <c r="V3" s="13"/>
       <c r="W3" s="13"/>
       <c r="X3" s="13"/>
       <c r="Y3" s="13"/>
@@ -13815,62 +13884,80 @@
       <c r="AB3" s="13"/>
       <c r="AC3" s="13"/>
       <c r="AD3" s="13"/>
+      <c r="AE3" s="13"/>
+      <c r="AF3" s="13"/>
+      <c r="AG3" s="13"/>
+      <c r="AH3" s="13"/>
+      <c r="AI3" s="13"/>
+      <c r="AJ3" s="13"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="11">
+        <v>5.0</v>
+      </c>
+      <c r="D4" s="11">
+        <v>3.0</v>
+      </c>
+      <c r="E4" s="11">
+        <v>0.625</v>
+      </c>
+      <c r="F4" s="11">
+        <v>18.0</v>
+      </c>
+      <c r="G4" s="11">
+        <v>15.0</v>
+      </c>
+      <c r="H4" s="11">
+        <v>0.545</v>
+      </c>
+      <c r="I4" s="7">
         <v>29.2</v>
       </c>
-      <c r="D4" s="14">
+      <c r="J4" s="14">
         <v>0.733</v>
       </c>
-      <c r="E4" s="7">
+      <c r="K4" s="7">
         <v>1.1</v>
       </c>
-      <c r="F4" s="7">
+      <c r="L4" s="7">
         <v>213.73</v>
       </c>
-      <c r="G4" s="7">
+      <c r="M4" s="7">
         <v>1.04</v>
       </c>
-      <c r="H4" s="14">
+      <c r="N4" s="14">
         <v>0.5</v>
       </c>
-      <c r="I4" s="7">
+      <c r="O4" s="7">
         <v>1.02</v>
       </c>
-      <c r="J4" s="7">
+      <c r="P4" s="7">
         <v>4.9</v>
       </c>
-      <c r="K4" s="7">
+      <c r="Q4" s="7">
         <v>0.4</v>
       </c>
-      <c r="L4" s="14">
+      <c r="R4" s="14">
         <v>0.25</v>
       </c>
-      <c r="M4" s="7">
+      <c r="S4" s="7">
         <v>0.95</v>
       </c>
-      <c r="N4" s="7">
+      <c r="T4" s="7">
         <v>2.13</v>
       </c>
-      <c r="O4" s="7">
+      <c r="U4" s="7">
         <v>-0.63</v>
       </c>
-      <c r="P4" s="8">
+      <c r="V4" s="8">
         <v>2025.0</v>
       </c>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="13"/>
-      <c r="U4" s="13"/>
-      <c r="V4" s="13"/>
       <c r="W4" s="13"/>
       <c r="X4" s="13"/>
       <c r="Y4" s="13"/>
@@ -13879,62 +13966,80 @@
       <c r="AB4" s="13"/>
       <c r="AC4" s="13"/>
       <c r="AD4" s="13"/>
+      <c r="AE4" s="13"/>
+      <c r="AF4" s="13"/>
+      <c r="AG4" s="13"/>
+      <c r="AH4" s="13"/>
+      <c r="AI4" s="13"/>
+      <c r="AJ4" s="13"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="7" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="8">
+        <v>6.0</v>
+      </c>
+      <c r="D5" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0.857</v>
+      </c>
+      <c r="F5" s="8">
+        <v>19.0</v>
+      </c>
+      <c r="G5" s="8">
+        <v>11.0</v>
+      </c>
+      <c r="H5" s="8">
+        <v>0.633</v>
+      </c>
+      <c r="I5" s="7">
         <v>17.46</v>
       </c>
-      <c r="D5" s="14">
+      <c r="J5" s="14">
         <v>0.538</v>
       </c>
-      <c r="E5" s="7">
+      <c r="K5" s="7">
         <v>1.03</v>
       </c>
-      <c r="F5" s="7">
+      <c r="L5" s="7">
         <v>218.62</v>
       </c>
-      <c r="G5" s="7">
+      <c r="M5" s="7">
         <v>1.03</v>
       </c>
-      <c r="H5" s="14">
+      <c r="N5" s="14">
         <v>0.7</v>
       </c>
-      <c r="I5" s="7">
+      <c r="O5" s="7">
         <v>1.04</v>
       </c>
-      <c r="J5" s="7">
+      <c r="P5" s="7">
         <v>5.1</v>
       </c>
-      <c r="K5" s="7">
+      <c r="Q5" s="7">
         <v>1.0</v>
       </c>
-      <c r="L5" s="14">
+      <c r="R5" s="14">
         <v>0.714</v>
       </c>
-      <c r="M5" s="7">
+      <c r="S5" s="7">
         <v>1.05</v>
       </c>
-      <c r="N5" s="7">
+      <c r="T5" s="7">
         <v>2.43</v>
       </c>
-      <c r="O5" s="7">
+      <c r="U5" s="7">
         <v>0.57</v>
       </c>
-      <c r="P5" s="8">
+      <c r="V5" s="8">
         <v>2025.0</v>
       </c>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13"/>
-      <c r="S5" s="13"/>
-      <c r="T5" s="13"/>
-      <c r="U5" s="13"/>
-      <c r="V5" s="13"/>
       <c r="W5" s="13"/>
       <c r="X5" s="13"/>
       <c r="Y5" s="13"/>
@@ -13943,62 +14048,80 @@
       <c r="AB5" s="13"/>
       <c r="AC5" s="13"/>
       <c r="AD5" s="13"/>
+      <c r="AE5" s="13"/>
+      <c r="AF5" s="13"/>
+      <c r="AG5" s="13"/>
+      <c r="AH5" s="13"/>
+      <c r="AI5" s="13"/>
+      <c r="AJ5" s="13"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="7" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="D6" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="E6" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="F6" s="8">
+        <v>13.0</v>
+      </c>
+      <c r="G6" s="8">
+        <v>12.0</v>
+      </c>
+      <c r="H6" s="8">
+        <v>0.52</v>
+      </c>
+      <c r="I6" s="7">
         <v>12.4</v>
       </c>
-      <c r="D6" s="14">
+      <c r="J6" s="14">
         <v>0.6</v>
       </c>
-      <c r="E6" s="7">
+      <c r="K6" s="7">
         <v>1.01</v>
       </c>
-      <c r="F6" s="7">
+      <c r="L6" s="7">
         <v>227.6</v>
       </c>
-      <c r="G6" s="7">
+      <c r="M6" s="7">
         <v>1.01</v>
       </c>
-      <c r="H6" s="14">
+      <c r="N6" s="14">
         <v>0.5</v>
       </c>
-      <c r="I6" s="7">
+      <c r="O6" s="7">
         <v>1.05</v>
       </c>
-      <c r="J6" s="7">
+      <c r="P6" s="7">
         <v>5.0</v>
       </c>
-      <c r="K6" s="7">
+      <c r="Q6" s="7">
         <v>0.7</v>
       </c>
-      <c r="L6" s="14">
+      <c r="R6" s="14">
         <v>0.4</v>
       </c>
-      <c r="M6" s="7">
+      <c r="S6" s="7">
         <v>0.97</v>
       </c>
-      <c r="N6" s="7">
+      <c r="T6" s="7">
         <v>1.6</v>
       </c>
-      <c r="O6" s="7">
+      <c r="U6" s="7">
         <v>-0.2</v>
       </c>
-      <c r="P6" s="8">
+      <c r="V6" s="8">
         <v>2025.0</v>
       </c>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="13"/>
-      <c r="U6" s="13"/>
-      <c r="V6" s="13"/>
       <c r="W6" s="13"/>
       <c r="X6" s="13"/>
       <c r="Y6" s="13"/>
@@ -14007,62 +14130,80 @@
       <c r="AB6" s="13"/>
       <c r="AC6" s="13"/>
       <c r="AD6" s="13"/>
+      <c r="AE6" s="13"/>
+      <c r="AF6" s="13"/>
+      <c r="AG6" s="13"/>
+      <c r="AH6" s="13"/>
+      <c r="AI6" s="13"/>
+      <c r="AJ6" s="13"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="7" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="11">
+        <v>4.0</v>
+      </c>
+      <c r="D7" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="E7" s="11">
+        <v>0.8</v>
+      </c>
+      <c r="F7" s="11">
+        <v>14.0</v>
+      </c>
+      <c r="G7" s="11">
+        <v>8.0</v>
+      </c>
+      <c r="H7" s="11">
+        <v>0.636</v>
+      </c>
+      <c r="I7" s="7">
         <v>1.33</v>
       </c>
-      <c r="D7" s="14">
+      <c r="J7" s="14">
         <v>0.556</v>
       </c>
-      <c r="E7" s="7">
+      <c r="K7" s="7">
         <v>0.99</v>
       </c>
-      <c r="F7" s="7">
+      <c r="L7" s="7">
         <v>218.0</v>
       </c>
-      <c r="G7" s="7">
+      <c r="M7" s="7">
         <v>1.04</v>
       </c>
-      <c r="H7" s="14">
+      <c r="N7" s="14">
         <v>0.875</v>
       </c>
-      <c r="I7" s="7">
+      <c r="O7" s="7">
         <v>1.27</v>
       </c>
-      <c r="J7" s="7">
+      <c r="P7" s="7">
         <v>5.63</v>
       </c>
-      <c r="K7" s="7">
+      <c r="Q7" s="7">
         <v>2.5</v>
       </c>
-      <c r="L7" s="14">
+      <c r="R7" s="14">
         <v>0.4</v>
       </c>
-      <c r="M7" s="7">
+      <c r="S7" s="7">
         <v>1.05</v>
       </c>
-      <c r="N7" s="7">
+      <c r="T7" s="7">
         <v>2.0</v>
       </c>
-      <c r="O7" s="7">
+      <c r="U7" s="7">
         <v>-0.2</v>
       </c>
-      <c r="P7" s="8">
+      <c r="V7" s="8">
         <v>2025.0</v>
       </c>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="13"/>
-      <c r="T7" s="13"/>
-      <c r="U7" s="13"/>
-      <c r="V7" s="13"/>
       <c r="W7" s="13"/>
       <c r="X7" s="13"/>
       <c r="Y7" s="13"/>
@@ -14071,62 +14212,80 @@
       <c r="AB7" s="13"/>
       <c r="AC7" s="13"/>
       <c r="AD7" s="13"/>
+      <c r="AE7" s="13"/>
+      <c r="AF7" s="13"/>
+      <c r="AG7" s="13"/>
+      <c r="AH7" s="13"/>
+      <c r="AI7" s="13"/>
+      <c r="AJ7" s="13"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B8" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="D8" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="E8" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="F8" s="8">
+        <v>10.0</v>
+      </c>
+      <c r="G8" s="8">
+        <v>12.0</v>
+      </c>
+      <c r="H8" s="8">
+        <v>0.454</v>
+      </c>
+      <c r="I8" s="7">
         <v>-1.44</v>
       </c>
-      <c r="D8" s="14">
+      <c r="J8" s="14">
         <v>0.556</v>
       </c>
-      <c r="E8" s="7">
+      <c r="K8" s="7">
         <v>0.99</v>
       </c>
-      <c r="F8" s="7">
+      <c r="L8" s="7">
         <v>219.33</v>
       </c>
-      <c r="G8" s="7">
+      <c r="M8" s="7">
         <v>0.99</v>
       </c>
-      <c r="H8" s="14">
+      <c r="N8" s="14">
         <v>0.125</v>
       </c>
-      <c r="I8" s="7">
+      <c r="O8" s="7">
         <v>0.83</v>
       </c>
-      <c r="J8" s="7">
+      <c r="P8" s="7">
         <v>3.0</v>
       </c>
-      <c r="K8" s="7">
+      <c r="Q8" s="7">
         <v>-2.63</v>
       </c>
-      <c r="L8" s="14">
+      <c r="R8" s="14">
         <v>0.8</v>
       </c>
-      <c r="M8" s="7">
+      <c r="S8" s="7">
         <v>1.08</v>
       </c>
-      <c r="N8" s="7">
+      <c r="T8" s="7">
         <v>2.8</v>
       </c>
-      <c r="O8" s="7">
+      <c r="U8" s="7">
         <v>1.6</v>
       </c>
-      <c r="P8" s="8">
+      <c r="V8" s="8">
         <v>2025.0</v>
       </c>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="13"/>
-      <c r="S8" s="13"/>
-      <c r="T8" s="13"/>
-      <c r="U8" s="13"/>
-      <c r="V8" s="13"/>
       <c r="W8" s="13"/>
       <c r="X8" s="13"/>
       <c r="Y8" s="13"/>
@@ -14135,62 +14294,80 @@
       <c r="AB8" s="13"/>
       <c r="AC8" s="13"/>
       <c r="AD8" s="13"/>
+      <c r="AE8" s="13"/>
+      <c r="AF8" s="13"/>
+      <c r="AG8" s="13"/>
+      <c r="AH8" s="13"/>
+      <c r="AI8" s="13"/>
+      <c r="AJ8" s="13"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="7" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B9" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="D9" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="E9" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="F9" s="8">
+        <v>8.0</v>
+      </c>
+      <c r="G9" s="8">
+        <v>15.0</v>
+      </c>
+      <c r="H9" s="8">
+        <v>0.348</v>
+      </c>
+      <c r="I9" s="7">
         <v>-11.7</v>
       </c>
-      <c r="D9" s="14">
+      <c r="J9" s="14">
         <v>0.3</v>
       </c>
-      <c r="E9" s="7">
+      <c r="K9" s="7">
         <v>0.99</v>
       </c>
-      <c r="F9" s="7">
+      <c r="L9" s="7">
         <v>221.1</v>
       </c>
-      <c r="G9" s="7">
+      <c r="M9" s="7">
         <v>0.99</v>
       </c>
-      <c r="H9" s="14">
+      <c r="N9" s="14">
         <v>0.25</v>
       </c>
-      <c r="I9" s="7">
+      <c r="O9" s="7">
         <v>0.95</v>
       </c>
-      <c r="J9" s="7">
+      <c r="P9" s="7">
         <v>3.88</v>
       </c>
-      <c r="K9" s="7">
+      <c r="Q9" s="7">
         <v>-1.38</v>
       </c>
-      <c r="L9" s="14">
+      <c r="R9" s="14">
         <v>0.6</v>
       </c>
-      <c r="M9" s="7">
+      <c r="S9" s="7">
         <v>1.0</v>
       </c>
-      <c r="N9" s="7">
+      <c r="T9" s="7">
         <v>2.2</v>
       </c>
-      <c r="O9" s="7">
+      <c r="U9" s="7">
         <v>0.2</v>
       </c>
-      <c r="P9" s="8">
+      <c r="V9" s="8">
         <v>2025.0</v>
       </c>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="13"/>
-      <c r="T9" s="13"/>
-      <c r="U9" s="13"/>
-      <c r="V9" s="13"/>
       <c r="W9" s="13"/>
       <c r="X9" s="13"/>
       <c r="Y9" s="13"/>
@@ -14199,62 +14376,80 @@
       <c r="AB9" s="13"/>
       <c r="AC9" s="13"/>
       <c r="AD9" s="13"/>
+      <c r="AE9" s="13"/>
+      <c r="AF9" s="13"/>
+      <c r="AG9" s="13"/>
+      <c r="AH9" s="13"/>
+      <c r="AI9" s="13"/>
+      <c r="AJ9" s="13"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="7" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B10" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="D10" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="E10" s="8">
+        <v>0.333</v>
+      </c>
+      <c r="F10" s="8">
+        <v>11.0</v>
+      </c>
+      <c r="G10" s="8">
+        <v>13.0</v>
+      </c>
+      <c r="H10" s="8">
+        <v>0.458</v>
+      </c>
+      <c r="I10" s="7">
         <v>-22.9</v>
       </c>
-      <c r="D10" s="14">
+      <c r="J10" s="14">
         <v>0.6</v>
       </c>
-      <c r="E10" s="7">
+      <c r="K10" s="7">
         <v>0.95</v>
       </c>
-      <c r="F10" s="7">
+      <c r="L10" s="7">
         <v>195.7</v>
       </c>
-      <c r="G10" s="7">
+      <c r="M10" s="7">
         <v>0.92</v>
       </c>
-      <c r="H10" s="14">
+      <c r="N10" s="14">
         <v>0.5</v>
       </c>
-      <c r="I10" s="7">
+      <c r="O10" s="7">
         <v>0.97</v>
       </c>
-      <c r="J10" s="7">
+      <c r="P10" s="7">
         <v>4.63</v>
       </c>
-      <c r="K10" s="7">
+      <c r="Q10" s="7">
         <v>-0.5</v>
       </c>
-      <c r="L10" s="14">
+      <c r="R10" s="14">
         <v>0.167</v>
       </c>
-      <c r="M10" s="7">
+      <c r="S10" s="7">
         <v>0.86</v>
       </c>
-      <c r="N10" s="7">
+      <c r="T10" s="7">
         <v>1.33</v>
       </c>
-      <c r="O10" s="7">
+      <c r="U10" s="7">
         <v>-1.33</v>
       </c>
-      <c r="P10" s="8">
+      <c r="V10" s="8">
         <v>2025.0</v>
       </c>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="13"/>
-      <c r="T10" s="13"/>
-      <c r="U10" s="13"/>
-      <c r="V10" s="13"/>
       <c r="W10" s="13"/>
       <c r="X10" s="13"/>
       <c r="Y10" s="13"/>
@@ -14263,62 +14458,80 @@
       <c r="AB10" s="13"/>
       <c r="AC10" s="13"/>
       <c r="AD10" s="13"/>
+      <c r="AE10" s="13"/>
+      <c r="AF10" s="13"/>
+      <c r="AG10" s="13"/>
+      <c r="AH10" s="13"/>
+      <c r="AI10" s="13"/>
+      <c r="AJ10" s="13"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="7" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B11" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="D11" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="E11" s="8">
+        <v>57.1</v>
+      </c>
+      <c r="F11" s="8">
+        <v>16.0</v>
+      </c>
+      <c r="G11" s="8">
+        <v>17.0</v>
+      </c>
+      <c r="H11" s="8">
+        <v>0.485</v>
+      </c>
+      <c r="I11" s="7">
         <v>-23.21</v>
       </c>
-      <c r="D11" s="14">
+      <c r="J11" s="14">
         <v>0.286</v>
       </c>
-      <c r="E11" s="7">
+      <c r="K11" s="7">
         <v>0.96</v>
       </c>
-      <c r="F11" s="7">
+      <c r="L11" s="7">
         <v>216.07</v>
       </c>
-      <c r="G11" s="7">
+      <c r="M11" s="7">
         <v>0.98</v>
       </c>
-      <c r="H11" s="14">
+      <c r="N11" s="14">
         <v>0.583</v>
       </c>
-      <c r="I11" s="7">
+      <c r="O11" s="7">
         <v>1.0</v>
       </c>
-      <c r="J11" s="7">
+      <c r="P11" s="7">
         <v>4.67</v>
       </c>
-      <c r="K11" s="7">
+      <c r="Q11" s="7">
         <v>0.17</v>
       </c>
-      <c r="L11" s="14">
+      <c r="R11" s="14">
         <v>0.714</v>
       </c>
-      <c r="M11" s="7">
+      <c r="S11" s="7">
         <v>1.02</v>
       </c>
-      <c r="N11" s="7">
+      <c r="T11" s="7">
         <v>2.43</v>
       </c>
-      <c r="O11" s="7">
+      <c r="U11" s="7">
         <v>0.71</v>
       </c>
-      <c r="P11" s="8">
+      <c r="V11" s="8">
         <v>2025.0</v>
       </c>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="13"/>
-      <c r="T11" s="13"/>
-      <c r="U11" s="13"/>
-      <c r="V11" s="13"/>
       <c r="W11" s="13"/>
       <c r="X11" s="13"/>
       <c r="Y11" s="13"/>
@@ -14327,62 +14540,80 @@
       <c r="AB11" s="13"/>
       <c r="AC11" s="13"/>
       <c r="AD11" s="13"/>
+      <c r="AE11" s="13"/>
+      <c r="AF11" s="13"/>
+      <c r="AG11" s="13"/>
+      <c r="AH11" s="13"/>
+      <c r="AI11" s="13"/>
+      <c r="AJ11" s="13"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="7" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="B12" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="D12" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="E12" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="F12" s="8">
+        <v>8.0</v>
+      </c>
+      <c r="G12" s="8">
+        <v>14.0</v>
+      </c>
+      <c r="H12" s="8">
+        <v>0.364</v>
+      </c>
+      <c r="I12" s="7">
         <v>-48.78</v>
       </c>
-      <c r="D12" s="14">
+      <c r="J12" s="14">
         <v>0.333</v>
       </c>
-      <c r="E12" s="7">
+      <c r="K12" s="7">
         <v>0.88</v>
       </c>
-      <c r="F12" s="7">
+      <c r="L12" s="7">
         <v>185.78</v>
       </c>
-      <c r="G12" s="7">
+      <c r="M12" s="7">
         <v>0.91</v>
       </c>
-      <c r="H12" s="14">
+      <c r="N12" s="14">
         <v>0.375</v>
       </c>
-      <c r="I12" s="7">
+      <c r="O12" s="7">
         <v>0.88</v>
       </c>
-      <c r="J12" s="7">
+      <c r="P12" s="7">
         <v>4.5</v>
       </c>
-      <c r="K12" s="7">
+      <c r="Q12" s="7">
         <v>-0.63</v>
       </c>
-      <c r="L12" s="14">
+      <c r="R12" s="14">
         <v>0.4</v>
       </c>
-      <c r="M12" s="7">
+      <c r="S12" s="7">
         <v>1.0</v>
       </c>
-      <c r="N12" s="7">
+      <c r="T12" s="7">
         <v>1.6</v>
       </c>
-      <c r="O12" s="7">
+      <c r="U12" s="7">
         <v>-0.4</v>
       </c>
-      <c r="P12" s="8">
+      <c r="V12" s="8">
         <v>2025.0</v>
       </c>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="13"/>
-      <c r="S12" s="13"/>
-      <c r="T12" s="13"/>
-      <c r="U12" s="13"/>
-      <c r="V12" s="13"/>
       <c r="W12" s="13"/>
       <c r="X12" s="13"/>
       <c r="Y12" s="13"/>
@@ -14391,62 +14622,80 @@
       <c r="AB12" s="13"/>
       <c r="AC12" s="13"/>
       <c r="AD12" s="13"/>
+      <c r="AE12" s="13"/>
+      <c r="AF12" s="13"/>
+      <c r="AG12" s="13"/>
+      <c r="AH12" s="13"/>
+      <c r="AI12" s="13"/>
+      <c r="AJ12" s="13"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="7" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="D13" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="E13" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="F13" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="G13" s="8">
+        <v>15.0</v>
+      </c>
+      <c r="H13" s="8">
+        <v>0.118</v>
+      </c>
+      <c r="I13" s="7">
         <v>-66.71</v>
       </c>
-      <c r="D13" s="14">
+      <c r="J13" s="14">
         <v>0.0</v>
       </c>
-      <c r="E13" s="7">
+      <c r="K13" s="7">
         <v>0.89</v>
       </c>
-      <c r="F13" s="7">
+      <c r="L13" s="7">
         <v>183.29</v>
       </c>
-      <c r="G13" s="7">
+      <c r="M13" s="7">
         <v>0.9</v>
       </c>
-      <c r="H13" s="14">
+      <c r="N13" s="14">
         <v>0.2</v>
       </c>
-      <c r="I13" s="7">
+      <c r="O13" s="7">
         <v>0.9</v>
       </c>
-      <c r="J13" s="7">
+      <c r="P13" s="7">
         <v>4.2</v>
       </c>
-      <c r="K13" s="7">
+      <c r="Q13" s="7">
         <v>-1.0</v>
       </c>
-      <c r="L13" s="14">
+      <c r="R13" s="14">
         <v>0.2</v>
       </c>
-      <c r="M13" s="7">
+      <c r="S13" s="7">
         <v>0.93</v>
       </c>
-      <c r="N13" s="7">
+      <c r="T13" s="7">
         <v>1.0</v>
       </c>
-      <c r="O13" s="7">
+      <c r="U13" s="7">
         <v>-1.8</v>
       </c>
-      <c r="P13" s="8">
+      <c r="V13" s="8">
         <v>2025.0</v>
       </c>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="13"/>
-      <c r="T13" s="13"/>
-      <c r="U13" s="13"/>
-      <c r="V13" s="13"/>
       <c r="W13" s="13"/>
       <c r="X13" s="13"/>
       <c r="Y13" s="13"/>
@@ -14455,112 +14704,148 @@
       <c r="AB13" s="13"/>
       <c r="AC13" s="13"/>
       <c r="AD13" s="13"/>
+      <c r="AE13" s="13"/>
+      <c r="AF13" s="13"/>
+      <c r="AG13" s="13"/>
+      <c r="AH13" s="13"/>
+      <c r="AI13" s="13"/>
+      <c r="AJ13" s="13"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="7" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="B14" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="15">
+        <v>29.0</v>
+      </c>
+      <c r="D14" s="15">
+        <v>16.0</v>
+      </c>
+      <c r="E14" s="15">
+        <v>0.64</v>
+      </c>
+      <c r="F14" s="15">
+        <v>109.0</v>
+      </c>
+      <c r="G14" s="15">
+        <v>78.0</v>
+      </c>
+      <c r="H14" s="15">
+        <v>0.58</v>
+      </c>
+      <c r="I14" s="7">
         <v>29.63</v>
       </c>
-      <c r="D14" s="14">
+      <c r="J14" s="14">
         <v>0.705</v>
       </c>
-      <c r="E14" s="7">
+      <c r="K14" s="7">
         <v>1.04</v>
       </c>
-      <c r="F14" s="7">
+      <c r="L14" s="7">
         <v>232.25</v>
       </c>
-      <c r="G14" s="7">
+      <c r="M14" s="7">
         <v>1.04</v>
       </c>
-      <c r="H14" s="14">
+      <c r="N14" s="14">
         <v>0.479</v>
       </c>
-      <c r="I14" s="7">
+      <c r="O14" s="7">
         <v>1.02</v>
       </c>
-      <c r="J14" s="7">
+      <c r="P14" s="7">
         <v>4.67</v>
       </c>
-      <c r="K14" s="7">
+      <c r="Q14" s="7">
         <v>0.11</v>
       </c>
-      <c r="L14" s="14">
+      <c r="R14" s="14">
         <v>0.574</v>
       </c>
-      <c r="M14" s="7">
+      <c r="S14" s="7">
         <v>1.06</v>
       </c>
-      <c r="N14" s="7">
+      <c r="T14" s="7">
         <v>2.31</v>
       </c>
-      <c r="O14" s="7">
+      <c r="U14" s="7">
         <v>0.5</v>
       </c>
-      <c r="P14" s="11">
+      <c r="V14" s="11">
         <v>2024.0</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="7" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B15" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="15">
+        <v>35.0</v>
+      </c>
+      <c r="D15" s="15">
+        <v>10.0</v>
+      </c>
+      <c r="E15" s="15">
+        <v>0.78</v>
+      </c>
+      <c r="F15" s="15">
+        <v>112.0</v>
+      </c>
+      <c r="G15" s="15">
+        <v>56.0</v>
+      </c>
+      <c r="H15" s="15">
+        <v>0.67</v>
+      </c>
+      <c r="I15" s="7">
         <v>28.07</v>
       </c>
-      <c r="D15" s="14">
+      <c r="J15" s="14">
         <v>0.702</v>
       </c>
-      <c r="E15" s="7">
+      <c r="K15" s="7">
         <v>1.07</v>
       </c>
-      <c r="F15" s="7">
+      <c r="L15" s="7">
         <v>229.64</v>
-      </c>
-      <c r="G15" s="7">
-        <v>1.05</v>
-      </c>
-      <c r="H15" s="14">
-        <v>0.587</v>
-      </c>
-      <c r="I15" s="7">
-        <v>1.01</v>
-      </c>
-      <c r="J15" s="7">
-        <v>4.79</v>
-      </c>
-      <c r="K15" s="7">
-        <v>0.63</v>
-      </c>
-      <c r="L15" s="14">
-        <v>0.679</v>
       </c>
       <c r="M15" s="7">
         <v>1.05</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N15" s="14">
+        <v>0.587</v>
+      </c>
+      <c r="O15" s="7">
+        <v>1.01</v>
+      </c>
+      <c r="P15" s="7">
+        <v>4.79</v>
+      </c>
+      <c r="Q15" s="7">
+        <v>0.63</v>
+      </c>
+      <c r="R15" s="14">
+        <v>0.679</v>
+      </c>
+      <c r="S15" s="7">
+        <v>1.05</v>
+      </c>
+      <c r="T15" s="7">
         <v>2.4</v>
       </c>
-      <c r="O15" s="7">
+      <c r="U15" s="7">
         <v>0.6</v>
       </c>
-      <c r="P15" s="11">
+      <c r="V15" s="11">
         <v>2024.0</v>
       </c>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="13"/>
-      <c r="S15" s="13"/>
-      <c r="T15" s="13"/>
-      <c r="U15" s="13"/>
-      <c r="V15" s="13"/>
       <c r="W15" s="13"/>
       <c r="X15" s="13"/>
       <c r="Y15" s="13"/>
@@ -14569,112 +14854,148 @@
       <c r="AB15" s="13"/>
       <c r="AC15" s="13"/>
       <c r="AD15" s="13"/>
+      <c r="AE15" s="13"/>
+      <c r="AF15" s="13"/>
+      <c r="AG15" s="13"/>
+      <c r="AH15" s="13"/>
+      <c r="AI15" s="13"/>
+      <c r="AJ15" s="13"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="7" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="B16" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="15">
+        <v>37.0</v>
+      </c>
+      <c r="D16" s="15">
+        <v>8.0</v>
+      </c>
+      <c r="E16" s="15">
+        <v>0.82</v>
+      </c>
+      <c r="F16" s="15">
+        <v>126.0</v>
+      </c>
+      <c r="G16" s="15">
+        <v>52.0</v>
+      </c>
+      <c r="H16" s="15">
+        <v>0.71</v>
+      </c>
+      <c r="I16" s="7">
         <v>22.87</v>
       </c>
-      <c r="D16" s="14">
+      <c r="J16" s="14">
         <v>0.69</v>
       </c>
-      <c r="E16" s="7">
+      <c r="K16" s="7">
         <v>1.1</v>
       </c>
-      <c r="F16" s="7">
+      <c r="L16" s="7">
         <v>231.48</v>
       </c>
-      <c r="G16" s="7">
+      <c r="M16" s="7">
         <v>1.12</v>
       </c>
-      <c r="H16" s="14">
+      <c r="N16" s="14">
         <v>0.657</v>
       </c>
-      <c r="I16" s="7">
+      <c r="O16" s="7">
         <v>1.14</v>
       </c>
-      <c r="J16" s="7">
+      <c r="P16" s="7">
         <v>5.09</v>
       </c>
-      <c r="K16" s="7">
+      <c r="Q16" s="7">
         <v>1.19</v>
       </c>
-      <c r="L16" s="14">
+      <c r="R16" s="14">
         <v>0.782</v>
       </c>
-      <c r="M16" s="7">
+      <c r="S16" s="7">
         <v>1.14</v>
       </c>
-      <c r="N16" s="7">
+      <c r="T16" s="7">
         <v>2.65</v>
       </c>
-      <c r="O16" s="7">
+      <c r="U16" s="7">
         <v>1.13</v>
       </c>
-      <c r="P16" s="11">
+      <c r="V16" s="11">
         <v>2024.0</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="7" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="15">
+        <v>30.0</v>
+      </c>
+      <c r="D17" s="15">
+        <v>16.0</v>
+      </c>
+      <c r="E17" s="15">
+        <v>0.65</v>
+      </c>
+      <c r="F17" s="15">
+        <v>108.0</v>
+      </c>
+      <c r="G17" s="15">
+        <v>76.0</v>
+      </c>
+      <c r="H17" s="15">
+        <v>0.59</v>
+      </c>
+      <c r="I17" s="7">
         <v>13.27</v>
       </c>
-      <c r="D17" s="14">
+      <c r="J17" s="14">
         <v>0.553</v>
       </c>
-      <c r="E17" s="7">
+      <c r="K17" s="7">
         <v>1.05</v>
       </c>
-      <c r="F17" s="7">
+      <c r="L17" s="7">
         <v>222.63</v>
       </c>
-      <c r="G17" s="7">
+      <c r="M17" s="7">
         <v>1.04</v>
       </c>
-      <c r="H17" s="14">
+      <c r="N17" s="14">
         <v>0.587</v>
       </c>
-      <c r="I17" s="7">
+      <c r="O17" s="7">
         <v>1.05</v>
       </c>
-      <c r="J17" s="7">
+      <c r="P17" s="7">
         <v>4.75</v>
       </c>
-      <c r="K17" s="7">
+      <c r="Q17" s="7">
         <v>0.39</v>
       </c>
-      <c r="L17" s="14">
+      <c r="R17" s="14">
         <v>0.561</v>
       </c>
-      <c r="M17" s="7">
+      <c r="S17" s="7">
         <v>1.03</v>
       </c>
-      <c r="N17" s="7">
+      <c r="T17" s="7">
         <v>2.21</v>
       </c>
-      <c r="O17" s="7">
+      <c r="U17" s="7">
         <v>0.3</v>
       </c>
-      <c r="P17" s="11">
+      <c r="V17" s="11">
         <v>2024.0</v>
       </c>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="13"/>
-      <c r="S17" s="13"/>
-      <c r="T17" s="13"/>
-      <c r="U17" s="13"/>
-      <c r="V17" s="13"/>
       <c r="W17" s="13"/>
       <c r="X17" s="13"/>
       <c r="Y17" s="13"/>
@@ -14683,112 +15004,148 @@
       <c r="AB17" s="13"/>
       <c r="AC17" s="13"/>
       <c r="AD17" s="13"/>
+      <c r="AE17" s="13"/>
+      <c r="AF17" s="13"/>
+      <c r="AG17" s="13"/>
+      <c r="AH17" s="13"/>
+      <c r="AI17" s="13"/>
+      <c r="AJ17" s="13"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="7" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="15">
+        <v>16.0</v>
+      </c>
+      <c r="D18" s="15">
+        <v>24.0</v>
+      </c>
+      <c r="E18" s="15">
+        <v>0.4</v>
+      </c>
+      <c r="F18" s="15">
+        <v>70.0</v>
+      </c>
+      <c r="G18" s="15">
+        <v>90.0</v>
+      </c>
+      <c r="H18" s="15">
+        <v>0.44</v>
+      </c>
+      <c r="I18" s="7">
         <v>2.38</v>
       </c>
-      <c r="D18" s="14">
+      <c r="J18" s="14">
         <v>0.508</v>
       </c>
-      <c r="E18" s="7">
+      <c r="K18" s="7">
         <v>1.05</v>
       </c>
-      <c r="F18" s="7">
+      <c r="L18" s="7">
         <v>218.89</v>
       </c>
-      <c r="G18" s="7">
+      <c r="M18" s="7">
         <v>1.02</v>
       </c>
-      <c r="H18" s="14">
+      <c r="N18" s="14">
         <v>0.346</v>
       </c>
-      <c r="I18" s="7">
+      <c r="O18" s="7">
         <v>0.96</v>
       </c>
-      <c r="J18" s="7">
+      <c r="P18" s="7">
         <v>4.21</v>
       </c>
-      <c r="K18" s="7">
+      <c r="Q18" s="7">
         <v>-0.69</v>
       </c>
-      <c r="L18" s="14">
+      <c r="R18" s="14">
         <v>0.475</v>
       </c>
-      <c r="M18" s="7">
+      <c r="S18" s="7">
         <v>1.01</v>
       </c>
-      <c r="N18" s="7">
+      <c r="T18" s="7">
         <v>1.93</v>
       </c>
-      <c r="O18" s="7">
+      <c r="U18" s="7">
         <v>-0.32</v>
       </c>
-      <c r="P18" s="11">
+      <c r="V18" s="11">
         <v>2024.0</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="7" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B19" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="15">
+        <v>11.0</v>
+      </c>
+      <c r="D19" s="15">
+        <v>25.0</v>
+      </c>
+      <c r="E19" s="15">
+        <v>0.31</v>
+      </c>
+      <c r="F19" s="15">
+        <v>56.0</v>
+      </c>
+      <c r="G19" s="15">
+        <v>90.0</v>
+      </c>
+      <c r="H19" s="15">
+        <v>0.38</v>
+      </c>
+      <c r="I19" s="7">
         <v>-5.59</v>
       </c>
-      <c r="D19" s="14">
+      <c r="J19" s="14">
         <v>0.443</v>
       </c>
-      <c r="E19" s="7">
+      <c r="K19" s="7">
         <v>0.94</v>
       </c>
-      <c r="F19" s="7">
+      <c r="L19" s="7">
         <v>213.38</v>
-      </c>
-      <c r="G19" s="7">
-        <v>0.95</v>
-      </c>
-      <c r="H19" s="14">
-        <v>0.55</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0.99</v>
-      </c>
-      <c r="J19" s="7">
-        <v>4.68</v>
-      </c>
-      <c r="K19" s="7">
-        <v>0.12</v>
-      </c>
-      <c r="L19" s="14">
-        <v>0.326</v>
       </c>
       <c r="M19" s="7">
         <v>0.95</v>
       </c>
-      <c r="N19" s="7">
+      <c r="N19" s="14">
+        <v>0.55</v>
+      </c>
+      <c r="O19" s="7">
+        <v>0.99</v>
+      </c>
+      <c r="P19" s="7">
+        <v>4.68</v>
+      </c>
+      <c r="Q19" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="R19" s="14">
+        <v>0.326</v>
+      </c>
+      <c r="S19" s="7">
+        <v>0.95</v>
+      </c>
+      <c r="T19" s="7">
         <v>1.7</v>
       </c>
-      <c r="O19" s="7">
+      <c r="U19" s="7">
         <v>-0.7</v>
       </c>
-      <c r="P19" s="11">
+      <c r="V19" s="11">
         <v>2024.0</v>
       </c>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="13"/>
-      <c r="S19" s="13"/>
-      <c r="T19" s="13"/>
-      <c r="U19" s="13"/>
-      <c r="V19" s="13"/>
       <c r="W19" s="13"/>
       <c r="X19" s="13"/>
       <c r="Y19" s="13"/>
@@ -14797,112 +15154,148 @@
       <c r="AB19" s="13"/>
       <c r="AC19" s="13"/>
       <c r="AD19" s="13"/>
+      <c r="AE19" s="13"/>
+      <c r="AF19" s="13"/>
+      <c r="AG19" s="13"/>
+      <c r="AH19" s="13"/>
+      <c r="AI19" s="13"/>
+      <c r="AJ19" s="13"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="7" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B20" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="15">
+        <v>13.0</v>
+      </c>
+      <c r="D20" s="15">
+        <v>24.0</v>
+      </c>
+      <c r="E20" s="15">
+        <v>0.35</v>
+      </c>
+      <c r="F20" s="15">
+        <v>65.0</v>
+      </c>
+      <c r="G20" s="15">
+        <v>88.0</v>
+      </c>
+      <c r="H20" s="15">
+        <v>0.42</v>
+      </c>
+      <c r="I20" s="7">
         <v>-8.07</v>
       </c>
-      <c r="D20" s="14">
+      <c r="J20" s="14">
         <v>0.434</v>
       </c>
-      <c r="E20" s="7">
+      <c r="K20" s="7">
         <v>0.94</v>
       </c>
-      <c r="F20" s="7">
+      <c r="L20" s="7">
         <v>209.52</v>
-      </c>
-      <c r="G20" s="7">
-        <v>0.96</v>
-      </c>
-      <c r="H20" s="14">
-        <v>0.571</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1.01</v>
-      </c>
-      <c r="J20" s="7">
-        <v>4.57</v>
-      </c>
-      <c r="K20" s="7">
-        <v>-0.02</v>
-      </c>
-      <c r="L20" s="14">
-        <v>0.438</v>
       </c>
       <c r="M20" s="7">
         <v>0.96</v>
       </c>
-      <c r="N20" s="7">
+      <c r="N20" s="14">
+        <v>0.571</v>
+      </c>
+      <c r="O20" s="7">
+        <v>1.01</v>
+      </c>
+      <c r="P20" s="7">
+        <v>4.57</v>
+      </c>
+      <c r="Q20" s="7">
+        <v>-0.02</v>
+      </c>
+      <c r="R20" s="14">
+        <v>0.438</v>
+      </c>
+      <c r="S20" s="7">
+        <v>0.96</v>
+      </c>
+      <c r="T20" s="7">
         <v>2.1</v>
       </c>
-      <c r="O20" s="7">
+      <c r="U20" s="7">
         <v>-0.02</v>
       </c>
-      <c r="P20" s="11">
+      <c r="V20" s="11">
         <v>2024.0</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="7" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B21" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="15">
+        <v>15.0</v>
+      </c>
+      <c r="D21" s="15">
+        <v>22.0</v>
+      </c>
+      <c r="E21" s="15">
+        <v>0.41</v>
+      </c>
+      <c r="F21" s="15">
+        <v>65.0</v>
+      </c>
+      <c r="G21" s="15">
+        <v>79.0</v>
+      </c>
+      <c r="H21" s="15">
+        <v>0.45</v>
+      </c>
+      <c r="I21" s="7">
         <v>-8.76</v>
       </c>
-      <c r="D21" s="14">
+      <c r="J21" s="14">
         <v>0.389</v>
       </c>
-      <c r="E21" s="7">
+      <c r="K21" s="7">
         <v>0.97</v>
       </c>
-      <c r="F21" s="7">
+      <c r="L21" s="7">
         <v>213.82</v>
       </c>
-      <c r="G21" s="7">
+      <c r="M21" s="7">
         <v>0.96</v>
       </c>
-      <c r="H21" s="14">
+      <c r="N21" s="14">
         <v>0.537</v>
       </c>
-      <c r="I21" s="7">
+      <c r="O21" s="7">
         <v>1.02</v>
       </c>
-      <c r="J21" s="7">
+      <c r="P21" s="7">
         <v>4.94</v>
       </c>
-      <c r="K21" s="7">
+      <c r="Q21" s="7">
         <v>0.24</v>
       </c>
-      <c r="L21" s="14">
+      <c r="R21" s="14">
         <v>0.386</v>
       </c>
-      <c r="M21" s="7">
+      <c r="S21" s="7">
         <v>0.91</v>
       </c>
-      <c r="N21" s="7">
+      <c r="T21" s="7">
         <v>1.66</v>
       </c>
-      <c r="O21" s="7">
+      <c r="U21" s="7">
         <v>-0.66</v>
       </c>
-      <c r="P21" s="11">
+      <c r="V21" s="11">
         <v>2024.0</v>
       </c>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="13"/>
-      <c r="S21" s="13"/>
-      <c r="T21" s="13"/>
-      <c r="U21" s="13"/>
-      <c r="V21" s="13"/>
       <c r="W21" s="13"/>
       <c r="X21" s="13"/>
       <c r="Y21" s="13"/>
@@ -14911,112 +15304,148 @@
       <c r="AB21" s="13"/>
       <c r="AC21" s="13"/>
       <c r="AD21" s="13"/>
+      <c r="AE21" s="13"/>
+      <c r="AF21" s="13"/>
+      <c r="AG21" s="13"/>
+      <c r="AH21" s="13"/>
+      <c r="AI21" s="13"/>
+      <c r="AJ21" s="13"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="7" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B22" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="15">
+        <v>14.0</v>
+      </c>
+      <c r="D22" s="15">
+        <v>26.0</v>
+      </c>
+      <c r="E22" s="15">
+        <v>0.35</v>
+      </c>
+      <c r="F22" s="15">
+        <v>57.0</v>
+      </c>
+      <c r="G22" s="15">
+        <v>91.0</v>
+      </c>
+      <c r="H22" s="15">
+        <v>0.39</v>
+      </c>
+      <c r="I22" s="7">
         <v>-12.13</v>
       </c>
-      <c r="D22" s="14">
+      <c r="J22" s="14">
         <v>0.431</v>
       </c>
-      <c r="E22" s="7">
+      <c r="K22" s="7">
         <v>0.99</v>
       </c>
-      <c r="F22" s="7">
+      <c r="L22" s="7">
         <v>208.22</v>
       </c>
-      <c r="G22" s="7">
+      <c r="M22" s="7">
         <v>0.97</v>
       </c>
-      <c r="H22" s="14">
+      <c r="N22" s="14">
         <v>0.446</v>
       </c>
-      <c r="I22" s="7">
+      <c r="O22" s="7">
         <v>0.93</v>
       </c>
-      <c r="J22" s="7">
+      <c r="P22" s="7">
         <v>4.23</v>
       </c>
-      <c r="K22" s="7">
+      <c r="Q22" s="7">
         <v>-0.41</v>
       </c>
-      <c r="L22" s="14">
+      <c r="R22" s="14">
         <v>0.439</v>
       </c>
-      <c r="M22" s="7">
+      <c r="S22" s="7">
         <v>0.96</v>
       </c>
-      <c r="N22" s="7">
+      <c r="T22" s="7">
         <v>1.9</v>
       </c>
-      <c r="O22" s="7">
+      <c r="U22" s="7">
         <v>-0.15</v>
       </c>
-      <c r="P22" s="11">
+      <c r="V22" s="11">
         <v>2024.0</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="7" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B23" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="15">
+        <v>17.0</v>
+      </c>
+      <c r="D23" s="15">
+        <v>20.0</v>
+      </c>
+      <c r="E23" s="15">
+        <v>0.46</v>
+      </c>
+      <c r="F23" s="15">
+        <v>69.0</v>
+      </c>
+      <c r="G23" s="15">
+        <v>69.0</v>
+      </c>
+      <c r="H23" s="15">
+        <v>0.45</v>
+      </c>
+      <c r="I23" s="7">
         <v>-18.85</v>
       </c>
-      <c r="D23" s="14">
+      <c r="J23" s="14">
         <v>0.4</v>
       </c>
-      <c r="E23" s="7">
+      <c r="K23" s="7">
         <v>0.97</v>
       </c>
-      <c r="F23" s="7">
+      <c r="L23" s="7">
         <v>207.75</v>
       </c>
-      <c r="G23" s="7">
+      <c r="M23" s="7">
         <v>0.96</v>
       </c>
-      <c r="H23" s="14">
+      <c r="N23" s="14">
         <v>0.216</v>
       </c>
-      <c r="I23" s="7">
+      <c r="O23" s="7">
         <v>0.88</v>
       </c>
-      <c r="J23" s="7">
+      <c r="P23" s="7">
         <v>3.75</v>
       </c>
-      <c r="K23" s="7">
+      <c r="Q23" s="7">
         <v>-1.49</v>
       </c>
-      <c r="L23" s="14">
+      <c r="R23" s="14">
         <v>0.514</v>
       </c>
-      <c r="M23" s="7">
+      <c r="S23" s="7">
         <v>0.98</v>
       </c>
-      <c r="N23" s="7">
+      <c r="T23" s="7">
         <v>2.0</v>
       </c>
-      <c r="O23" s="7">
+      <c r="U23" s="7">
         <v>0.08</v>
       </c>
-      <c r="P23" s="11">
+      <c r="V23" s="11">
         <v>2024.0</v>
       </c>
-      <c r="Q23" s="13"/>
-      <c r="R23" s="13"/>
-      <c r="S23" s="13"/>
-      <c r="T23" s="13"/>
-      <c r="U23" s="13"/>
-      <c r="V23" s="13"/>
       <c r="W23" s="13"/>
       <c r="X23" s="13"/>
       <c r="Y23" s="13"/>
@@ -15025,112 +15454,148 @@
       <c r="AB23" s="13"/>
       <c r="AC23" s="13"/>
       <c r="AD23" s="13"/>
+      <c r="AE23" s="13"/>
+      <c r="AF23" s="13"/>
+      <c r="AG23" s="13"/>
+      <c r="AH23" s="13"/>
+      <c r="AI23" s="13"/>
+      <c r="AJ23" s="13"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="7" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="B24" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="15">
+        <v>6.0</v>
+      </c>
+      <c r="D24" s="15">
+        <v>27.0</v>
+      </c>
+      <c r="E24" s="15">
+        <v>0.18</v>
+      </c>
+      <c r="F24" s="15">
+        <v>47.0</v>
+      </c>
+      <c r="G24" s="15">
+        <v>87.0</v>
+      </c>
+      <c r="H24" s="15">
+        <v>0.35</v>
+      </c>
+      <c r="I24" s="7">
         <v>-19.98</v>
       </c>
-      <c r="D24" s="14">
+      <c r="J24" s="14">
         <v>0.328</v>
       </c>
-      <c r="E24" s="7">
+      <c r="K24" s="7">
         <v>0.92</v>
       </c>
-      <c r="F24" s="7">
+      <c r="L24" s="7">
         <v>206.75</v>
-      </c>
-      <c r="G24" s="7">
-        <v>0.93</v>
-      </c>
-      <c r="H24" s="14">
-        <v>0.462</v>
-      </c>
-      <c r="I24" s="7">
-        <v>0.95</v>
-      </c>
-      <c r="J24" s="7">
-        <v>4.29</v>
-      </c>
-      <c r="K24" s="7">
-        <v>-0.6</v>
-      </c>
-      <c r="L24" s="14">
-        <v>0.342</v>
       </c>
       <c r="M24" s="7">
         <v>0.93</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N24" s="14">
+        <v>0.462</v>
+      </c>
+      <c r="O24" s="7">
+        <v>0.95</v>
+      </c>
+      <c r="P24" s="7">
+        <v>4.29</v>
+      </c>
+      <c r="Q24" s="7">
+        <v>-0.6</v>
+      </c>
+      <c r="R24" s="14">
+        <v>0.342</v>
+      </c>
+      <c r="S24" s="7">
+        <v>0.93</v>
+      </c>
+      <c r="T24" s="7">
         <v>1.82</v>
       </c>
-      <c r="O24" s="7">
+      <c r="U24" s="7">
         <v>-0.63</v>
       </c>
-      <c r="P24" s="11">
+      <c r="V24" s="11">
         <v>2024.0</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="7" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="15">
+        <v>17.0</v>
+      </c>
+      <c r="D25" s="15">
+        <v>22.0</v>
+      </c>
+      <c r="E25" s="15">
+        <v>0.44</v>
+      </c>
+      <c r="F25" s="15">
+        <v>69.0</v>
+      </c>
+      <c r="G25" s="15">
+        <v>82.0</v>
+      </c>
+      <c r="H25" s="15">
+        <v>0.46</v>
+      </c>
+      <c r="I25" s="7">
         <v>-30.24</v>
       </c>
-      <c r="D25" s="14">
+      <c r="J25" s="14">
         <v>0.317</v>
       </c>
-      <c r="E25" s="7">
+      <c r="K25" s="7">
         <v>0.96</v>
       </c>
-      <c r="F25" s="7">
+      <c r="L25" s="7">
         <v>202.78</v>
       </c>
-      <c r="G25" s="7">
+      <c r="M25" s="7">
         <v>0.96</v>
       </c>
-      <c r="H25" s="14">
+      <c r="N25" s="14">
         <v>0.429</v>
       </c>
-      <c r="I25" s="7">
+      <c r="O25" s="7">
         <v>0.97</v>
       </c>
-      <c r="J25" s="7">
+      <c r="P25" s="7">
         <v>4.53</v>
       </c>
-      <c r="K25" s="7">
+      <c r="Q25" s="7">
         <v>-0.22</v>
       </c>
-      <c r="L25" s="14">
+      <c r="R25" s="14">
         <v>0.381</v>
       </c>
-      <c r="M25" s="7">
+      <c r="S25" s="7">
         <v>0.97</v>
       </c>
-      <c r="N25" s="7">
+      <c r="T25" s="7">
         <v>1.71</v>
       </c>
-      <c r="O25" s="7">
+      <c r="U25" s="7">
         <v>-0.6</v>
       </c>
-      <c r="P25" s="11">
+      <c r="V25" s="11">
         <v>2024.0</v>
       </c>
-      <c r="Q25" s="13"/>
-      <c r="R25" s="13"/>
-      <c r="S25" s="13"/>
-      <c r="T25" s="13"/>
-      <c r="U25" s="13"/>
-      <c r="V25" s="13"/>
       <c r="W25" s="13"/>
       <c r="X25" s="13"/>
       <c r="Y25" s="13"/>
@@ -15139,6 +15604,12 @@
       <c r="AB25" s="13"/>
       <c r="AC25" s="13"/>
       <c r="AD25" s="13"/>
+      <c r="AE25" s="13"/>
+      <c r="AF25" s="13"/>
+      <c r="AG25" s="13"/>
+      <c r="AH25" s="13"/>
+      <c r="AI25" s="13"/>
+      <c r="AJ25" s="13"/>
     </row>
     <row r="26" ht="15.75" customHeight="1"/>
     <row r="27" ht="15.75" customHeight="1"/>

--- a/data/breakpoint_data.xlsx
+++ b/data/breakpoint_data.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="175">
   <si>
     <t>Player</t>
   </si>
@@ -104,19 +104,514 @@
     <t>Year</t>
   </si>
   <si>
-    <t>Shotzzy</t>
+    <r>
+      <rPr>
+        <rFont val="&quot;Source Sans Pro&quot;, sans-serif"/>
+        <color theme="1"/>
+      </rPr>
+      <t>Shotzzy</t>
+    </r>
   </si>
   <si>
     <t>TX</t>
   </si>
   <si>
-    <t>Khhx</t>
+    <r>
+      <rPr>
+        <rFont val="&quot;Source Sans Pro&quot;, sans-serif"/>
+        <color theme="1"/>
+      </rPr>
+      <t>Khhx</t>
+    </r>
   </si>
   <si>
     <t>VGS</t>
   </si>
   <si>
-    <t>Dashy</t>
+    <r>
+      <rPr>
+        <rFont val="&quot;Source Sans Pro&quot;, sans-serif"/>
+        <color theme="1"/>
+      </rPr>
+      <t>Dashy</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="&quot;Source Sans Pro&quot;, sans-serif"/>
+        <color theme="1"/>
+      </rPr>
+      <t>Pred</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="&quot;Source Sans Pro&quot;, sans-serif"/>
+        <color theme="1"/>
+      </rPr>
+      <t>Gwinn</t>
+    </r>
+  </si>
+  <si>
+    <t>CAR</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="&quot;Source Sans Pro&quot;, sans-serif"/>
+        <color theme="1"/>
+      </rPr>
+      <t>Huke</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="&quot;Source Sans Pro&quot;, sans-serif"/>
+        <color theme="1"/>
+      </rPr>
+      <t>CleanX</t>
+    </r>
+  </si>
+  <si>
+    <t>TOR</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="&quot;Source Sans Pro&quot;, sans-serif"/>
+        <color theme="1"/>
+      </rPr>
+      <t>Scrap</t>
+    </r>
+  </si>
+  <si>
+    <t>LAT</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="&quot;Source Sans Pro&quot;, sans-serif"/>
+        <color theme="1"/>
+      </rPr>
+      <t>Snoopy</t>
+    </r>
+  </si>
+  <si>
+    <t>BOS</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="&quot;Source Sans Pro&quot;, sans-serif"/>
+        <color theme="1"/>
+      </rPr>
+      <t>Simp</t>
+    </r>
+  </si>
+  <si>
+    <t>ATL</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="&quot;Source Sans Pro&quot;, sans-serif"/>
+        <color theme="1"/>
+      </rPr>
+      <t>Beans</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="&quot;Source Sans Pro&quot;, sans-serif"/>
+        <color theme="1"/>
+      </rPr>
+      <t>Cellium</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="&quot;Source Sans Pro&quot;, sans-serif"/>
+        <color theme="1"/>
+      </rPr>
+      <t>HyDra</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="&quot;Source Sans Pro&quot;, sans-serif"/>
+        <color theme="1"/>
+      </rPr>
+      <t>SlasheR</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="&quot;Source Sans Pro&quot;, sans-serif"/>
+        <color theme="1"/>
+      </rPr>
+      <t>ReeaL</t>
+    </r>
+  </si>
+  <si>
+    <t>MIA</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="&quot;Source Sans Pro&quot;, sans-serif"/>
+        <color theme="1"/>
+      </rPr>
+      <t>Lyynnz</t>
+    </r>
+  </si>
+  <si>
+    <t>M8s</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="&quot;Source Sans Pro&quot;, sans-serif"/>
+        <color theme="1"/>
+      </rPr>
+      <t>aBeZy</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="&quot;Source Sans Pro&quot;, sans-serif"/>
+        <color theme="1"/>
+      </rPr>
+      <t>RenKoR</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="&quot;Source Sans Pro&quot;, sans-serif"/>
+        <color theme="1"/>
+      </rPr>
+      <t>KiSMET</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="&quot;Source Sans Pro&quot;, sans-serif"/>
+        <color theme="1"/>
+      </rPr>
+      <t>Purj</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="&quot;Source Sans Pro&quot;, sans-serif"/>
+        <color theme="1"/>
+      </rPr>
+      <t>Ghosty</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="&quot;Source Sans Pro&quot;, sans-serif"/>
+        <color theme="1"/>
+      </rPr>
+      <t>Cammy</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="&quot;Source Sans Pro&quot;, sans-serif"/>
+        <color theme="1"/>
+      </rPr>
+      <t>Gio</t>
+    </r>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="&quot;Source Sans Pro&quot;, sans-serif"/>
+        <color theme="1"/>
+      </rPr>
+      <t>Estreal</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="&quot;Source Sans Pro&quot;, sans-serif"/>
+        <color theme="1"/>
+      </rPr>
+      <t>Mack</t>
+    </r>
+  </si>
+  <si>
+    <t>C9NY</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="&quot;Source Sans Pro&quot;, sans-serif"/>
+        <color theme="1"/>
+      </rPr>
+      <t>Kremp</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="&quot;Source Sans Pro&quot;, sans-serif"/>
+        <color theme="1"/>
+      </rPr>
+      <t>JoeDeceives</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="&quot;Source Sans Pro&quot;, sans-serif"/>
+        <color theme="1"/>
+      </rPr>
+      <t>Skyz</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="&quot;Source Sans Pro&quot;, sans-serif"/>
+        <color theme="1"/>
+      </rPr>
+      <t>Nero</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="&quot;Source Sans Pro&quot;, sans-serif"/>
+        <color theme="1"/>
+      </rPr>
+      <t>TJHaLy</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="&quot;Source Sans Pro&quot;, sans-serif"/>
+        <color theme="1"/>
+      </rPr>
+      <t>WXSL</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="&quot;Source Sans Pro&quot;, sans-serif"/>
+        <color theme="1"/>
+      </rPr>
+      <t>Owakening</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="&quot;Source Sans Pro&quot;, sans-serif"/>
+        <color theme="1"/>
+      </rPr>
+      <t>Abuzah</t>
+    </r>
+  </si>
+  <si>
+    <t>VAN</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="&quot;Source Sans Pro&quot;, sans-serif"/>
+        <color theme="1"/>
+      </rPr>
+      <t>Exnid</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="&quot;Source Sans Pro&quot;, sans-serif"/>
+        <color theme="1"/>
+      </rPr>
+      <t>Insight</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="&quot;Source Sans Pro&quot;, sans-serif"/>
+        <color theme="1"/>
+      </rPr>
+      <t>Drazah</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="&quot;Source Sans Pro&quot;, sans-serif"/>
+        <color theme="1"/>
+      </rPr>
+      <t>Envoy</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="&quot;Source Sans Pro&quot;, sans-serif"/>
+        <color theme="1"/>
+      </rPr>
+      <t>MettalZ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="&quot;Source Sans Pro&quot;, sans-serif"/>
+        <color theme="1"/>
+      </rPr>
+      <t>Nastie</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="&quot;Source Sans Pro&quot;, sans-serif"/>
+        <color theme="1"/>
+      </rPr>
+      <t>Attach</t>
+    </r>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="&quot;Source Sans Pro&quot;, sans-serif"/>
+        <color theme="1"/>
+      </rPr>
+      <t>Vivid</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="&quot;Source Sans Pro&quot;, sans-serif"/>
+        <color theme="1"/>
+      </rPr>
+      <t>Kenny</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="&quot;Source Sans Pro&quot;, sans-serif"/>
+        <color theme="1"/>
+      </rPr>
+      <t>Priestahh</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="&quot;Source Sans Pro&quot;, sans-serif"/>
+        <color theme="1"/>
+      </rPr>
+      <t>PaulEhx</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="&quot;Source Sans Pro&quot;, sans-serif"/>
+        <color theme="1"/>
+      </rPr>
+      <t>Lucky</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="&quot;Source Sans Pro&quot;, sans-serif"/>
+        <color theme="1"/>
+      </rPr>
+      <t>Hicksy</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="&quot;Source Sans Pro&quot;, sans-serif"/>
+        <color theme="1"/>
+      </rPr>
+      <t>Sib</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="&quot;Source Sans Pro&quot;, sans-serif"/>
+        <color theme="1"/>
+      </rPr>
+      <t>Roxas</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="&quot;Source Sans Pro&quot;, sans-serif"/>
+        <color theme="1"/>
+      </rPr>
+      <t>D7oomx</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="&quot;Source Sans Pro&quot;, sans-serif"/>
+        <color theme="1"/>
+      </rPr>
+      <t>KingAbody</t>
+    </r>
+  </si>
+  <si>
+    <t>Cellium</t>
+  </si>
+  <si>
+    <t>Scrap</t>
+  </si>
+  <si>
+    <t>HyDra</t>
+  </si>
+  <si>
+    <t>NY</t>
+  </si>
+  <si>
+    <t>Simp</t>
+  </si>
+  <si>
+    <t>Attach</t>
+  </si>
+  <si>
+    <t>LV</t>
   </si>
   <si>
     <t>Pred</t>
@@ -125,178 +620,49 @@
     <t>Gwinn</t>
   </si>
   <si>
-    <t>CAR</t>
+    <t>Drazah</t>
   </si>
   <si>
-    <t>Huke</t>
+    <t>Gio</t>
+  </si>
+  <si>
+    <t>aBeZy</t>
+  </si>
+  <si>
+    <t>Sib</t>
+  </si>
+  <si>
+    <t>Nero</t>
+  </si>
+  <si>
+    <t>Dashy</t>
+  </si>
+  <si>
+    <t>Shotzzy</t>
   </si>
   <si>
     <t>CleanX</t>
   </si>
   <si>
-    <t>TOR</t>
+    <t>Ghosty</t>
   </si>
   <si>
-    <t>Scrap</t>
+    <t>Insight</t>
   </si>
   <si>
-    <t>LAT</t>
+    <t>Skyz</t>
   </si>
   <si>
-    <t>SlasheR</t>
-  </si>
-  <si>
-    <t>Snoopy</t>
-  </si>
-  <si>
-    <t>BOS</t>
-  </si>
-  <si>
-    <t>ReeaL</t>
-  </si>
-  <si>
-    <t>MIA</t>
-  </si>
-  <si>
-    <t>Simp</t>
-  </si>
-  <si>
-    <t>ATL</t>
+    <t>Abuzah</t>
   </si>
   <si>
     <t>Beans</t>
   </si>
   <si>
-    <t>RenKoR</t>
-  </si>
-  <si>
-    <t>Cellium</t>
-  </si>
-  <si>
-    <t>HyDra</t>
-  </si>
-  <si>
-    <t>Lyynnz</t>
-  </si>
-  <si>
-    <t>M8s</t>
-  </si>
-  <si>
-    <t>aBeZy</t>
-  </si>
-  <si>
-    <t>KiSMET</t>
-  </si>
-  <si>
-    <t>Ghosty</t>
-  </si>
-  <si>
-    <t>Gio</t>
-  </si>
-  <si>
-    <t>MIN</t>
-  </si>
-  <si>
-    <t>Estreal</t>
-  </si>
-  <si>
-    <t>Owakening</t>
-  </si>
-  <si>
-    <t>TJHaLy</t>
-  </si>
-  <si>
-    <t>JoeDeceives</t>
-  </si>
-  <si>
-    <t>Skyz</t>
-  </si>
-  <si>
-    <t>Nero</t>
-  </si>
-  <si>
-    <t>Mack</t>
-  </si>
-  <si>
-    <t>C9NY</t>
-  </si>
-  <si>
-    <t>Kremp</t>
-  </si>
-  <si>
-    <t>Cammy</t>
-  </si>
-  <si>
-    <t>Purj</t>
-  </si>
-  <si>
-    <t>Insight</t>
-  </si>
-  <si>
-    <t>Drazah</t>
+    <t>Kenny</t>
   </si>
   <si>
     <t>Envoy</t>
-  </si>
-  <si>
-    <t>Attach</t>
-  </si>
-  <si>
-    <t>Exnid</t>
-  </si>
-  <si>
-    <t>Abuzah</t>
-  </si>
-  <si>
-    <t>VAN</t>
-  </si>
-  <si>
-    <t>MettalZ</t>
-  </si>
-  <si>
-    <t>Nastie</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>Vivid</t>
-  </si>
-  <si>
-    <t>Kenny</t>
-  </si>
-  <si>
-    <t>Lucky</t>
-  </si>
-  <si>
-    <t>Priestahh</t>
-  </si>
-  <si>
-    <t>PaulEhx</t>
-  </si>
-  <si>
-    <t>Hicksy</t>
-  </si>
-  <si>
-    <t>Roxas</t>
-  </si>
-  <si>
-    <t>WXSL</t>
-  </si>
-  <si>
-    <t>Sib</t>
-  </si>
-  <si>
-    <t>D7oomx</t>
-  </si>
-  <si>
-    <t>KingAbody</t>
-  </si>
-  <si>
-    <t>NY</t>
-  </si>
-  <si>
-    <t>LV</t>
   </si>
   <si>
     <t>Diamondcon</t>
@@ -305,7 +671,28 @@
     <t>LAG</t>
   </si>
   <si>
+    <t>ReeaL</t>
+  </si>
+  <si>
+    <t>Snoopy</t>
+  </si>
+  <si>
+    <t>Lucky</t>
+  </si>
+  <si>
     <t>oJohnny</t>
+  </si>
+  <si>
+    <t>MettalZ</t>
+  </si>
+  <si>
+    <t>TJHaLy</t>
+  </si>
+  <si>
+    <t>Estreal</t>
+  </si>
+  <si>
+    <t>Nastie</t>
   </si>
   <si>
     <t>Fame</t>
@@ -314,10 +701,22 @@
     <t>Gunless</t>
   </si>
   <si>
+    <t>KiSMET</t>
+  </si>
+  <si>
+    <t>Priestahh</t>
+  </si>
+  <si>
     <t>Flames</t>
   </si>
   <si>
+    <t>Kremp</t>
+  </si>
+  <si>
     <t>Vikul</t>
+  </si>
+  <si>
+    <t>JoeDeceives</t>
   </si>
   <si>
     <t>MajorManiak</t>
@@ -327,6 +726,9 @@
   </si>
   <si>
     <t>Clayster</t>
+  </si>
+  <si>
+    <t>Huke</t>
   </si>
   <si>
     <t>Standy</t>
@@ -456,18 +858,12 @@
     </font>
     <font>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <scheme val="minor"/>
+      <name val="&quot;Source Sans Pro&quot;"/>
     </font>
     <font>
       <sz val="12.0"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
-    </font>
-    <font>
-      <sz val="12.0"/>
-      <color theme="1"/>
-      <name val="&quot;Source Sans Pro&quot;"/>
     </font>
     <font>
       <color theme="1"/>
@@ -477,6 +873,16 @@
       <sz val="12.0"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="&quot;Source Sans Pro&quot;"/>
     </font>
     <font>
       <color rgb="FF000000"/>
@@ -492,27 +898,17 @@
       <name val="Arial"/>
     </font>
     <font>
-      <color theme="1"/>
-      <name val="&quot;Source Sans Pro&quot;"/>
-    </font>
-    <font>
       <sz val="12.0"/>
       <color rgb="FFC9C9C9"/>
       <name val="&quot;Source Sans Pro&quot;"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -539,57 +935,61 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="10" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="10" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="10" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="10" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1283,85 +1683,85 @@
         <v>37</v>
       </c>
       <c r="C6" s="8">
-        <v>1.14</v>
+        <v>1.12</v>
       </c>
       <c r="D6" s="8">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="E6" s="8">
-        <v>94.35</v>
+        <v>94.38</v>
       </c>
       <c r="F6" s="8">
-        <v>0.68</v>
+        <v>0.67</v>
       </c>
       <c r="G6" s="8">
-        <v>1.12</v>
+        <v>1.09</v>
       </c>
       <c r="H6" s="8">
-        <v>26.34</v>
+        <v>26.49</v>
       </c>
       <c r="I6" s="8">
-        <v>3116.0</v>
+        <v>3141.0</v>
       </c>
       <c r="J6" s="8">
-        <v>65.88</v>
+        <v>62.55</v>
       </c>
       <c r="K6" s="8">
-        <v>49.87</v>
+        <v>50.68</v>
       </c>
       <c r="L6" s="8">
+        <v>15.0</v>
+      </c>
+      <c r="M6" s="8">
+        <v>1.23</v>
+      </c>
+      <c r="N6" s="8">
+        <v>0.79</v>
+      </c>
+      <c r="O6" s="8">
         <v>13.0</v>
       </c>
-      <c r="M6" s="8">
-        <v>1.19</v>
-      </c>
-      <c r="N6" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="O6" s="8">
-        <v>12.0</v>
-      </c>
       <c r="P6" s="8">
-        <v>10.0</v>
+        <v>13.0</v>
       </c>
       <c r="Q6" s="8">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="R6" s="8">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="S6" s="8">
         <v>5.0</v>
       </c>
       <c r="T6" s="8">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="U6" s="8">
         <v>1.14</v>
       </c>
       <c r="V6" s="8">
-        <v>23.98</v>
+        <v>23.93</v>
       </c>
       <c r="W6" s="8">
-        <v>2823.0</v>
+        <v>2844.0</v>
       </c>
       <c r="X6" s="8">
-        <v>44.96</v>
+        <v>44.89</v>
       </c>
       <c r="Y6" s="8">
-        <v>20.0</v>
+        <v>25.0</v>
       </c>
       <c r="Z6" s="8">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="AA6" s="8">
-        <v>206.0</v>
+        <v>239.0</v>
       </c>
       <c r="AB6" s="8">
-        <v>456.0</v>
+        <v>517.0</v>
       </c>
       <c r="AC6" s="8">
-        <v>30.0</v>
+        <v>34.0</v>
       </c>
       <c r="AD6" s="9">
         <v>2025.0</v>
@@ -1648,88 +2048,88 @@
         <v>43</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C10" s="8">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="D10" s="8">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="E10" s="8">
-        <v>88.35</v>
+        <v>93.51</v>
       </c>
       <c r="F10" s="8">
-        <v>0.69</v>
+        <v>0.67</v>
       </c>
       <c r="G10" s="8">
-        <v>1.15</v>
+        <v>1.11</v>
       </c>
       <c r="H10" s="8">
-        <v>26.87</v>
+        <v>27.24</v>
       </c>
       <c r="I10" s="8">
-        <v>3373.0</v>
+        <v>3102.0</v>
       </c>
       <c r="J10" s="8">
-        <v>56.55</v>
+        <v>68.82</v>
       </c>
       <c r="K10" s="8">
-        <v>50.25</v>
+        <v>51.75</v>
       </c>
       <c r="L10" s="8">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="M10" s="8">
-        <v>1.05</v>
+        <v>1.12</v>
       </c>
       <c r="N10" s="8">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="O10" s="8">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
       <c r="P10" s="8">
-        <v>9.0</v>
+        <v>14.0</v>
       </c>
       <c r="Q10" s="8">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="R10" s="8">
-        <v>5.0</v>
+        <v>16.0</v>
       </c>
       <c r="S10" s="8">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="T10" s="8">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="U10" s="8">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="V10" s="8">
-        <v>19.06</v>
+        <v>20.88</v>
       </c>
       <c r="W10" s="8">
-        <v>2739.0</v>
+        <v>2506.0</v>
       </c>
       <c r="X10" s="8">
-        <v>37.53</v>
+        <v>41.6</v>
       </c>
       <c r="Y10" s="8">
-        <v>24.0</v>
+        <v>19.0</v>
       </c>
       <c r="Z10" s="8">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="AA10" s="8">
-        <v>206.0</v>
+        <v>184.0</v>
       </c>
       <c r="AB10" s="8">
-        <v>441.0</v>
+        <v>383.0</v>
       </c>
       <c r="AC10" s="8">
-        <v>30.0</v>
+        <v>29.0</v>
       </c>
       <c r="AD10" s="9">
         <v>2025.0</v>
@@ -1737,91 +2137,91 @@
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C11" s="8">
         <v>1.08</v>
       </c>
       <c r="D11" s="8">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="E11" s="8">
-        <v>92.1</v>
+        <v>89.8</v>
       </c>
       <c r="F11" s="8">
-        <v>0.66</v>
+        <v>0.68</v>
       </c>
       <c r="G11" s="8">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="H11" s="8">
-        <v>27.02</v>
+        <v>25.45</v>
       </c>
       <c r="I11" s="8">
-        <v>2962.0</v>
+        <v>3139.0</v>
       </c>
       <c r="J11" s="8">
-        <v>76.91</v>
+        <v>66.41</v>
       </c>
       <c r="K11" s="8">
-        <v>51.07</v>
+        <v>48.62</v>
       </c>
       <c r="L11" s="8">
+        <v>15.0</v>
+      </c>
+      <c r="M11" s="8">
+        <v>1.16</v>
+      </c>
+      <c r="N11" s="8">
+        <v>0.78</v>
+      </c>
+      <c r="O11" s="8">
         <v>10.0</v>
       </c>
-      <c r="M11" s="8">
-        <v>1.1</v>
-      </c>
-      <c r="N11" s="8">
-        <v>0.83</v>
-      </c>
-      <c r="O11" s="8">
-        <v>11.0</v>
-      </c>
       <c r="P11" s="8">
-        <v>14.0</v>
+        <v>5.0</v>
       </c>
       <c r="Q11" s="8">
-        <v>0.44</v>
+        <v>0.67</v>
       </c>
       <c r="R11" s="8">
-        <v>13.0</v>
+        <v>23.0</v>
       </c>
       <c r="S11" s="8">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="T11" s="8">
         <v>10.0</v>
       </c>
       <c r="U11" s="8">
-        <v>0.96</v>
+        <v>1.02</v>
       </c>
       <c r="V11" s="8">
-        <v>19.84</v>
+        <v>21.83</v>
       </c>
       <c r="W11" s="8">
-        <v>2416.0</v>
+        <v>2569.0</v>
       </c>
       <c r="X11" s="8">
-        <v>40.54</v>
+        <v>43.16</v>
       </c>
       <c r="Y11" s="8">
-        <v>13.0</v>
+        <v>26.0</v>
       </c>
       <c r="Z11" s="8">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="AA11" s="8">
-        <v>151.0</v>
+        <v>235.0</v>
       </c>
       <c r="AB11" s="8">
-        <v>316.0</v>
+        <v>451.0</v>
       </c>
       <c r="AC11" s="8">
-        <v>25.0</v>
+        <v>33.0</v>
       </c>
       <c r="AD11" s="9">
         <v>2025.0</v>
@@ -1829,91 +2229,91 @@
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C12" s="8">
         <v>1.08</v>
       </c>
       <c r="D12" s="8">
-        <v>1.06</v>
+        <v>1.11</v>
       </c>
       <c r="E12" s="8">
-        <v>90.62</v>
+        <v>88.3</v>
       </c>
       <c r="F12" s="8">
-        <v>0.66</v>
+        <v>0.69</v>
       </c>
       <c r="G12" s="8">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="H12" s="8">
-        <v>27.34</v>
+        <v>25.13</v>
       </c>
       <c r="I12" s="8">
-        <v>3173.0</v>
+        <v>3323.0</v>
       </c>
       <c r="J12" s="8">
-        <v>41.17</v>
+        <v>54.57</v>
       </c>
       <c r="K12" s="8">
-        <v>51.91</v>
+        <v>49.06</v>
       </c>
       <c r="L12" s="8">
+        <v>11.0</v>
+      </c>
+      <c r="M12" s="8">
+        <v>1.3</v>
+      </c>
+      <c r="N12" s="8">
+        <v>0.83</v>
+      </c>
+      <c r="O12" s="8">
+        <v>12.0</v>
+      </c>
+      <c r="P12" s="8">
         <v>9.0</v>
       </c>
-      <c r="M12" s="8">
-        <v>0.98</v>
-      </c>
-      <c r="N12" s="8">
-        <v>0.74</v>
-      </c>
-      <c r="O12" s="8">
-        <v>15.0</v>
-      </c>
-      <c r="P12" s="8">
-        <v>17.0</v>
-      </c>
       <c r="Q12" s="8">
-        <v>0.47</v>
+        <v>0.57</v>
       </c>
       <c r="R12" s="8">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="S12" s="8">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="T12" s="8">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="U12" s="8">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="V12" s="8">
-        <v>19.68</v>
+        <v>19.7</v>
       </c>
       <c r="W12" s="8">
-        <v>2593.0</v>
+        <v>2732.0</v>
       </c>
       <c r="X12" s="8">
-        <v>38.23</v>
+        <v>38.57</v>
       </c>
       <c r="Y12" s="8">
-        <v>22.0</v>
+        <v>27.0</v>
       </c>
       <c r="Z12" s="8">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="AA12" s="8">
-        <v>142.0</v>
+        <v>180.0</v>
       </c>
       <c r="AB12" s="8">
-        <v>310.0</v>
+        <v>343.0</v>
       </c>
       <c r="AC12" s="8">
-        <v>22.0</v>
+        <v>27.0</v>
       </c>
       <c r="AD12" s="9">
         <v>2025.0</v>
@@ -1924,58 +2324,58 @@
         <v>48</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C13" s="8">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="D13" s="8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="E13" s="8">
-        <v>89.8</v>
+        <v>83.13</v>
       </c>
       <c r="F13" s="8">
-        <v>0.68</v>
+        <v>0.69</v>
       </c>
       <c r="G13" s="8">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="H13" s="8">
-        <v>25.45</v>
+        <v>23.72</v>
       </c>
       <c r="I13" s="8">
-        <v>3139.0</v>
+        <v>3173.0</v>
       </c>
       <c r="J13" s="8">
-        <v>66.41</v>
+        <v>70.2</v>
       </c>
       <c r="K13" s="8">
-        <v>48.62</v>
+        <v>45.17</v>
       </c>
       <c r="L13" s="8">
         <v>15.0</v>
       </c>
       <c r="M13" s="8">
-        <v>1.16</v>
+        <v>0.98</v>
       </c>
       <c r="N13" s="8">
-        <v>0.78</v>
+        <v>0.67</v>
       </c>
       <c r="O13" s="8">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
       <c r="P13" s="8">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="Q13" s="8">
         <v>0.67</v>
       </c>
       <c r="R13" s="8">
-        <v>23.0</v>
+        <v>1.0</v>
       </c>
       <c r="S13" s="8">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="T13" s="8">
         <v>10.0</v>
@@ -1984,16 +2384,16 @@
         <v>1.02</v>
       </c>
       <c r="V13" s="8">
-        <v>21.83</v>
+        <v>20.94</v>
       </c>
       <c r="W13" s="8">
-        <v>2569.0</v>
+        <v>2910.0</v>
       </c>
       <c r="X13" s="8">
-        <v>43.16</v>
+        <v>41.38</v>
       </c>
       <c r="Y13" s="8">
-        <v>26.0</v>
+        <v>28.0</v>
       </c>
       <c r="Z13" s="8">
         <v>8.0</v>
@@ -2002,7 +2402,7 @@
         <v>235.0</v>
       </c>
       <c r="AB13" s="8">
-        <v>451.0</v>
+        <v>446.0</v>
       </c>
       <c r="AC13" s="8">
         <v>33.0</v>
@@ -2013,91 +2413,91 @@
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C14" s="8">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="D14" s="8">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="E14" s="8">
-        <v>88.3</v>
+        <v>94.91</v>
       </c>
       <c r="F14" s="8">
-        <v>0.69</v>
+        <v>0.66</v>
       </c>
       <c r="G14" s="8">
-        <v>1.05</v>
+        <v>1.15</v>
       </c>
       <c r="H14" s="8">
-        <v>25.13</v>
+        <v>29.3</v>
       </c>
       <c r="I14" s="8">
-        <v>3323.0</v>
+        <v>3362.0</v>
       </c>
       <c r="J14" s="8">
-        <v>54.57</v>
+        <v>46.39</v>
       </c>
       <c r="K14" s="8">
-        <v>49.06</v>
+        <v>54.69</v>
       </c>
       <c r="L14" s="8">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
       <c r="M14" s="8">
-        <v>1.3</v>
+        <v>0.79</v>
       </c>
       <c r="N14" s="8">
-        <v>0.83</v>
+        <v>0.61</v>
       </c>
       <c r="O14" s="8">
+        <v>6.0</v>
+      </c>
+      <c r="P14" s="8">
         <v>12.0</v>
       </c>
-      <c r="P14" s="8">
-        <v>9.0</v>
-      </c>
       <c r="Q14" s="8">
-        <v>0.57</v>
+        <v>0.33</v>
       </c>
       <c r="R14" s="8">
         <v>1.0</v>
       </c>
       <c r="S14" s="8">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="T14" s="8">
-        <v>10.0</v>
+        <v>6.0</v>
       </c>
       <c r="U14" s="8">
-        <v>1.04</v>
+        <v>0.97</v>
       </c>
       <c r="V14" s="8">
-        <v>19.7</v>
+        <v>22.95</v>
       </c>
       <c r="W14" s="8">
-        <v>2732.0</v>
+        <v>2636.0</v>
       </c>
       <c r="X14" s="8">
-        <v>38.57</v>
+        <v>46.54</v>
       </c>
       <c r="Y14" s="8">
-        <v>27.0</v>
+        <v>15.0</v>
       </c>
       <c r="Z14" s="8">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="AA14" s="8">
-        <v>180.0</v>
+        <v>159.0</v>
       </c>
       <c r="AB14" s="8">
-        <v>343.0</v>
+        <v>324.0</v>
       </c>
       <c r="AC14" s="8">
-        <v>27.0</v>
+        <v>21.0</v>
       </c>
       <c r="AD14" s="9">
         <v>2025.0</v>
@@ -2105,91 +2505,91 @@
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C15" s="8">
+        <v>1.05</v>
+      </c>
+      <c r="D15" s="8">
         <v>1.06</v>
       </c>
-      <c r="D15" s="8">
-        <v>1.03</v>
-      </c>
       <c r="E15" s="8">
-        <v>89.44</v>
+        <v>85.56</v>
       </c>
       <c r="F15" s="8">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="G15" s="8">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="H15" s="8">
-        <v>26.17</v>
+        <v>26.1</v>
       </c>
       <c r="I15" s="8">
-        <v>3363.0</v>
+        <v>3267.0</v>
       </c>
       <c r="J15" s="8">
-        <v>51.91</v>
+        <v>54.88</v>
       </c>
       <c r="K15" s="8">
-        <v>50.74</v>
+        <v>50.16</v>
       </c>
       <c r="L15" s="8">
-        <v>9.0</v>
+        <v>15.0</v>
       </c>
       <c r="M15" s="8">
-        <v>0.87</v>
+        <v>1.0</v>
       </c>
       <c r="N15" s="8">
         <v>0.68</v>
       </c>
       <c r="O15" s="8">
+        <v>8.0</v>
+      </c>
+      <c r="P15" s="8">
+        <v>10.0</v>
+      </c>
+      <c r="Q15" s="8">
+        <v>0.44</v>
+      </c>
+      <c r="R15" s="8">
         <v>5.0</v>
       </c>
-      <c r="P15" s="8">
-        <v>3.0</v>
-      </c>
-      <c r="Q15" s="8">
-        <v>0.63</v>
-      </c>
-      <c r="R15" s="8">
-        <v>6.0</v>
-      </c>
       <c r="S15" s="8">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="T15" s="8">
+        <v>11.0</v>
+      </c>
+      <c r="U15" s="8">
+        <v>0.99</v>
+      </c>
+      <c r="V15" s="8">
+        <v>18.49</v>
+      </c>
+      <c r="W15" s="8">
+        <v>2618.0</v>
+      </c>
+      <c r="X15" s="8">
+        <v>37.08</v>
+      </c>
+      <c r="Y15" s="8">
+        <v>27.0</v>
+      </c>
+      <c r="Z15" s="8">
         <v>8.0</v>
       </c>
-      <c r="U15" s="8">
-        <v>1.17</v>
-      </c>
-      <c r="V15" s="8">
-        <v>22.11</v>
-      </c>
-      <c r="W15" s="8">
-        <v>2969.0</v>
-      </c>
-      <c r="X15" s="8">
-        <v>41.04</v>
-      </c>
-      <c r="Y15" s="8">
-        <v>32.0</v>
-      </c>
-      <c r="Z15" s="8">
-        <v>5.0</v>
-      </c>
       <c r="AA15" s="8">
-        <v>142.0</v>
+        <v>239.0</v>
       </c>
       <c r="AB15" s="8">
-        <v>286.0</v>
+        <v>485.0</v>
       </c>
       <c r="AC15" s="8">
-        <v>22.0</v>
+        <v>34.0</v>
       </c>
       <c r="AD15" s="9">
         <v>2025.0</v>
@@ -2197,91 +2597,91 @@
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="10" t="s">
-        <v>49</v>
-      </c>
       <c r="C16" s="8">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="D16" s="8">
         <v>1.02</v>
       </c>
       <c r="E16" s="8">
-        <v>83.13</v>
+        <v>87.82</v>
       </c>
       <c r="F16" s="8">
-        <v>0.69</v>
+        <v>0.65</v>
       </c>
       <c r="G16" s="8">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="H16" s="8">
-        <v>23.72</v>
+        <v>26.52</v>
       </c>
       <c r="I16" s="8">
-        <v>3173.0</v>
+        <v>3123.0</v>
       </c>
       <c r="J16" s="8">
-        <v>70.2</v>
+        <v>39.06</v>
       </c>
       <c r="K16" s="8">
-        <v>45.17</v>
+        <v>51.08</v>
       </c>
       <c r="L16" s="8">
-        <v>15.0</v>
+        <v>11.0</v>
       </c>
       <c r="M16" s="8">
-        <v>0.98</v>
+        <v>0.88</v>
       </c>
       <c r="N16" s="8">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="O16" s="8">
-        <v>8.0</v>
+        <v>19.0</v>
       </c>
       <c r="P16" s="8">
-        <v>4.0</v>
+        <v>21.0</v>
       </c>
       <c r="Q16" s="8">
-        <v>0.67</v>
+        <v>0.47</v>
       </c>
       <c r="R16" s="8">
         <v>1.0</v>
       </c>
       <c r="S16" s="8">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="T16" s="8">
         <v>10.0</v>
       </c>
       <c r="U16" s="8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="V16" s="8">
-        <v>20.94</v>
+        <v>19.78</v>
       </c>
       <c r="W16" s="8">
-        <v>2910.0</v>
+        <v>2596.0</v>
       </c>
       <c r="X16" s="8">
-        <v>41.38</v>
+        <v>38.57</v>
       </c>
       <c r="Y16" s="8">
-        <v>28.0</v>
+        <v>25.0</v>
       </c>
       <c r="Z16" s="8">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="AA16" s="8">
-        <v>235.0</v>
+        <v>171.0</v>
       </c>
       <c r="AB16" s="8">
-        <v>446.0</v>
+        <v>371.0</v>
       </c>
       <c r="AC16" s="8">
-        <v>33.0</v>
+        <v>27.0</v>
       </c>
       <c r="AD16" s="9">
         <v>2025.0</v>
@@ -2292,88 +2692,88 @@
         <v>53</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="C17" s="8">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="D17" s="8">
-        <v>1.09</v>
+        <v>1.03</v>
       </c>
       <c r="E17" s="8">
-        <v>94.91</v>
+        <v>91.32</v>
       </c>
       <c r="F17" s="8">
-        <v>0.66</v>
+        <v>0.64</v>
       </c>
       <c r="G17" s="8">
-        <v>1.15</v>
+        <v>1.1</v>
       </c>
       <c r="H17" s="8">
-        <v>29.3</v>
+        <v>27.42</v>
       </c>
       <c r="I17" s="8">
-        <v>3362.0</v>
+        <v>3133.0</v>
       </c>
       <c r="J17" s="8">
-        <v>46.39</v>
+        <v>36.47</v>
       </c>
       <c r="K17" s="8">
-        <v>54.69</v>
+        <v>52.26</v>
       </c>
       <c r="L17" s="8">
+        <v>11.0</v>
+      </c>
+      <c r="M17" s="8">
+        <v>1.05</v>
+      </c>
+      <c r="N17" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="O17" s="8">
         <v>10.0</v>
       </c>
-      <c r="M17" s="8">
-        <v>0.79</v>
-      </c>
-      <c r="N17" s="8">
-        <v>0.61</v>
-      </c>
-      <c r="O17" s="8">
+      <c r="P17" s="8">
+        <v>15.0</v>
+      </c>
+      <c r="Q17" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="R17" s="8">
         <v>6.0</v>
       </c>
-      <c r="P17" s="8">
-        <v>12.0</v>
-      </c>
-      <c r="Q17" s="8">
-        <v>0.33</v>
-      </c>
-      <c r="R17" s="8">
-        <v>1.0</v>
-      </c>
       <c r="S17" s="8">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="T17" s="8">
+        <v>9.0</v>
+      </c>
+      <c r="U17" s="8">
+        <v>0.92</v>
+      </c>
+      <c r="V17" s="8">
+        <v>20.05</v>
+      </c>
+      <c r="W17" s="8">
+        <v>2528.0</v>
+      </c>
+      <c r="X17" s="8">
+        <v>41.74</v>
+      </c>
+      <c r="Y17" s="8">
+        <v>25.0</v>
+      </c>
+      <c r="Z17" s="8">
         <v>6.0</v>
       </c>
-      <c r="U17" s="8">
-        <v>0.97</v>
-      </c>
-      <c r="V17" s="8">
-        <v>22.95</v>
-      </c>
-      <c r="W17" s="8">
-        <v>2636.0</v>
-      </c>
-      <c r="X17" s="8">
-        <v>46.54</v>
-      </c>
-      <c r="Y17" s="8">
-        <v>15.0</v>
-      </c>
-      <c r="Z17" s="8">
-        <v>5.0</v>
-      </c>
       <c r="AA17" s="8">
-        <v>159.0</v>
+        <v>184.0</v>
       </c>
       <c r="AB17" s="8">
-        <v>324.0</v>
+        <v>371.0</v>
       </c>
       <c r="AC17" s="8">
-        <v>21.0</v>
+        <v>26.0</v>
       </c>
       <c r="AD17" s="9">
         <v>2025.0</v>
@@ -2381,10 +2781,10 @@
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C18" s="8">
         <v>1.04</v>
@@ -2393,79 +2793,79 @@
         <v>1.03</v>
       </c>
       <c r="E18" s="8">
-        <v>91.32</v>
+        <v>91.25</v>
       </c>
       <c r="F18" s="8">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="G18" s="8">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="H18" s="8">
-        <v>27.42</v>
+        <v>25.93</v>
       </c>
       <c r="I18" s="8">
-        <v>3133.0</v>
+        <v>3140.0</v>
       </c>
       <c r="J18" s="8">
-        <v>36.47</v>
+        <v>60.06</v>
       </c>
       <c r="K18" s="8">
-        <v>52.26</v>
+        <v>49.86</v>
       </c>
       <c r="L18" s="8">
-        <v>11.0</v>
+        <v>15.0</v>
       </c>
       <c r="M18" s="8">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N18" s="8">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
       <c r="O18" s="8">
+        <v>23.0</v>
+      </c>
+      <c r="P18" s="8">
+        <v>19.0</v>
+      </c>
+      <c r="Q18" s="8">
+        <v>0.55</v>
+      </c>
+      <c r="R18" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="S18" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="T18" s="8">
         <v>10.0</v>
       </c>
-      <c r="P18" s="8">
-        <v>15.0</v>
-      </c>
-      <c r="Q18" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="R18" s="8">
-        <v>6.0</v>
-      </c>
-      <c r="S18" s="8">
-        <v>3.0</v>
-      </c>
-      <c r="T18" s="8">
-        <v>9.0</v>
-      </c>
       <c r="U18" s="8">
-        <v>0.92</v>
+        <v>0.98</v>
       </c>
       <c r="V18" s="8">
-        <v>20.05</v>
+        <v>23.01</v>
       </c>
       <c r="W18" s="8">
-        <v>2528.0</v>
+        <v>2807.0</v>
       </c>
       <c r="X18" s="8">
-        <v>41.74</v>
+        <v>46.52</v>
       </c>
       <c r="Y18" s="8">
-        <v>25.0</v>
+        <v>32.0</v>
       </c>
       <c r="Z18" s="8">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="AA18" s="8">
-        <v>184.0</v>
+        <v>235.0</v>
       </c>
       <c r="AB18" s="8">
-        <v>371.0</v>
+        <v>481.0</v>
       </c>
       <c r="AC18" s="8">
-        <v>26.0</v>
+        <v>33.0</v>
       </c>
       <c r="AD18" s="9">
         <v>2025.0</v>
@@ -2476,88 +2876,88 @@
         <v>56</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C19" s="8">
         <v>1.04</v>
       </c>
       <c r="D19" s="8">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="E19" s="8">
-        <v>91.25</v>
+        <v>87.65</v>
       </c>
       <c r="F19" s="8">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="G19" s="8">
         <v>1.08</v>
       </c>
       <c r="H19" s="8">
-        <v>25.93</v>
+        <v>26.44</v>
       </c>
       <c r="I19" s="8">
-        <v>3140.0</v>
+        <v>3410.0</v>
       </c>
       <c r="J19" s="8">
-        <v>60.06</v>
+        <v>51.34</v>
       </c>
       <c r="K19" s="8">
-        <v>49.86</v>
+        <v>50.99</v>
       </c>
       <c r="L19" s="8">
-        <v>15.0</v>
+        <v>11.0</v>
       </c>
       <c r="M19" s="8">
-        <v>1.03</v>
+        <v>0.85</v>
       </c>
       <c r="N19" s="8">
-        <v>0.74</v>
+        <v>0.66</v>
       </c>
       <c r="O19" s="8">
-        <v>23.0</v>
+        <v>6.0</v>
       </c>
       <c r="P19" s="8">
-        <v>19.0</v>
+        <v>4.0</v>
       </c>
       <c r="Q19" s="8">
-        <v>0.55</v>
+        <v>0.6</v>
       </c>
       <c r="R19" s="8">
-        <v>3.0</v>
+        <v>9.0</v>
       </c>
       <c r="S19" s="8">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="T19" s="8">
         <v>10.0</v>
       </c>
       <c r="U19" s="8">
-        <v>0.98</v>
+        <v>1.05</v>
       </c>
       <c r="V19" s="8">
-        <v>23.01</v>
+        <v>20.27</v>
       </c>
       <c r="W19" s="8">
-        <v>2807.0</v>
+        <v>2796.0</v>
       </c>
       <c r="X19" s="8">
-        <v>46.52</v>
+        <v>39.56</v>
       </c>
       <c r="Y19" s="8">
-        <v>32.0</v>
+        <v>35.0</v>
       </c>
       <c r="Z19" s="8">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="AA19" s="8">
-        <v>235.0</v>
+        <v>171.0</v>
       </c>
       <c r="AB19" s="8">
-        <v>481.0</v>
+        <v>337.0</v>
       </c>
       <c r="AC19" s="8">
-        <v>33.0</v>
+        <v>27.0</v>
       </c>
       <c r="AD19" s="9">
         <v>2025.0</v>
@@ -2568,7 +2968,7 @@
         <v>57</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C20" s="8">
         <v>1.04</v>
@@ -2660,88 +3060,88 @@
         <v>58</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C21" s="8">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="D21" s="8">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="E21" s="8">
-        <v>84.6</v>
+        <v>93.58</v>
       </c>
       <c r="F21" s="8">
-        <v>0.69</v>
+        <v>0.67</v>
       </c>
       <c r="G21" s="8">
-        <v>0.99</v>
+        <v>1.04</v>
       </c>
       <c r="H21" s="8">
-        <v>23.58</v>
+        <v>27.31</v>
       </c>
       <c r="I21" s="8">
-        <v>3042.0</v>
+        <v>3358.0</v>
       </c>
       <c r="J21" s="8">
-        <v>89.53</v>
+        <v>51.14</v>
       </c>
       <c r="K21" s="8">
-        <v>47.44</v>
+        <v>53.49</v>
       </c>
       <c r="L21" s="8">
-        <v>10.0</v>
+        <v>12.0</v>
       </c>
       <c r="M21" s="8">
-        <v>1.05</v>
+        <v>1.17</v>
       </c>
       <c r="N21" s="8">
-        <v>0.73</v>
+        <v>0.87</v>
       </c>
       <c r="O21" s="8">
-        <v>4.0</v>
+        <v>22.0</v>
       </c>
       <c r="P21" s="8">
-        <v>6.0</v>
+        <v>19.0</v>
       </c>
       <c r="Q21" s="8">
-        <v>0.4</v>
+        <v>0.54</v>
       </c>
       <c r="R21" s="8">
-        <v>8.0</v>
+        <v>1.0</v>
       </c>
       <c r="S21" s="8">
         <v>1.0</v>
       </c>
       <c r="T21" s="8">
+        <v>11.0</v>
+      </c>
+      <c r="U21" s="8">
+        <v>0.86</v>
+      </c>
+      <c r="V21" s="8">
+        <v>19.73</v>
+      </c>
+      <c r="W21" s="8">
+        <v>2557.0</v>
+      </c>
+      <c r="X21" s="8">
+        <v>42.59</v>
+      </c>
+      <c r="Y21" s="8">
+        <v>8.0</v>
+      </c>
+      <c r="Z21" s="8">
         <v>6.0</v>
       </c>
-      <c r="U21" s="8">
-        <v>1.05</v>
-      </c>
-      <c r="V21" s="8">
-        <v>21.34</v>
-      </c>
-      <c r="W21" s="8">
-        <v>2786.0</v>
-      </c>
-      <c r="X21" s="8">
-        <v>41.72</v>
-      </c>
-      <c r="Y21" s="8">
-        <v>19.0</v>
-      </c>
-      <c r="Z21" s="8">
-        <v>5.0</v>
-      </c>
       <c r="AA21" s="8">
-        <v>159.0</v>
+        <v>184.0</v>
       </c>
       <c r="AB21" s="8">
-        <v>277.0</v>
+        <v>383.0</v>
       </c>
       <c r="AC21" s="8">
-        <v>21.0</v>
+        <v>29.0</v>
       </c>
       <c r="AD21" s="9">
         <v>2025.0</v>
@@ -2752,88 +3152,88 @@
         <v>59</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="C22" s="8">
         <v>1.01</v>
       </c>
       <c r="D22" s="8">
+        <v>1.05</v>
+      </c>
+      <c r="E22" s="8">
+        <v>84.6</v>
+      </c>
+      <c r="F22" s="8">
+        <v>0.69</v>
+      </c>
+      <c r="G22" s="8">
         <v>0.99</v>
       </c>
-      <c r="E22" s="8">
-        <v>84.14</v>
-      </c>
-      <c r="F22" s="8">
-        <v>0.66</v>
-      </c>
-      <c r="G22" s="8">
-        <v>1.0</v>
-      </c>
       <c r="H22" s="8">
-        <v>24.33</v>
+        <v>23.58</v>
       </c>
       <c r="I22" s="8">
-        <v>3103.0</v>
+        <v>3042.0</v>
       </c>
       <c r="J22" s="8">
-        <v>53.6</v>
+        <v>89.53</v>
       </c>
       <c r="K22" s="8">
-        <v>48.71</v>
+        <v>47.44</v>
       </c>
       <c r="L22" s="8">
-        <v>16.0</v>
+        <v>10.0</v>
       </c>
       <c r="M22" s="8">
         <v>1.05</v>
       </c>
       <c r="N22" s="8">
-        <v>0.68</v>
+        <v>0.73</v>
       </c>
       <c r="O22" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="P22" s="8">
+        <v>6.0</v>
+      </c>
+      <c r="Q22" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="R22" s="8">
+        <v>8.0</v>
+      </c>
+      <c r="S22" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="T22" s="8">
+        <v>6.0</v>
+      </c>
+      <c r="U22" s="8">
+        <v>1.05</v>
+      </c>
+      <c r="V22" s="8">
+        <v>21.34</v>
+      </c>
+      <c r="W22" s="8">
+        <v>2786.0</v>
+      </c>
+      <c r="X22" s="8">
+        <v>41.72</v>
+      </c>
+      <c r="Y22" s="8">
         <v>19.0</v>
       </c>
-      <c r="P22" s="8">
-        <v>14.0</v>
-      </c>
-      <c r="Q22" s="8">
-        <v>0.58</v>
-      </c>
-      <c r="R22" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="S22" s="8">
-        <v>4.0</v>
-      </c>
-      <c r="T22" s="8">
-        <v>14.0</v>
-      </c>
-      <c r="U22" s="8">
-        <v>1.03</v>
-      </c>
-      <c r="V22" s="8">
-        <v>20.58</v>
-      </c>
-      <c r="W22" s="8">
-        <v>2630.0</v>
-      </c>
-      <c r="X22" s="8">
-        <v>40.6</v>
-      </c>
-      <c r="Y22" s="8">
-        <v>27.0</v>
-      </c>
       <c r="Z22" s="8">
-        <v>8.0</v>
+        <v>5.0</v>
       </c>
       <c r="AA22" s="8">
-        <v>252.0</v>
+        <v>159.0</v>
       </c>
       <c r="AB22" s="8">
-        <v>449.0</v>
+        <v>277.0</v>
       </c>
       <c r="AC22" s="8">
-        <v>38.0</v>
+        <v>21.0</v>
       </c>
       <c r="AD22" s="9">
         <v>2025.0</v>
@@ -2841,91 +3241,91 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="C23" s="8">
         <v>1.01</v>
       </c>
       <c r="D23" s="8">
-        <v>1.0</v>
+        <v>1.02</v>
       </c>
       <c r="E23" s="8">
-        <v>86.55</v>
+        <v>83.71</v>
       </c>
       <c r="F23" s="8">
-        <v>0.68</v>
+        <v>0.65</v>
       </c>
       <c r="G23" s="8">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="H23" s="8">
-        <v>23.19</v>
+        <v>25.11</v>
       </c>
       <c r="I23" s="8">
-        <v>2943.0</v>
+        <v>3111.0</v>
       </c>
       <c r="J23" s="8">
-        <v>56.44</v>
+        <v>59.86</v>
       </c>
       <c r="K23" s="8">
-        <v>47.63</v>
+        <v>49.09</v>
       </c>
       <c r="L23" s="8">
-        <v>16.0</v>
+        <v>12.0</v>
       </c>
       <c r="M23" s="8">
-        <v>1.13</v>
+        <v>0.86</v>
       </c>
       <c r="N23" s="8">
-        <v>0.8</v>
+        <v>0.57</v>
       </c>
       <c r="O23" s="8">
-        <v>18.0</v>
+        <v>10.0</v>
       </c>
       <c r="P23" s="8">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="Q23" s="8">
-        <v>0.6</v>
+        <v>0.48</v>
       </c>
       <c r="R23" s="8">
-        <v>31.0</v>
+        <v>2.0</v>
       </c>
       <c r="S23" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="T23" s="8">
+        <v>11.0</v>
+      </c>
+      <c r="U23" s="8">
+        <v>1.01</v>
+      </c>
+      <c r="V23" s="8">
+        <v>20.88</v>
+      </c>
+      <c r="W23" s="8">
+        <v>2610.0</v>
+      </c>
+      <c r="X23" s="8">
+        <v>41.6</v>
+      </c>
+      <c r="Y23" s="8">
+        <v>20.0</v>
+      </c>
+      <c r="Z23" s="8">
         <v>6.0</v>
       </c>
-      <c r="T23" s="8">
-        <v>14.0</v>
-      </c>
-      <c r="U23" s="8">
-        <v>1.1</v>
-      </c>
-      <c r="V23" s="8">
-        <v>22.61</v>
-      </c>
-      <c r="W23" s="8">
-        <v>2742.0</v>
-      </c>
-      <c r="X23" s="8">
-        <v>43.07</v>
-      </c>
-      <c r="Y23" s="8">
-        <v>39.0</v>
-      </c>
-      <c r="Z23" s="8">
-        <v>8.0</v>
-      </c>
       <c r="AA23" s="8">
-        <v>252.0</v>
+        <v>184.0</v>
       </c>
       <c r="AB23" s="8">
-        <v>489.0</v>
+        <v>356.0</v>
       </c>
       <c r="AC23" s="8">
-        <v>38.0</v>
+        <v>29.0</v>
       </c>
       <c r="AD23" s="9">
         <v>2025.0</v>
@@ -2933,91 +3333,91 @@
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="B24" s="10" t="s">
-        <v>45</v>
-      </c>
       <c r="C24" s="8">
+        <v>1.01</v>
+      </c>
+      <c r="D24" s="8">
+        <v>0.99</v>
+      </c>
+      <c r="E24" s="8">
+        <v>84.14</v>
+      </c>
+      <c r="F24" s="8">
+        <v>0.66</v>
+      </c>
+      <c r="G24" s="8">
         <v>1.0</v>
       </c>
-      <c r="D24" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="E24" s="8">
-        <v>82.06</v>
-      </c>
-      <c r="F24" s="8">
-        <v>0.73</v>
-      </c>
-      <c r="G24" s="8">
-        <v>0.96</v>
-      </c>
       <c r="H24" s="8">
-        <v>22.88</v>
+        <v>24.33</v>
       </c>
       <c r="I24" s="8">
-        <v>3168.0</v>
+        <v>3103.0</v>
       </c>
       <c r="J24" s="8">
-        <v>47.55</v>
+        <v>53.6</v>
       </c>
       <c r="K24" s="8">
-        <v>46.65</v>
+        <v>48.71</v>
       </c>
       <c r="L24" s="8">
-        <v>10.0</v>
+        <v>16.0</v>
       </c>
       <c r="M24" s="8">
-        <v>1.0</v>
+        <v>1.05</v>
       </c>
       <c r="N24" s="8">
-        <v>0.71</v>
+        <v>0.68</v>
       </c>
       <c r="O24" s="8">
-        <v>9.0</v>
+        <v>19.0</v>
       </c>
       <c r="P24" s="8">
-        <v>3.0</v>
+        <v>14.0</v>
       </c>
       <c r="Q24" s="8">
-        <v>0.75</v>
+        <v>0.58</v>
       </c>
       <c r="R24" s="8">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="S24" s="8">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="T24" s="8">
-        <v>10.0</v>
+        <v>14.0</v>
       </c>
       <c r="U24" s="8">
-        <v>1.13</v>
+        <v>1.03</v>
       </c>
       <c r="V24" s="8">
-        <v>20.7</v>
+        <v>20.58</v>
       </c>
       <c r="W24" s="8">
-        <v>2700.0</v>
+        <v>2630.0</v>
       </c>
       <c r="X24" s="8">
-        <v>39.05</v>
+        <v>40.6</v>
       </c>
       <c r="Y24" s="8">
-        <v>13.0</v>
+        <v>27.0</v>
       </c>
       <c r="Z24" s="8">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="AA24" s="8">
-        <v>151.0</v>
+        <v>252.0</v>
       </c>
       <c r="AB24" s="8">
-        <v>272.0</v>
+        <v>449.0</v>
       </c>
       <c r="AC24" s="8">
-        <v>25.0</v>
+        <v>38.0</v>
       </c>
       <c r="AD24" s="9">
         <v>2025.0</v>
@@ -3028,88 +3428,88 @@
         <v>63</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="C25" s="8">
-        <v>0.99</v>
+        <v>1.01</v>
       </c>
       <c r="D25" s="8">
-        <v>1.06</v>
+        <v>1.0</v>
       </c>
       <c r="E25" s="8">
-        <v>87.56</v>
+        <v>86.55</v>
       </c>
       <c r="F25" s="8">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="G25" s="8">
-        <v>0.91</v>
+        <v>0.95</v>
       </c>
       <c r="H25" s="8">
-        <v>23.3</v>
+        <v>23.19</v>
       </c>
       <c r="I25" s="8">
-        <v>2941.0</v>
+        <v>2943.0</v>
       </c>
       <c r="J25" s="8">
-        <v>57.31</v>
+        <v>56.44</v>
       </c>
       <c r="K25" s="8">
-        <v>48.88</v>
+        <v>47.63</v>
       </c>
       <c r="L25" s="8">
-        <v>13.0</v>
+        <v>16.0</v>
       </c>
       <c r="M25" s="8">
-        <v>1.26</v>
+        <v>1.13</v>
       </c>
       <c r="N25" s="8">
-        <v>0.85</v>
+        <v>0.8</v>
       </c>
       <c r="O25" s="8">
+        <v>18.0</v>
+      </c>
+      <c r="P25" s="8">
+        <v>12.0</v>
+      </c>
+      <c r="Q25" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="R25" s="8">
+        <v>31.0</v>
+      </c>
+      <c r="S25" s="8">
+        <v>6.0</v>
+      </c>
+      <c r="T25" s="8">
         <v>14.0</v>
       </c>
-      <c r="P25" s="8">
-        <v>19.0</v>
-      </c>
-      <c r="Q25" s="8">
-        <v>0.42</v>
-      </c>
-      <c r="R25" s="8">
-        <v>7.0</v>
-      </c>
-      <c r="S25" s="8">
-        <v>4.0</v>
-      </c>
-      <c r="T25" s="8">
-        <v>10.0</v>
-      </c>
       <c r="U25" s="8">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="V25" s="8">
-        <v>22.3</v>
+        <v>22.61</v>
       </c>
       <c r="W25" s="8">
-        <v>2744.0</v>
+        <v>2742.0</v>
       </c>
       <c r="X25" s="8">
-        <v>43.29</v>
+        <v>43.07</v>
       </c>
       <c r="Y25" s="8">
-        <v>24.0</v>
+        <v>39.0</v>
       </c>
       <c r="Z25" s="8">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="AA25" s="8">
-        <v>206.0</v>
+        <v>252.0</v>
       </c>
       <c r="AB25" s="8">
-        <v>371.0</v>
+        <v>489.0</v>
       </c>
       <c r="AC25" s="8">
-        <v>30.0</v>
+        <v>38.0</v>
       </c>
       <c r="AD25" s="9">
         <v>2025.0</v>
@@ -3120,88 +3520,88 @@
         <v>64</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="C26" s="8">
-        <v>0.99</v>
+        <v>1.0</v>
       </c>
       <c r="D26" s="8">
-        <v>1.08</v>
+        <v>0.95</v>
       </c>
       <c r="E26" s="8">
-        <v>84.78</v>
+        <v>90.34</v>
       </c>
       <c r="F26" s="8">
-        <v>0.66</v>
+        <v>0.65</v>
       </c>
       <c r="G26" s="8">
-        <v>0.96</v>
+        <v>1.07</v>
       </c>
       <c r="H26" s="8">
-        <v>24.1</v>
+        <v>27.62</v>
       </c>
       <c r="I26" s="8">
-        <v>3021.0</v>
+        <v>3255.0</v>
       </c>
       <c r="J26" s="8">
-        <v>59.04</v>
+        <v>63.63</v>
       </c>
       <c r="K26" s="8">
-        <v>49.23</v>
+        <v>53.42</v>
       </c>
       <c r="L26" s="8">
+        <v>13.0</v>
+      </c>
+      <c r="M26" s="8">
+        <v>0.87</v>
+      </c>
+      <c r="N26" s="8">
+        <v>0.61</v>
+      </c>
+      <c r="O26" s="8">
         <v>11.0</v>
       </c>
-      <c r="M26" s="8">
-        <v>1.44</v>
-      </c>
-      <c r="N26" s="8">
-        <v>0.77</v>
-      </c>
-      <c r="O26" s="8">
-        <v>10.0</v>
-      </c>
       <c r="P26" s="8">
-        <v>10.0</v>
+        <v>14.0</v>
       </c>
       <c r="Q26" s="8">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="R26" s="8">
-        <v>25.0</v>
+        <v>28.0</v>
       </c>
       <c r="S26" s="8">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="T26" s="8">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="U26" s="8">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="V26" s="8">
-        <v>19.56</v>
+        <v>21.74</v>
       </c>
       <c r="W26" s="8">
-        <v>2540.0</v>
+        <v>2573.0</v>
       </c>
       <c r="X26" s="8">
-        <v>40.79</v>
+        <v>45.12</v>
       </c>
       <c r="Y26" s="8">
-        <v>24.0</v>
+        <v>33.0</v>
       </c>
       <c r="Z26" s="8">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="AA26" s="8">
-        <v>180.0</v>
+        <v>208.0</v>
       </c>
       <c r="AB26" s="8">
-        <v>345.0</v>
+        <v>404.0</v>
       </c>
       <c r="AC26" s="8">
-        <v>27.0</v>
+        <v>32.0</v>
       </c>
       <c r="AD26" s="9">
         <v>2025.0</v>
@@ -3209,91 +3609,91 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="B27" s="10" t="s">
-        <v>55</v>
-      </c>
       <c r="C27" s="8">
-        <v>0.99</v>
+        <v>1.0</v>
       </c>
       <c r="D27" s="8">
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="E27" s="8">
-        <v>79.57</v>
+        <v>87.95</v>
       </c>
       <c r="F27" s="8">
-        <v>0.69</v>
+        <v>0.64</v>
       </c>
       <c r="G27" s="8">
-        <v>0.94</v>
+        <v>1.01</v>
       </c>
       <c r="H27" s="8">
-        <v>22.02</v>
+        <v>25.27</v>
       </c>
       <c r="I27" s="8">
-        <v>3007.0</v>
+        <v>2968.0</v>
       </c>
       <c r="J27" s="8">
-        <v>58.07</v>
+        <v>55.16</v>
       </c>
       <c r="K27" s="8">
-        <v>45.44</v>
+        <v>50.24</v>
       </c>
       <c r="L27" s="8">
+        <v>13.0</v>
+      </c>
+      <c r="M27" s="8">
+        <v>1.05</v>
+      </c>
+      <c r="N27" s="8">
+        <v>0.78</v>
+      </c>
+      <c r="O27" s="8">
+        <v>26.0</v>
+      </c>
+      <c r="P27" s="8">
+        <v>17.0</v>
+      </c>
+      <c r="Q27" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="R27" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="S27" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="T27" s="8">
         <v>11.0</v>
       </c>
-      <c r="M27" s="8">
-        <v>1.15</v>
-      </c>
-      <c r="N27" s="8">
-        <v>0.73</v>
-      </c>
-      <c r="O27" s="8">
-        <v>6.0</v>
-      </c>
-      <c r="P27" s="8">
-        <v>7.0</v>
-      </c>
-      <c r="Q27" s="8">
-        <v>0.46</v>
-      </c>
-      <c r="R27" s="8">
-        <v>3.0</v>
-      </c>
-      <c r="S27" s="8">
-        <v>4.0</v>
-      </c>
-      <c r="T27" s="8">
-        <v>9.0</v>
-      </c>
       <c r="U27" s="8">
-        <v>1.03</v>
+        <v>0.95</v>
       </c>
       <c r="V27" s="8">
-        <v>19.37</v>
+        <v>20.34</v>
       </c>
       <c r="W27" s="8">
-        <v>2545.0</v>
+        <v>2556.0</v>
       </c>
       <c r="X27" s="8">
-        <v>38.19</v>
+        <v>41.73</v>
       </c>
       <c r="Y27" s="8">
-        <v>27.0</v>
+        <v>18.0</v>
       </c>
       <c r="Z27" s="8">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="AA27" s="8">
-        <v>184.0</v>
+        <v>208.0</v>
       </c>
       <c r="AB27" s="8">
-        <v>341.0</v>
+        <v>387.0</v>
       </c>
       <c r="AC27" s="8">
-        <v>26.0</v>
+        <v>32.0</v>
       </c>
       <c r="AD27" s="9">
         <v>2025.0</v>
@@ -3301,91 +3701,91 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C28" s="8">
         <v>0.99</v>
       </c>
       <c r="D28" s="8">
-        <v>0.98</v>
+        <v>1.08</v>
       </c>
       <c r="E28" s="8">
-        <v>90.57</v>
+        <v>84.78</v>
       </c>
       <c r="F28" s="8">
-        <v>0.64</v>
+        <v>0.66</v>
       </c>
       <c r="G28" s="8">
-        <v>1.0</v>
+        <v>0.96</v>
       </c>
       <c r="H28" s="8">
-        <v>25.98</v>
+        <v>24.1</v>
       </c>
       <c r="I28" s="8">
-        <v>3150.0</v>
+        <v>3021.0</v>
       </c>
       <c r="J28" s="8">
-        <v>51.55</v>
+        <v>59.04</v>
       </c>
       <c r="K28" s="8">
-        <v>52.07</v>
+        <v>49.23</v>
       </c>
       <c r="L28" s="8">
-        <v>16.0</v>
+        <v>11.0</v>
       </c>
       <c r="M28" s="8">
+        <v>1.44</v>
+      </c>
+      <c r="N28" s="8">
+        <v>0.77</v>
+      </c>
+      <c r="O28" s="8">
+        <v>10.0</v>
+      </c>
+      <c r="P28" s="8">
+        <v>10.0</v>
+      </c>
+      <c r="Q28" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="R28" s="8">
+        <v>25.0</v>
+      </c>
+      <c r="S28" s="8">
+        <v>7.0</v>
+      </c>
+      <c r="T28" s="8">
+        <v>10.0</v>
+      </c>
+      <c r="U28" s="8">
         <v>0.92</v>
       </c>
-      <c r="N28" s="8">
-        <v>0.72</v>
-      </c>
-      <c r="O28" s="8">
-        <v>18.0</v>
-      </c>
-      <c r="P28" s="8">
-        <v>20.0</v>
-      </c>
-      <c r="Q28" s="8">
-        <v>0.47</v>
-      </c>
-      <c r="R28" s="8">
-        <v>4.0</v>
-      </c>
-      <c r="S28" s="8">
-        <v>5.0</v>
-      </c>
-      <c r="T28" s="8">
-        <v>14.0</v>
-      </c>
-      <c r="U28" s="8">
-        <v>1.0</v>
-      </c>
       <c r="V28" s="8">
-        <v>22.83</v>
+        <v>19.56</v>
       </c>
       <c r="W28" s="8">
-        <v>2772.0</v>
+        <v>2540.0</v>
       </c>
       <c r="X28" s="8">
-        <v>45.55</v>
+        <v>40.79</v>
       </c>
       <c r="Y28" s="8">
-        <v>33.0</v>
+        <v>24.0</v>
       </c>
       <c r="Z28" s="8">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="AA28" s="8">
-        <v>252.0</v>
+        <v>180.0</v>
       </c>
       <c r="AB28" s="8">
-        <v>491.0</v>
+        <v>345.0</v>
       </c>
       <c r="AC28" s="8">
-        <v>38.0</v>
+        <v>27.0</v>
       </c>
       <c r="AD28" s="9">
         <v>2025.0</v>
@@ -3393,91 +3793,91 @@
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="C29" s="8">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="D29" s="8">
-        <v>0.92</v>
+        <v>0.99</v>
       </c>
       <c r="E29" s="8">
-        <v>90.05</v>
+        <v>79.57</v>
       </c>
       <c r="F29" s="8">
-        <v>0.64</v>
+        <v>0.69</v>
       </c>
       <c r="G29" s="8">
-        <v>1.08</v>
+        <v>0.94</v>
       </c>
       <c r="H29" s="8">
-        <v>28.1</v>
+        <v>22.02</v>
       </c>
       <c r="I29" s="8">
-        <v>3313.0</v>
+        <v>3007.0</v>
       </c>
       <c r="J29" s="8">
-        <v>60.7</v>
+        <v>58.07</v>
       </c>
       <c r="K29" s="8">
-        <v>54.09</v>
+        <v>45.44</v>
       </c>
       <c r="L29" s="8">
         <v>11.0</v>
       </c>
       <c r="M29" s="8">
-        <v>0.78</v>
+        <v>1.15</v>
       </c>
       <c r="N29" s="8">
-        <v>0.56</v>
+        <v>0.73</v>
       </c>
       <c r="O29" s="8">
         <v>6.0</v>
       </c>
       <c r="P29" s="8">
-        <v>13.0</v>
+        <v>7.0</v>
       </c>
       <c r="Q29" s="8">
-        <v>0.32</v>
+        <v>0.46</v>
       </c>
       <c r="R29" s="8">
-        <v>26.0</v>
+        <v>3.0</v>
       </c>
       <c r="S29" s="8">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="T29" s="8">
         <v>9.0</v>
       </c>
       <c r="U29" s="8">
-        <v>0.9</v>
+        <v>1.03</v>
       </c>
       <c r="V29" s="8">
-        <v>21.6</v>
+        <v>19.37</v>
       </c>
       <c r="W29" s="8">
-        <v>2544.0</v>
+        <v>2545.0</v>
       </c>
       <c r="X29" s="8">
-        <v>45.62</v>
+        <v>38.19</v>
       </c>
       <c r="Y29" s="8">
-        <v>22.0</v>
+        <v>27.0</v>
       </c>
       <c r="Z29" s="8">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="AA29" s="8">
-        <v>179.0</v>
+        <v>184.0</v>
       </c>
       <c r="AB29" s="8">
-        <v>339.0</v>
+        <v>341.0</v>
       </c>
       <c r="AC29" s="8">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
       <c r="AD29" s="9">
         <v>2025.0</v>
@@ -3488,16 +3888,16 @@
         <v>69</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C30" s="8">
+        <v>0.99</v>
+      </c>
+      <c r="D30" s="8">
         <v>0.98</v>
       </c>
-      <c r="D30" s="8">
-        <v>0.94</v>
-      </c>
       <c r="E30" s="8">
-        <v>87.14</v>
+        <v>90.57</v>
       </c>
       <c r="F30" s="8">
         <v>0.64</v>
@@ -3506,70 +3906,70 @@
         <v>1.0</v>
       </c>
       <c r="H30" s="8">
-        <v>24.98</v>
+        <v>25.98</v>
       </c>
       <c r="I30" s="8">
-        <v>2938.0</v>
+        <v>3150.0</v>
       </c>
       <c r="J30" s="8">
-        <v>55.28</v>
+        <v>51.55</v>
       </c>
       <c r="K30" s="8">
-        <v>49.86</v>
+        <v>52.07</v>
       </c>
       <c r="L30" s="8">
-        <v>11.0</v>
+        <v>16.0</v>
       </c>
       <c r="M30" s="8">
-        <v>1.06</v>
+        <v>0.92</v>
       </c>
       <c r="N30" s="8">
-        <v>0.78</v>
+        <v>0.72</v>
       </c>
       <c r="O30" s="8">
-        <v>22.0</v>
+        <v>18.0</v>
       </c>
       <c r="P30" s="8">
-        <v>13.0</v>
+        <v>20.0</v>
       </c>
       <c r="Q30" s="8">
-        <v>0.63</v>
+        <v>0.47</v>
       </c>
       <c r="R30" s="8">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="S30" s="8">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="T30" s="8">
-        <v>9.0</v>
+        <v>14.0</v>
       </c>
       <c r="U30" s="8">
-        <v>0.91</v>
+        <v>1.0</v>
       </c>
       <c r="V30" s="8">
-        <v>19.94</v>
+        <v>22.83</v>
       </c>
       <c r="W30" s="8">
-        <v>2532.0</v>
+        <v>2772.0</v>
       </c>
       <c r="X30" s="8">
-        <v>41.79</v>
+        <v>45.55</v>
       </c>
       <c r="Y30" s="8">
-        <v>12.0</v>
+        <v>33.0</v>
       </c>
       <c r="Z30" s="8">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="AA30" s="8">
-        <v>179.0</v>
+        <v>252.0</v>
       </c>
       <c r="AB30" s="8">
-        <v>323.0</v>
+        <v>491.0</v>
       </c>
       <c r="AC30" s="8">
-        <v>27.0</v>
+        <v>38.0</v>
       </c>
       <c r="AD30" s="9">
         <v>2025.0</v>
@@ -3580,88 +3980,88 @@
         <v>70</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C31" s="8">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="D31" s="8">
-        <v>1.0</v>
+        <v>1.04</v>
       </c>
       <c r="E31" s="8">
-        <v>82.09</v>
+        <v>88.39</v>
       </c>
       <c r="F31" s="8">
-        <v>0.64</v>
+        <v>0.66</v>
       </c>
       <c r="G31" s="8">
-        <v>1.0</v>
+        <v>0.88</v>
       </c>
       <c r="H31" s="8">
-        <v>23.96</v>
+        <v>23.41</v>
       </c>
       <c r="I31" s="8">
-        <v>3050.0</v>
+        <v>2969.0</v>
       </c>
       <c r="J31" s="8">
-        <v>58.72</v>
+        <v>55.93</v>
       </c>
       <c r="K31" s="8">
-        <v>47.91</v>
+        <v>49.9</v>
       </c>
       <c r="L31" s="8">
-        <v>10.0</v>
+        <v>15.0</v>
       </c>
       <c r="M31" s="8">
-        <v>0.92</v>
+        <v>1.31</v>
       </c>
       <c r="N31" s="8">
-        <v>0.61</v>
+        <v>0.86</v>
       </c>
       <c r="O31" s="8">
-        <v>10.0</v>
+        <v>16.0</v>
       </c>
       <c r="P31" s="8">
+        <v>21.0</v>
+      </c>
+      <c r="Q31" s="8">
+        <v>0.43</v>
+      </c>
+      <c r="R31" s="8">
+        <v>7.0</v>
+      </c>
+      <c r="S31" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="T31" s="8">
         <v>11.0</v>
       </c>
-      <c r="Q31" s="8">
-        <v>0.48</v>
-      </c>
-      <c r="R31" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="S31" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="T31" s="8">
-        <v>10.0</v>
-      </c>
       <c r="U31" s="8">
-        <v>0.95</v>
+        <v>1.08</v>
       </c>
       <c r="V31" s="8">
-        <v>20.7</v>
+        <v>22.6</v>
       </c>
       <c r="W31" s="8">
-        <v>2597.0</v>
+        <v>2759.0</v>
       </c>
       <c r="X31" s="8">
-        <v>42.46</v>
+        <v>43.55</v>
       </c>
       <c r="Y31" s="8">
-        <v>15.0</v>
+        <v>28.0</v>
       </c>
       <c r="Z31" s="8">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="AA31" s="8">
-        <v>151.0</v>
+        <v>239.0</v>
       </c>
       <c r="AB31" s="8">
-        <v>293.0</v>
+        <v>430.0</v>
       </c>
       <c r="AC31" s="8">
-        <v>25.0</v>
+        <v>34.0</v>
       </c>
       <c r="AD31" s="9">
         <v>2025.0</v>
@@ -3671,89 +4071,89 @@
       <c r="A32" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B32" s="10" t="s">
-        <v>45</v>
+      <c r="B32" s="7" t="s">
+        <v>33</v>
       </c>
       <c r="C32" s="8">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="D32" s="8">
-        <v>1.03</v>
+        <v>0.94</v>
       </c>
       <c r="E32" s="8">
-        <v>89.98</v>
+        <v>73.14</v>
       </c>
       <c r="F32" s="8">
-        <v>0.67</v>
+        <v>0.64</v>
       </c>
       <c r="G32" s="8">
-        <v>0.96</v>
+        <v>0.87</v>
       </c>
       <c r="H32" s="8">
-        <v>25.49</v>
+        <v>18.96</v>
       </c>
       <c r="I32" s="8">
-        <v>3309.0</v>
+        <v>2725.0</v>
       </c>
       <c r="J32" s="8">
-        <v>46.29</v>
+        <v>21.87</v>
       </c>
       <c r="K32" s="8">
-        <v>52.15</v>
+        <v>40.83</v>
       </c>
       <c r="L32" s="8">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="M32" s="8">
-        <v>1.16</v>
+        <v>1.35</v>
       </c>
       <c r="N32" s="8">
-        <v>0.87</v>
+        <v>0.77</v>
       </c>
       <c r="O32" s="8">
-        <v>18.0</v>
+        <v>3.0</v>
       </c>
       <c r="P32" s="8">
-        <v>17.0</v>
+        <v>2.0</v>
       </c>
       <c r="Q32" s="8">
-        <v>0.51</v>
+        <v>0.6</v>
       </c>
       <c r="R32" s="8">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="S32" s="8">
         <v>1.0</v>
       </c>
       <c r="T32" s="8">
-        <v>10.0</v>
+        <v>3.0</v>
       </c>
       <c r="U32" s="8">
-        <v>0.88</v>
+        <v>1.13</v>
       </c>
       <c r="V32" s="8">
-        <v>19.84</v>
+        <v>18.35</v>
       </c>
       <c r="W32" s="8">
-        <v>2565.0</v>
+        <v>2173.0</v>
       </c>
       <c r="X32" s="8">
-        <v>42.46</v>
+        <v>34.59</v>
       </c>
       <c r="Y32" s="8">
         <v>6.0</v>
       </c>
       <c r="Z32" s="8">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="AA32" s="8">
-        <v>151.0</v>
+        <v>87.0</v>
       </c>
       <c r="AB32" s="8">
-        <v>297.0</v>
+        <v>139.0</v>
       </c>
       <c r="AC32" s="8">
-        <v>25.0</v>
+        <v>11.0</v>
       </c>
       <c r="AD32" s="9">
         <v>2025.0</v>
@@ -3764,88 +4164,88 @@
         <v>72</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C33" s="8">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="D33" s="8">
-        <v>1.04</v>
+        <v>0.99</v>
       </c>
       <c r="E33" s="8">
-        <v>74.33</v>
+        <v>80.63</v>
       </c>
       <c r="F33" s="8">
-        <v>0.67</v>
+        <v>0.72</v>
       </c>
       <c r="G33" s="8">
+        <v>0.95</v>
+      </c>
+      <c r="H33" s="8">
+        <v>22.91</v>
+      </c>
+      <c r="I33" s="8">
+        <v>3197.0</v>
+      </c>
+      <c r="J33" s="8">
+        <v>54.17</v>
+      </c>
+      <c r="K33" s="8">
+        <v>46.97</v>
+      </c>
+      <c r="L33" s="8">
+        <v>12.0</v>
+      </c>
+      <c r="M33" s="8">
         <v>0.93</v>
-      </c>
-      <c r="H33" s="8">
-        <v>20.74</v>
-      </c>
-      <c r="I33" s="8">
-        <v>2792.0</v>
-      </c>
-      <c r="J33" s="8">
-        <v>64.21</v>
-      </c>
-      <c r="K33" s="8">
-        <v>43.04</v>
-      </c>
-      <c r="L33" s="8">
-        <v>11.0</v>
-      </c>
-      <c r="M33" s="8">
-        <v>1.14</v>
       </c>
       <c r="N33" s="8">
         <v>0.67</v>
       </c>
       <c r="O33" s="8">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
       <c r="P33" s="8">
         <v>5.0</v>
       </c>
       <c r="Q33" s="8">
-        <v>0.62</v>
+        <v>0.69</v>
       </c>
       <c r="R33" s="8">
+        <v>6.0</v>
+      </c>
+      <c r="S33" s="8">
         <v>3.0</v>
       </c>
-      <c r="S33" s="8">
-        <v>2.0</v>
-      </c>
       <c r="T33" s="8">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="U33" s="8">
-        <v>0.97</v>
+        <v>1.08</v>
       </c>
       <c r="V33" s="8">
-        <v>18.17</v>
+        <v>20.06</v>
       </c>
       <c r="W33" s="8">
-        <v>2421.0</v>
+        <v>2606.0</v>
       </c>
       <c r="X33" s="8">
-        <v>36.9</v>
+        <v>38.64</v>
       </c>
       <c r="Y33" s="8">
-        <v>27.0</v>
+        <v>19.0</v>
       </c>
       <c r="Z33" s="8">
         <v>6.0</v>
       </c>
       <c r="AA33" s="8">
-        <v>180.0</v>
+        <v>184.0</v>
       </c>
       <c r="AB33" s="8">
-        <v>307.0</v>
+        <v>330.0</v>
       </c>
       <c r="AC33" s="8">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
       <c r="AD33" s="9">
         <v>2025.0</v>
@@ -3856,88 +4256,88 @@
         <v>73</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="C34" s="8">
+        <v>0.98</v>
+      </c>
+      <c r="D34" s="8">
+        <v>0.91</v>
+      </c>
+      <c r="E34" s="8">
+        <v>83.7</v>
+      </c>
+      <c r="F34" s="8">
+        <v>0.65</v>
+      </c>
+      <c r="G34" s="8">
         <v>0.97</v>
       </c>
-      <c r="D34" s="8">
-        <v>0.99</v>
-      </c>
-      <c r="E34" s="8">
-        <v>82.56</v>
-      </c>
-      <c r="F34" s="8">
-        <v>0.66</v>
-      </c>
-      <c r="G34" s="8">
-        <v>1.1</v>
-      </c>
       <c r="H34" s="8">
-        <v>25.65</v>
+        <v>24.95</v>
       </c>
       <c r="I34" s="8">
-        <v>3110.0</v>
+        <v>3270.0</v>
       </c>
       <c r="J34" s="8">
-        <v>51.51</v>
+        <v>49.39</v>
       </c>
       <c r="K34" s="8">
-        <v>48.96</v>
+        <v>50.73</v>
       </c>
       <c r="L34" s="8">
-        <v>15.0</v>
+        <v>11.0</v>
       </c>
       <c r="M34" s="8">
-        <v>0.91</v>
+        <v>0.71</v>
       </c>
       <c r="N34" s="8">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="O34" s="8">
-        <v>14.0</v>
+        <v>8.0</v>
       </c>
       <c r="P34" s="8">
-        <v>11.0</v>
+        <v>9.0</v>
       </c>
       <c r="Q34" s="8">
-        <v>0.56</v>
+        <v>0.47</v>
       </c>
       <c r="R34" s="8">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="S34" s="8">
         <v>0.0</v>
       </c>
       <c r="T34" s="8">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="U34" s="8">
-        <v>0.78</v>
+        <v>1.17</v>
       </c>
       <c r="V34" s="8">
-        <v>17.68</v>
+        <v>21.16</v>
       </c>
       <c r="W34" s="8">
-        <v>2624.0</v>
+        <v>2930.0</v>
       </c>
       <c r="X34" s="8">
-        <v>40.3</v>
+        <v>39.18</v>
       </c>
       <c r="Y34" s="8">
-        <v>23.0</v>
+        <v>26.0</v>
       </c>
       <c r="Z34" s="8">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="AA34" s="8">
-        <v>235.0</v>
+        <v>172.0</v>
       </c>
       <c r="AB34" s="8">
-        <v>404.0</v>
+        <v>331.0</v>
       </c>
       <c r="AC34" s="8">
-        <v>33.0</v>
+        <v>26.0</v>
       </c>
       <c r="AD34" s="9">
         <v>2025.0</v>
@@ -3945,91 +4345,91 @@
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>42</v>
+        <v>75</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>33</v>
       </c>
       <c r="C35" s="8">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="D35" s="8">
+        <v>0.89</v>
+      </c>
+      <c r="E35" s="8">
+        <v>86.15</v>
+      </c>
+      <c r="F35" s="8">
+        <v>0.61</v>
+      </c>
+      <c r="G35" s="8">
+        <v>0.95</v>
+      </c>
+      <c r="H35" s="8">
+        <v>25.58</v>
+      </c>
+      <c r="I35" s="8">
+        <v>3144.0</v>
+      </c>
+      <c r="J35" s="8">
+        <v>38.16</v>
+      </c>
+      <c r="K35" s="8">
+        <v>52.51</v>
+      </c>
+      <c r="L35" s="8">
+        <v>11.0</v>
+      </c>
+      <c r="M35" s="8">
+        <v>0.98</v>
+      </c>
+      <c r="N35" s="8">
+        <v>0.67</v>
+      </c>
+      <c r="O35" s="8">
+        <v>10.0</v>
+      </c>
+      <c r="P35" s="8">
+        <v>13.0</v>
+      </c>
+      <c r="Q35" s="8">
+        <v>0.43</v>
+      </c>
+      <c r="R35" s="8">
+        <v>12.0</v>
+      </c>
+      <c r="S35" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="T35" s="8">
+        <v>7.0</v>
+      </c>
+      <c r="U35" s="8">
         <v>1.01</v>
       </c>
-      <c r="E35" s="8">
-        <v>82.06</v>
-      </c>
-      <c r="F35" s="8">
-        <v>0.67</v>
-      </c>
-      <c r="G35" s="8">
-        <v>0.92</v>
-      </c>
-      <c r="H35" s="8">
-        <v>22.43</v>
-      </c>
-      <c r="I35" s="8">
-        <v>2902.0</v>
-      </c>
-      <c r="J35" s="8">
-        <v>69.97</v>
-      </c>
-      <c r="K35" s="8">
-        <v>46.87</v>
-      </c>
-      <c r="L35" s="8">
-        <v>10.0</v>
-      </c>
-      <c r="M35" s="8">
-        <v>0.82</v>
-      </c>
-      <c r="N35" s="8">
-        <v>0.59</v>
-      </c>
-      <c r="O35" s="8">
-        <v>5.0</v>
-      </c>
-      <c r="P35" s="8">
-        <v>10.0</v>
-      </c>
-      <c r="Q35" s="8">
-        <v>0.33</v>
-      </c>
-      <c r="R35" s="8">
-        <v>8.0</v>
-      </c>
-      <c r="S35" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="T35" s="8">
-        <v>6.0</v>
-      </c>
-      <c r="U35" s="8">
-        <v>1.08</v>
-      </c>
       <c r="V35" s="8">
-        <v>24.23</v>
+        <v>20.21</v>
       </c>
       <c r="W35" s="8">
-        <v>2791.0</v>
+        <v>2553.0</v>
       </c>
       <c r="X35" s="8">
-        <v>46.7</v>
+        <v>40.16</v>
       </c>
       <c r="Y35" s="8">
-        <v>18.0</v>
+        <v>16.0</v>
       </c>
       <c r="Z35" s="8">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="AA35" s="8">
-        <v>159.0</v>
+        <v>185.0</v>
       </c>
       <c r="AB35" s="8">
-        <v>279.0</v>
+        <v>327.0</v>
       </c>
       <c r="AC35" s="8">
-        <v>21.0</v>
+        <v>25.0</v>
       </c>
       <c r="AD35" s="9">
         <v>2025.0</v>
@@ -4037,88 +4437,88 @@
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="C36" s="8">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="D36" s="8">
-        <v>0.93</v>
+        <v>1.04</v>
       </c>
       <c r="E36" s="8">
-        <v>81.22</v>
+        <v>74.33</v>
       </c>
       <c r="F36" s="8">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="G36" s="8">
         <v>0.93</v>
       </c>
       <c r="H36" s="8">
-        <v>22.96</v>
+        <v>20.74</v>
       </c>
       <c r="I36" s="8">
-        <v>3070.0</v>
+        <v>2792.0</v>
       </c>
       <c r="J36" s="8">
-        <v>50.14</v>
+        <v>64.21</v>
       </c>
       <c r="K36" s="8">
-        <v>47.75</v>
+        <v>43.04</v>
       </c>
       <c r="L36" s="8">
         <v>11.0</v>
       </c>
       <c r="M36" s="8">
-        <v>1.09</v>
+        <v>1.14</v>
       </c>
       <c r="N36" s="8">
-        <v>0.7</v>
+        <v>0.67</v>
       </c>
       <c r="O36" s="8">
+        <v>8.0</v>
+      </c>
+      <c r="P36" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="Q36" s="8">
+        <v>0.62</v>
+      </c>
+      <c r="R36" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="S36" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="T36" s="8">
         <v>10.0</v>
       </c>
-      <c r="P36" s="8">
-        <v>4.0</v>
-      </c>
-      <c r="Q36" s="8">
-        <v>0.71</v>
-      </c>
-      <c r="R36" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="S36" s="8">
-        <v>3.0</v>
-      </c>
-      <c r="T36" s="8">
-        <v>9.0</v>
-      </c>
       <c r="U36" s="8">
-        <v>0.94</v>
+        <v>0.97</v>
       </c>
       <c r="V36" s="8">
-        <v>19.81</v>
+        <v>18.17</v>
       </c>
       <c r="W36" s="8">
-        <v>2575.0</v>
+        <v>2421.0</v>
       </c>
       <c r="X36" s="8">
-        <v>40.89</v>
+        <v>36.9</v>
       </c>
       <c r="Y36" s="8">
-        <v>17.0</v>
+        <v>27.0</v>
       </c>
       <c r="Z36" s="8">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="AA36" s="8">
-        <v>179.0</v>
+        <v>180.0</v>
       </c>
       <c r="AB36" s="8">
-        <v>315.0</v>
+        <v>307.0</v>
       </c>
       <c r="AC36" s="8">
         <v>27.0</v>
@@ -4129,91 +4529,91 @@
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>33</v>
+        <v>77</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>46</v>
       </c>
       <c r="C37" s="8">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="D37" s="8">
-        <v>0.86</v>
+        <v>0.99</v>
       </c>
       <c r="E37" s="8">
-        <v>83.77</v>
+        <v>82.56</v>
       </c>
       <c r="F37" s="8">
-        <v>0.59</v>
+        <v>0.66</v>
       </c>
       <c r="G37" s="8">
-        <v>0.94</v>
+        <v>1.1</v>
       </c>
       <c r="H37" s="8">
-        <v>25.32</v>
+        <v>25.65</v>
       </c>
       <c r="I37" s="8">
-        <v>3076.0</v>
+        <v>3110.0</v>
       </c>
       <c r="J37" s="8">
-        <v>42.16</v>
+        <v>51.51</v>
       </c>
       <c r="K37" s="8">
-        <v>52.22</v>
+        <v>48.96</v>
       </c>
       <c r="L37" s="8">
-        <v>9.0</v>
+        <v>15.0</v>
       </c>
       <c r="M37" s="8">
-        <v>0.8</v>
+        <v>0.91</v>
       </c>
       <c r="N37" s="8">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="O37" s="8">
-        <v>7.0</v>
+        <v>14.0</v>
       </c>
       <c r="P37" s="8">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="Q37" s="8">
-        <v>0.37</v>
+        <v>0.56</v>
       </c>
       <c r="R37" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="S37" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="T37" s="8">
+        <v>10.0</v>
+      </c>
+      <c r="U37" s="8">
+        <v>0.78</v>
+      </c>
+      <c r="V37" s="8">
+        <v>17.68</v>
+      </c>
+      <c r="W37" s="8">
+        <v>2624.0</v>
+      </c>
+      <c r="X37" s="8">
+        <v>40.3</v>
+      </c>
+      <c r="Y37" s="8">
+        <v>23.0</v>
+      </c>
+      <c r="Z37" s="8">
         <v>8.0</v>
       </c>
-      <c r="S37" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="T37" s="8">
-        <v>6.0</v>
-      </c>
-      <c r="U37" s="8">
-        <v>1.01</v>
-      </c>
-      <c r="V37" s="8">
-        <v>20.39</v>
-      </c>
-      <c r="W37" s="8">
-        <v>2558.0</v>
-      </c>
-      <c r="X37" s="8">
-        <v>40.63</v>
-      </c>
-      <c r="Y37" s="8">
-        <v>13.0</v>
-      </c>
-      <c r="Z37" s="8">
-        <v>6.0</v>
-      </c>
       <c r="AA37" s="8">
-        <v>152.0</v>
+        <v>235.0</v>
       </c>
       <c r="AB37" s="8">
-        <v>263.0</v>
+        <v>404.0</v>
       </c>
       <c r="AC37" s="8">
-        <v>21.0</v>
+        <v>33.0</v>
       </c>
       <c r="AD37" s="9">
         <v>2025.0</v>
@@ -4221,91 +4621,91 @@
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="C38" s="8">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="D38" s="8">
-        <v>0.86</v>
+        <v>1.01</v>
       </c>
       <c r="E38" s="8">
-        <v>82.65</v>
+        <v>82.06</v>
       </c>
       <c r="F38" s="8">
-        <v>0.65</v>
+        <v>0.67</v>
       </c>
       <c r="G38" s="8">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="H38" s="8">
-        <v>24.63</v>
+        <v>22.43</v>
       </c>
       <c r="I38" s="8">
-        <v>3254.0</v>
+        <v>2902.0</v>
       </c>
       <c r="J38" s="8">
-        <v>52.1</v>
+        <v>69.97</v>
       </c>
       <c r="K38" s="8">
-        <v>51.26</v>
+        <v>46.87</v>
       </c>
       <c r="L38" s="8">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="M38" s="8">
-        <v>0.7</v>
+        <v>0.82</v>
       </c>
       <c r="N38" s="8">
-        <v>0.57</v>
+        <v>0.59</v>
       </c>
       <c r="O38" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="P38" s="8">
+        <v>10.0</v>
+      </c>
+      <c r="Q38" s="8">
+        <v>0.33</v>
+      </c>
+      <c r="R38" s="8">
         <v>8.0</v>
       </c>
-      <c r="P38" s="8">
-        <v>7.0</v>
-      </c>
-      <c r="Q38" s="8">
-        <v>0.53</v>
-      </c>
-      <c r="R38" s="8">
+      <c r="S38" s="8">
         <v>2.0</v>
       </c>
-      <c r="S38" s="8">
-        <v>0.0</v>
-      </c>
       <c r="T38" s="8">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="U38" s="8">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="V38" s="8">
-        <v>20.81</v>
+        <v>24.23</v>
       </c>
       <c r="W38" s="8">
-        <v>2964.0</v>
+        <v>2791.0</v>
       </c>
       <c r="X38" s="8">
-        <v>39.8</v>
+        <v>46.7</v>
       </c>
       <c r="Y38" s="8">
-        <v>24.0</v>
+        <v>18.0</v>
       </c>
       <c r="Z38" s="8">
         <v>5.0</v>
       </c>
       <c r="AA38" s="8">
-        <v>139.0</v>
+        <v>159.0</v>
       </c>
       <c r="AB38" s="8">
-        <v>262.0</v>
+        <v>279.0</v>
       </c>
       <c r="AC38" s="8">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="AD38" s="9">
         <v>2025.0</v>
@@ -4316,88 +4716,88 @@
         <v>79</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C39" s="8">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="D39" s="8">
-        <v>0.94</v>
+        <v>0.97</v>
       </c>
       <c r="E39" s="8">
-        <v>80.37</v>
+        <v>83.95</v>
       </c>
       <c r="F39" s="8">
         <v>0.65</v>
       </c>
       <c r="G39" s="8">
-        <v>0.93</v>
+        <v>0.94</v>
       </c>
       <c r="H39" s="8">
-        <v>23.83</v>
+        <v>24.3</v>
       </c>
       <c r="I39" s="8">
-        <v>3055.0</v>
+        <v>3036.0</v>
       </c>
       <c r="J39" s="8">
-        <v>61.91</v>
+        <v>63.79</v>
       </c>
       <c r="K39" s="8">
-        <v>49.57</v>
+        <v>50.14</v>
       </c>
       <c r="L39" s="8">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
       <c r="M39" s="8">
-        <v>0.65</v>
+        <v>0.86</v>
       </c>
       <c r="N39" s="8">
-        <v>0.51</v>
+        <v>0.63</v>
       </c>
       <c r="O39" s="8">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="P39" s="8">
-        <v>12.0</v>
+        <v>17.0</v>
       </c>
       <c r="Q39" s="8">
-        <v>0.4</v>
+        <v>0.37</v>
       </c>
       <c r="R39" s="8">
         <v>9.0</v>
       </c>
       <c r="S39" s="8">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="T39" s="8">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="U39" s="8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="V39" s="8">
-        <v>21.55</v>
+        <v>21.59</v>
       </c>
       <c r="W39" s="8">
-        <v>2791.0</v>
+        <v>2755.0</v>
       </c>
       <c r="X39" s="8">
-        <v>42.16</v>
+        <v>42.69</v>
       </c>
       <c r="Y39" s="8">
         <v>27.0</v>
       </c>
       <c r="Z39" s="8">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="AA39" s="8">
-        <v>142.0</v>
+        <v>171.0</v>
       </c>
       <c r="AB39" s="8">
-        <v>254.0</v>
+        <v>315.0</v>
       </c>
       <c r="AC39" s="8">
-        <v>22.0</v>
+        <v>27.0</v>
       </c>
       <c r="AD39" s="9">
         <v>2025.0</v>
@@ -4408,52 +4808,52 @@
         <v>80</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C40" s="8">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="D40" s="8">
-        <v>0.89</v>
+        <v>0.93</v>
       </c>
       <c r="E40" s="8">
-        <v>80.76</v>
+        <v>80.07</v>
       </c>
       <c r="F40" s="8">
-        <v>0.63</v>
+        <v>0.64</v>
       </c>
       <c r="G40" s="8">
-        <v>0.89</v>
+        <v>0.94</v>
       </c>
       <c r="H40" s="8">
-        <v>23.27</v>
+        <v>23.11</v>
       </c>
       <c r="I40" s="8">
-        <v>3000.0</v>
+        <v>2970.0</v>
       </c>
       <c r="J40" s="8">
-        <v>48.11</v>
+        <v>44.96</v>
       </c>
       <c r="K40" s="8">
-        <v>49.48</v>
+        <v>47.8</v>
       </c>
       <c r="L40" s="8">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
       <c r="M40" s="8">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="N40" s="8">
-        <v>0.7</v>
+        <v>0.69</v>
       </c>
       <c r="O40" s="8">
         <v>10.0</v>
       </c>
       <c r="P40" s="8">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="Q40" s="8">
-        <v>0.48</v>
+        <v>0.45</v>
       </c>
       <c r="R40" s="8">
         <v>0.0</v>
@@ -4462,218 +4862,218 @@
         <v>3.0</v>
       </c>
       <c r="T40" s="8">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="U40" s="8">
-        <v>0.92</v>
+        <v>0.96</v>
       </c>
       <c r="V40" s="8">
-        <v>18.79</v>
+        <v>18.68</v>
       </c>
       <c r="W40" s="8">
-        <v>2553.0</v>
+        <v>2448.0</v>
       </c>
       <c r="X40" s="8">
-        <v>39.19</v>
+        <v>38.19</v>
       </c>
       <c r="Y40" s="8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="Z40" s="8">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="AA40" s="8">
-        <v>139.0</v>
+        <v>172.0</v>
       </c>
       <c r="AB40" s="8">
-        <v>244.0</v>
+        <v>300.0</v>
       </c>
       <c r="AC40" s="8">
-        <v>22.0</v>
+        <v>26.0</v>
       </c>
       <c r="AD40" s="9">
         <v>2025.0</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="11" t="s">
+      <c r="A41" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B41" s="12" t="s">
-        <v>78</v>
+      <c r="B41" s="10" t="s">
+        <v>65</v>
       </c>
       <c r="C41" s="8">
+        <v>0.94</v>
+      </c>
+      <c r="D41" s="8">
+        <v>0.94</v>
+      </c>
+      <c r="E41" s="8">
+        <v>80.35</v>
+      </c>
+      <c r="F41" s="8">
+        <v>0.64</v>
+      </c>
+      <c r="G41" s="8">
         <v>0.92</v>
       </c>
-      <c r="D41" s="8">
-        <v>0.86</v>
-      </c>
-      <c r="E41" s="8">
-        <v>82.56</v>
-      </c>
-      <c r="F41" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="G41" s="8">
-        <v>0.9</v>
-      </c>
       <c r="H41" s="8">
-        <v>23.27</v>
+        <v>22.85</v>
       </c>
       <c r="I41" s="8">
-        <v>2925.0</v>
+        <v>3092.0</v>
       </c>
       <c r="J41" s="8">
-        <v>40.88</v>
+        <v>49.41</v>
       </c>
       <c r="K41" s="8">
-        <v>49.06</v>
+        <v>47.82</v>
       </c>
       <c r="L41" s="8">
-        <v>9.0</v>
+        <v>13.0</v>
       </c>
       <c r="M41" s="8">
-        <v>0.79</v>
+        <v>1.06</v>
       </c>
       <c r="N41" s="8">
-        <v>0.64</v>
+        <v>0.68</v>
       </c>
       <c r="O41" s="8">
         <v>10.0</v>
       </c>
       <c r="P41" s="8">
-        <v>16.0</v>
+        <v>6.0</v>
       </c>
       <c r="Q41" s="8">
-        <v>0.38</v>
+        <v>0.63</v>
       </c>
       <c r="R41" s="8">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="S41" s="8">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="T41" s="8">
+        <v>11.0</v>
+      </c>
+      <c r="U41" s="8">
+        <v>0.93</v>
+      </c>
+      <c r="V41" s="8">
+        <v>19.64</v>
+      </c>
+      <c r="W41" s="8">
+        <v>2591.0</v>
+      </c>
+      <c r="X41" s="8">
+        <v>40.68</v>
+      </c>
+      <c r="Y41" s="8">
+        <v>23.0</v>
+      </c>
+      <c r="Z41" s="8">
         <v>8.0</v>
       </c>
-      <c r="U41" s="8">
-        <v>1.03</v>
-      </c>
-      <c r="V41" s="8">
-        <v>22.02</v>
-      </c>
-      <c r="W41" s="8">
-        <v>2433.0</v>
-      </c>
-      <c r="X41" s="8">
-        <v>43.43</v>
-      </c>
-      <c r="Y41" s="8">
-        <v>17.0</v>
-      </c>
-      <c r="Z41" s="8">
-        <v>5.0</v>
-      </c>
       <c r="AA41" s="8">
-        <v>139.0</v>
+        <v>208.0</v>
       </c>
       <c r="AB41" s="8">
-        <v>260.0</v>
+        <v>357.0</v>
       </c>
       <c r="AC41" s="8">
-        <v>22.0</v>
+        <v>32.0</v>
       </c>
       <c r="AD41" s="9">
         <v>2025.0</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="6" t="s">
+      <c r="A42" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="B42" s="10" t="s">
-        <v>37</v>
+      <c r="B42" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="C42" s="8">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="D42" s="8">
-        <v>0.98</v>
+        <v>0.89</v>
       </c>
       <c r="E42" s="8">
-        <v>78.01</v>
+        <v>82.29</v>
       </c>
       <c r="F42" s="8">
-        <v>0.68</v>
+        <v>0.61</v>
       </c>
       <c r="G42" s="8">
-        <v>0.94</v>
+        <v>0.93</v>
       </c>
       <c r="H42" s="8">
-        <v>23.07</v>
+        <v>23.78</v>
       </c>
       <c r="I42" s="8">
-        <v>3073.0</v>
+        <v>2915.0</v>
       </c>
       <c r="J42" s="8">
-        <v>62.77</v>
+        <v>40.85</v>
       </c>
       <c r="K42" s="8">
-        <v>47.51</v>
+        <v>49.23</v>
       </c>
       <c r="L42" s="8">
-        <v>13.0</v>
+        <v>11.0</v>
       </c>
       <c r="M42" s="8">
-        <v>0.7</v>
+        <v>0.77</v>
       </c>
       <c r="N42" s="8">
-        <v>0.52</v>
+        <v>0.63</v>
       </c>
       <c r="O42" s="8">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="P42" s="8">
-        <v>12.0</v>
+        <v>18.0</v>
       </c>
       <c r="Q42" s="8">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="R42" s="8">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="S42" s="8">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="T42" s="8">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="U42" s="8">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="V42" s="8">
-        <v>20.38</v>
+        <v>20.83</v>
       </c>
       <c r="W42" s="8">
-        <v>2719.0</v>
+        <v>2404.0</v>
       </c>
       <c r="X42" s="8">
-        <v>41.85</v>
+        <v>41.83</v>
       </c>
       <c r="Y42" s="8">
-        <v>29.0</v>
+        <v>21.0</v>
       </c>
       <c r="Z42" s="8">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="AA42" s="8">
-        <v>206.0</v>
+        <v>172.0</v>
       </c>
       <c r="AB42" s="8">
-        <v>343.0</v>
+        <v>332.0</v>
       </c>
       <c r="AC42" s="8">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="AD42" s="9">
         <v>2025.0</v>
@@ -4683,77 +5083,77 @@
       <c r="A43" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B43" s="7" t="s">
-        <v>31</v>
+      <c r="B43" s="10" t="s">
+        <v>37</v>
       </c>
       <c r="C43" s="8">
         <v>0.91</v>
       </c>
       <c r="D43" s="8">
-        <v>1.01</v>
+        <v>0.96</v>
       </c>
       <c r="E43" s="8">
-        <v>79.66</v>
+        <v>79.23</v>
       </c>
       <c r="F43" s="8">
-        <v>0.65</v>
+        <v>0.68</v>
       </c>
       <c r="G43" s="8">
-        <v>0.91</v>
+        <v>0.94</v>
       </c>
       <c r="H43" s="8">
-        <v>22.48</v>
+        <v>23.67</v>
       </c>
       <c r="I43" s="8">
-        <v>2867.0</v>
+        <v>3117.0</v>
       </c>
       <c r="J43" s="8">
-        <v>64.85</v>
+        <v>58.55</v>
       </c>
       <c r="K43" s="8">
-        <v>47.2</v>
+        <v>48.98</v>
       </c>
       <c r="L43" s="8">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="M43" s="8">
-        <v>0.81</v>
+        <v>0.73</v>
       </c>
       <c r="N43" s="8">
-        <v>0.61</v>
+        <v>0.54</v>
       </c>
       <c r="O43" s="8">
-        <v>11.0</v>
+        <v>9.0</v>
       </c>
       <c r="P43" s="8">
-        <v>18.0</v>
+        <v>12.0</v>
       </c>
       <c r="Q43" s="8">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
       <c r="R43" s="8">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="S43" s="8">
         <v>4.0</v>
       </c>
       <c r="T43" s="8">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="U43" s="8">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="V43" s="8">
-        <v>21.28</v>
+        <v>20.03</v>
       </c>
       <c r="W43" s="8">
-        <v>2809.0</v>
+        <v>2721.0</v>
       </c>
       <c r="X43" s="8">
-        <v>43.72</v>
+        <v>41.6</v>
       </c>
       <c r="Y43" s="8">
-        <v>23.0</v>
+        <v>33.0</v>
       </c>
       <c r="Z43" s="8">
         <v>8.0</v>
@@ -4762,7 +5162,7 @@
         <v>239.0</v>
       </c>
       <c r="AB43" s="8">
-        <v>435.0</v>
+        <v>401.0</v>
       </c>
       <c r="AC43" s="8">
         <v>34.0</v>
@@ -4775,89 +5175,89 @@
       <c r="A44" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B44" s="10" t="s">
-        <v>47</v>
+      <c r="B44" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="C44" s="8">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="D44" s="8">
-        <v>0.94</v>
+        <v>1.01</v>
       </c>
       <c r="E44" s="8">
-        <v>75.38</v>
+        <v>79.66</v>
       </c>
       <c r="F44" s="8">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="G44" s="8">
-        <v>0.85</v>
+        <v>0.91</v>
       </c>
       <c r="H44" s="8">
-        <v>20.74</v>
+        <v>22.48</v>
       </c>
       <c r="I44" s="8">
-        <v>2973.0</v>
+        <v>2867.0</v>
       </c>
       <c r="J44" s="8">
-        <v>71.49</v>
+        <v>64.85</v>
       </c>
       <c r="K44" s="8">
-        <v>45.21</v>
+        <v>47.2</v>
       </c>
       <c r="L44" s="8">
-        <v>9.0</v>
+        <v>14.0</v>
       </c>
       <c r="M44" s="8">
-        <v>0.85</v>
+        <v>0.81</v>
       </c>
       <c r="N44" s="8">
-        <v>0.64</v>
+        <v>0.61</v>
       </c>
       <c r="O44" s="8">
-        <v>6.0</v>
+        <v>11.0</v>
       </c>
       <c r="P44" s="8">
-        <v>3.0</v>
+        <v>18.0</v>
       </c>
       <c r="Q44" s="8">
-        <v>0.67</v>
+        <v>0.38</v>
       </c>
       <c r="R44" s="8">
         <v>4.0</v>
       </c>
       <c r="S44" s="8">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="T44" s="8">
+        <v>12.0</v>
+      </c>
+      <c r="U44" s="8">
+        <v>0.95</v>
+      </c>
+      <c r="V44" s="8">
+        <v>21.28</v>
+      </c>
+      <c r="W44" s="8">
+        <v>2809.0</v>
+      </c>
+      <c r="X44" s="8">
+        <v>43.72</v>
+      </c>
+      <c r="Y44" s="8">
+        <v>23.0</v>
+      </c>
+      <c r="Z44" s="8">
         <v>8.0</v>
       </c>
-      <c r="U44" s="8">
-        <v>1.04</v>
-      </c>
-      <c r="V44" s="8">
-        <v>19.86</v>
-      </c>
-      <c r="W44" s="8">
-        <v>2654.0</v>
-      </c>
-      <c r="X44" s="8">
-        <v>38.98</v>
-      </c>
-      <c r="Y44" s="8">
-        <v>26.0</v>
-      </c>
-      <c r="Z44" s="8">
-        <v>5.0</v>
-      </c>
       <c r="AA44" s="8">
-        <v>142.0</v>
+        <v>239.0</v>
       </c>
       <c r="AB44" s="8">
-        <v>260.0</v>
+        <v>435.0</v>
       </c>
       <c r="AC44" s="8">
-        <v>22.0</v>
+        <v>34.0</v>
       </c>
       <c r="AD44" s="9">
         <v>2025.0</v>
@@ -4868,7 +5268,7 @@
         <v>85</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C45" s="8">
         <v>0.9</v>
@@ -4960,7 +5360,7 @@
         <v>86</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C46" s="8">
         <v>0.89</v>
@@ -5052,88 +5452,88 @@
         <v>87</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="C47" s="8">
-        <v>0.87</v>
+        <v>0.89</v>
       </c>
       <c r="D47" s="8">
-        <v>0.87</v>
+        <v>0.93</v>
       </c>
       <c r="E47" s="8">
-        <v>80.43</v>
+        <v>75.49</v>
       </c>
       <c r="F47" s="8">
+        <v>0.62</v>
+      </c>
+      <c r="G47" s="8">
+        <v>0.85</v>
+      </c>
+      <c r="H47" s="8">
+        <v>20.98</v>
+      </c>
+      <c r="I47" s="8">
+        <v>2888.0</v>
+      </c>
+      <c r="J47" s="8">
+        <v>70.69</v>
+      </c>
+      <c r="K47" s="8">
+        <v>45.62</v>
+      </c>
+      <c r="L47" s="8">
+        <v>11.0</v>
+      </c>
+      <c r="M47" s="8">
+        <v>0.85</v>
+      </c>
+      <c r="N47" s="8">
         <v>0.63</v>
       </c>
-      <c r="G47" s="8">
-        <v>0.81</v>
-      </c>
-      <c r="H47" s="8">
-        <v>22.01</v>
-      </c>
-      <c r="I47" s="8">
-        <v>2889.0</v>
-      </c>
-      <c r="J47" s="8">
-        <v>53.25</v>
-      </c>
-      <c r="K47" s="8">
-        <v>49.16</v>
-      </c>
-      <c r="L47" s="8">
-        <v>9.0</v>
-      </c>
-      <c r="M47" s="8">
+      <c r="O47" s="8">
+        <v>8.0</v>
+      </c>
+      <c r="P47" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="Q47" s="8">
+        <v>0.73</v>
+      </c>
+      <c r="R47" s="8">
+        <v>6.0</v>
+      </c>
+      <c r="S47" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="T47" s="8">
+        <v>10.0</v>
+      </c>
+      <c r="U47" s="8">
         <v>1.02</v>
       </c>
-      <c r="N47" s="8">
-        <v>0.73</v>
-      </c>
-      <c r="O47" s="8">
+      <c r="V47" s="8">
+        <v>19.78</v>
+      </c>
+      <c r="W47" s="8">
+        <v>2583.0</v>
+      </c>
+      <c r="X47" s="8">
+        <v>39.23</v>
+      </c>
+      <c r="Y47" s="8">
+        <v>26.0</v>
+      </c>
+      <c r="Z47" s="8">
         <v>6.0</v>
       </c>
-      <c r="P47" s="8">
-        <v>9.0</v>
-      </c>
-      <c r="Q47" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="R47" s="8">
-        <v>19.0</v>
-      </c>
-      <c r="S47" s="8">
-        <v>3.0</v>
-      </c>
-      <c r="T47" s="8">
-        <v>8.0</v>
-      </c>
-      <c r="U47" s="8">
-        <v>0.95</v>
-      </c>
-      <c r="V47" s="8">
-        <v>20.4</v>
-      </c>
-      <c r="W47" s="8">
-        <v>2601.0</v>
-      </c>
-      <c r="X47" s="8">
-        <v>41.82</v>
-      </c>
-      <c r="Y47" s="8">
-        <v>19.0</v>
-      </c>
-      <c r="Z47" s="8">
-        <v>5.0</v>
-      </c>
       <c r="AA47" s="8">
-        <v>139.0</v>
+        <v>171.0</v>
       </c>
       <c r="AB47" s="8">
-        <v>229.0</v>
+        <v>315.0</v>
       </c>
       <c r="AC47" s="8">
-        <v>22.0</v>
+        <v>27.0</v>
       </c>
       <c r="AD47" s="9">
         <v>2025.0</v>
@@ -5143,89 +5543,89 @@
       <c r="A48" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B48" s="7" t="s">
-        <v>33</v>
+      <c r="B48" s="8" t="s">
+        <v>74</v>
       </c>
       <c r="C48" s="8">
-        <v>0.84</v>
+        <v>0.87</v>
       </c>
       <c r="D48" s="8">
-        <v>0.81</v>
+        <v>0.89</v>
       </c>
       <c r="E48" s="8">
-        <v>74.91</v>
+        <v>78.81</v>
       </c>
       <c r="F48" s="8">
-        <v>0.61</v>
+        <v>0.62</v>
       </c>
       <c r="G48" s="8">
-        <v>0.77</v>
+        <v>0.83</v>
       </c>
       <c r="H48" s="8">
-        <v>20.97</v>
+        <v>21.77</v>
       </c>
       <c r="I48" s="8">
-        <v>2838.0</v>
+        <v>2830.0</v>
       </c>
       <c r="J48" s="8">
-        <v>42.27</v>
+        <v>63.62</v>
       </c>
       <c r="K48" s="8">
-        <v>48.31</v>
+        <v>48.14</v>
       </c>
       <c r="L48" s="8">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
       <c r="M48" s="8">
         <v>1.0</v>
       </c>
       <c r="N48" s="8">
-        <v>0.7</v>
+        <v>0.72</v>
       </c>
       <c r="O48" s="8">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
       <c r="P48" s="8">
-        <v>4.0</v>
+        <v>12.0</v>
       </c>
       <c r="Q48" s="8">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="R48" s="8">
-        <v>0.0</v>
+        <v>22.0</v>
       </c>
       <c r="S48" s="8">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="T48" s="8">
-        <v>6.0</v>
+        <v>9.0</v>
       </c>
       <c r="U48" s="8">
-        <v>0.94</v>
+        <v>0.91</v>
       </c>
       <c r="V48" s="8">
-        <v>17.52</v>
+        <v>19.34</v>
       </c>
       <c r="W48" s="8">
-        <v>2617.0</v>
+        <v>2470.0</v>
       </c>
       <c r="X48" s="8">
-        <v>36.25</v>
+        <v>40.51</v>
       </c>
       <c r="Y48" s="8">
-        <v>19.0</v>
+        <v>22.0</v>
       </c>
       <c r="Z48" s="8">
         <v>6.0</v>
       </c>
       <c r="AA48" s="8">
-        <v>152.0</v>
+        <v>172.0</v>
       </c>
       <c r="AB48" s="8">
-        <v>231.0</v>
+        <v>280.0</v>
       </c>
       <c r="AC48" s="8">
-        <v>21.0</v>
+        <v>26.0</v>
       </c>
       <c r="AD48" s="9">
         <v>2025.0</v>
@@ -5235,89 +5635,89 @@
       <c r="A49" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B49" s="7" t="s">
-        <v>33</v>
+      <c r="B49" s="10" t="s">
+        <v>65</v>
       </c>
       <c r="C49" s="8">
+        <v>0.85</v>
+      </c>
+      <c r="D49" s="8">
+        <v>0.88</v>
+      </c>
+      <c r="E49" s="8">
+        <v>78.6</v>
+      </c>
+      <c r="F49" s="8">
+        <v>0.67</v>
+      </c>
+      <c r="G49" s="8">
         <v>0.83</v>
       </c>
-      <c r="D49" s="8">
-        <v>0.87</v>
-      </c>
-      <c r="E49" s="8">
-        <v>66.89</v>
-      </c>
-      <c r="F49" s="8">
-        <v>0.61</v>
-      </c>
-      <c r="G49" s="8">
+      <c r="H49" s="8">
+        <v>21.56</v>
+      </c>
+      <c r="I49" s="8">
+        <v>3133.0</v>
+      </c>
+      <c r="J49" s="8">
+        <v>52.13</v>
+      </c>
+      <c r="K49" s="8">
+        <v>47.67</v>
+      </c>
+      <c r="L49" s="8">
+        <v>13.0</v>
+      </c>
+      <c r="M49" s="8">
+        <v>0.99</v>
+      </c>
+      <c r="N49" s="8">
         <v>0.72</v>
       </c>
-      <c r="H49" s="8">
-        <v>17.11</v>
-      </c>
-      <c r="I49" s="8">
-        <v>2611.0</v>
-      </c>
-      <c r="J49" s="8">
-        <v>26.1</v>
-      </c>
-      <c r="K49" s="8">
-        <v>40.89</v>
-      </c>
-      <c r="L49" s="8">
+      <c r="O49" s="8">
+        <v>10.0</v>
+      </c>
+      <c r="P49" s="8">
+        <v>13.0</v>
+      </c>
+      <c r="Q49" s="8">
+        <v>0.43</v>
+      </c>
+      <c r="R49" s="8">
         <v>3.0</v>
       </c>
-      <c r="M49" s="8">
-        <v>1.25</v>
-      </c>
-      <c r="N49" s="8">
-        <v>0.75</v>
-      </c>
-      <c r="O49" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="P49" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="Q49" s="8">
-        <v>0.33</v>
-      </c>
-      <c r="R49" s="8">
-        <v>2.0</v>
-      </c>
       <c r="S49" s="8">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="T49" s="8">
-        <v>2.0</v>
+        <v>11.0</v>
       </c>
       <c r="U49" s="8">
-        <v>0.95</v>
+        <v>0.84</v>
       </c>
       <c r="V49" s="8">
-        <v>16.17</v>
+        <v>19.64</v>
       </c>
       <c r="W49" s="8">
-        <v>2099.0</v>
+        <v>2808.0</v>
       </c>
       <c r="X49" s="8">
-        <v>33.23</v>
+        <v>43.02</v>
       </c>
       <c r="Y49" s="8">
-        <v>5.0</v>
+        <v>33.0</v>
       </c>
       <c r="Z49" s="8">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
       <c r="AA49" s="8">
-        <v>54.0</v>
+        <v>208.0</v>
       </c>
       <c r="AB49" s="8">
-        <v>79.0</v>
+        <v>361.0</v>
       </c>
       <c r="AC49" s="8">
-        <v>7.0</v>
+        <v>32.0</v>
       </c>
       <c r="AD49" s="9">
         <v>2025.0</v>
@@ -5327,89 +5727,89 @@
       <c r="A50" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B50" s="10" t="s">
-        <v>68</v>
+      <c r="B50" s="7" t="s">
+        <v>33</v>
       </c>
       <c r="C50" s="8">
+        <v>0.82</v>
+      </c>
+      <c r="D50" s="8">
         <v>0.81</v>
       </c>
-      <c r="D50" s="8">
-        <v>0.86</v>
-      </c>
       <c r="E50" s="8">
-        <v>76.69</v>
+        <v>72.94</v>
       </c>
       <c r="F50" s="8">
-        <v>0.66</v>
+        <v>0.61</v>
       </c>
       <c r="G50" s="8">
         <v>0.77</v>
       </c>
       <c r="H50" s="8">
-        <v>20.57</v>
+        <v>20.85</v>
       </c>
       <c r="I50" s="8">
-        <v>3100.0</v>
+        <v>2787.0</v>
       </c>
       <c r="J50" s="8">
-        <v>56.01</v>
+        <v>42.8</v>
       </c>
       <c r="K50" s="8">
-        <v>47.29</v>
+        <v>47.87</v>
       </c>
       <c r="L50" s="8">
         <v>11.0</v>
       </c>
       <c r="M50" s="8">
+        <v>0.96</v>
+      </c>
+      <c r="N50" s="8">
+        <v>0.67</v>
+      </c>
+      <c r="O50" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="P50" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="Q50" s="8">
+        <v>0.33</v>
+      </c>
+      <c r="R50" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="S50" s="8">
         <v>1.0</v>
       </c>
-      <c r="N50" s="8">
-        <v>0.74</v>
-      </c>
-      <c r="O50" s="8">
-        <v>9.0</v>
-      </c>
-      <c r="P50" s="8">
-        <v>11.0</v>
-      </c>
-      <c r="Q50" s="8">
-        <v>0.45</v>
-      </c>
-      <c r="R50" s="8">
-        <v>3.0</v>
-      </c>
-      <c r="S50" s="8">
-        <v>3.0</v>
-      </c>
       <c r="T50" s="8">
-        <v>9.0</v>
+        <v>7.0</v>
       </c>
       <c r="U50" s="8">
-        <v>0.8</v>
+        <v>0.89</v>
       </c>
       <c r="V50" s="8">
-        <v>19.3</v>
+        <v>16.45</v>
       </c>
       <c r="W50" s="8">
-        <v>2832.0</v>
+        <v>2474.0</v>
       </c>
       <c r="X50" s="8">
-        <v>43.45</v>
+        <v>34.98</v>
       </c>
       <c r="Y50" s="8">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="Z50" s="8">
         <v>7.0</v>
       </c>
       <c r="AA50" s="8">
-        <v>179.0</v>
+        <v>185.0</v>
       </c>
       <c r="AB50" s="8">
-        <v>293.0</v>
+        <v>273.0</v>
       </c>
       <c r="AC50" s="8">
-        <v>27.0</v>
+        <v>25.0</v>
       </c>
       <c r="AD50" s="9">
         <v>2025.0</v>
@@ -5423,49 +5823,49 @@
         <v>33</v>
       </c>
       <c r="C51" s="8">
-        <v>0.73</v>
+        <v>0.77</v>
       </c>
       <c r="D51" s="8">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="E51" s="8">
-        <v>75.09</v>
+        <v>73.95</v>
       </c>
       <c r="F51" s="8">
-        <v>0.56</v>
+        <v>0.57</v>
       </c>
       <c r="G51" s="8">
-        <v>0.68</v>
+        <v>0.75</v>
       </c>
       <c r="H51" s="8">
-        <v>20.01</v>
+        <v>19.99</v>
       </c>
       <c r="I51" s="8">
-        <v>2664.0</v>
+        <v>2599.0</v>
       </c>
       <c r="J51" s="8">
-        <v>66.12</v>
+        <v>77.22</v>
       </c>
       <c r="K51" s="8">
-        <v>49.3</v>
+        <v>46.81</v>
       </c>
       <c r="L51" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="M51" s="8">
+        <v>1.19</v>
+      </c>
+      <c r="N51" s="8">
+        <v>0.83</v>
+      </c>
+      <c r="O51" s="8">
+        <v>7.0</v>
+      </c>
+      <c r="P51" s="8">
         <v>3.0</v>
       </c>
-      <c r="M51" s="8">
-        <v>1.38</v>
-      </c>
-      <c r="N51" s="8">
-        <v>0.9</v>
-      </c>
-      <c r="O51" s="8">
-        <v>5.0</v>
-      </c>
-      <c r="P51" s="8">
-        <v>2.0</v>
-      </c>
       <c r="Q51" s="8">
-        <v>0.71</v>
+        <v>0.7</v>
       </c>
       <c r="R51" s="8">
         <v>1.0</v>
@@ -5474,34 +5874,34 @@
         <v>1.0</v>
       </c>
       <c r="T51" s="8">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="U51" s="8">
-        <v>0.65</v>
+        <v>0.69</v>
       </c>
       <c r="V51" s="8">
-        <v>15.27</v>
+        <v>15.64</v>
       </c>
       <c r="W51" s="8">
-        <v>2493.0</v>
+        <v>2402.0</v>
       </c>
       <c r="X51" s="8">
-        <v>38.62</v>
+        <v>38.2</v>
       </c>
       <c r="Y51" s="8">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="Z51" s="8">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="AA51" s="8">
-        <v>54.0</v>
+        <v>87.0</v>
       </c>
       <c r="AB51" s="8">
-        <v>87.0</v>
+        <v>140.0</v>
       </c>
       <c r="AC51" s="8">
-        <v>7.0</v>
+        <v>11.0</v>
       </c>
       <c r="AD51" s="9">
         <v>2025.0</v>
@@ -5601,12 +6001,14 @@
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="10" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C53" s="14"/>
+        <v>46</v>
+      </c>
+      <c r="C53" s="14">
+        <v>1.21</v>
+      </c>
       <c r="D53" s="15">
         <v>1.18</v>
       </c>
@@ -5692,7 +6094,7 @@
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="10" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="B54" s="13" t="s">
         <v>40</v>
@@ -5785,10 +6187,10 @@
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="10" t="s">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C55" s="16">
         <v>1.13</v>
@@ -5878,10 +6280,10 @@
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="10" t="s">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C56" s="16">
         <v>1.13</v>
@@ -5971,10 +6373,10 @@
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="10" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="B57" s="17" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C57" s="16">
         <v>1.09</v>
@@ -6064,7 +6466,7 @@
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="10" t="s">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="B58" s="17" t="s">
         <v>31</v>
@@ -6157,7 +6559,7 @@
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="10" t="s">
-        <v>36</v>
+        <v>101</v>
       </c>
       <c r="B59" s="13" t="s">
         <v>37</v>
@@ -6250,10 +6652,10 @@
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="10" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C60" s="16">
         <v>1.07</v>
@@ -6343,10 +6745,10 @@
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="10" t="s">
-        <v>59</v>
+        <v>103</v>
       </c>
       <c r="B61" s="17" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C61" s="16">
         <v>1.07</v>
@@ -6436,10 +6838,10 @@
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="10" t="s">
-        <v>56</v>
+        <v>104</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C62" s="16">
         <v>1.06</v>
@@ -6529,10 +6931,10 @@
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="10" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C63" s="16">
         <v>1.06</v>
@@ -6622,10 +7024,10 @@
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="10" t="s">
-        <v>66</v>
+        <v>106</v>
       </c>
       <c r="B64" s="17" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C64" s="16">
         <v>1.06</v>
@@ -6715,7 +7117,7 @@
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="10" t="s">
-        <v>34</v>
+        <v>107</v>
       </c>
       <c r="B65" s="17" t="s">
         <v>31</v>
@@ -6808,7 +7210,7 @@
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="10" t="s">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="B66" s="17" t="s">
         <v>31</v>
@@ -6901,7 +7303,7 @@
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="10" t="s">
-        <v>39</v>
+        <v>109</v>
       </c>
       <c r="B67" s="13" t="s">
         <v>40</v>
@@ -6994,7 +7396,7 @@
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="10" t="s">
-        <v>58</v>
+        <v>110</v>
       </c>
       <c r="B68" s="13" t="s">
         <v>42</v>
@@ -7087,7 +7489,7 @@
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="10" t="s">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="B69" s="13" t="s">
         <v>40</v>
@@ -7180,10 +7582,10 @@
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="10" t="s">
-        <v>65</v>
+        <v>112</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C70" s="16">
         <v>1.02</v>
@@ -7273,10 +7675,10 @@
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="10" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C71" s="16">
         <v>1.01</v>
@@ -7366,10 +7768,10 @@
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="10" t="s">
-        <v>50</v>
+        <v>114</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C72" s="16">
         <v>1.01</v>
@@ -7459,7 +7861,7 @@
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="10" t="s">
-        <v>83</v>
+        <v>115</v>
       </c>
       <c r="B73" s="17" t="s">
         <v>31</v>
@@ -7552,7 +7954,7 @@
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="10" t="s">
-        <v>74</v>
+        <v>116</v>
       </c>
       <c r="B74" s="13" t="s">
         <v>40</v>
@@ -7645,10 +8047,10 @@
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="10" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="C75" s="16">
         <v>0.99</v>
@@ -7738,10 +8140,10 @@
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="10" t="s">
-        <v>46</v>
+        <v>119</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C76" s="16">
         <v>0.98</v>
@@ -7831,10 +8233,10 @@
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B77" s="13" t="s">
         <v>44</v>
-      </c>
-      <c r="B77" s="13" t="s">
-        <v>45</v>
       </c>
       <c r="C77" s="16">
         <v>0.98</v>
@@ -7924,10 +8326,10 @@
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="10" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C78" s="16">
         <v>0.98</v>
@@ -8017,10 +8419,10 @@
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="10" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="B79" s="17" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C79" s="16">
         <v>0.97</v>
@@ -8110,10 +8512,10 @@
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="10" t="s">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C80" s="16">
         <v>0.97</v>
@@ -8203,7 +8605,7 @@
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="10" t="s">
-        <v>63</v>
+        <v>124</v>
       </c>
       <c r="B81" s="13" t="s">
         <v>37</v>
@@ -8296,10 +8698,10 @@
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="10" t="s">
-        <v>61</v>
+        <v>125</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="C82" s="16">
         <v>0.97</v>
@@ -8389,7 +8791,7 @@
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="10" t="s">
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="B83" s="13" t="s">
         <v>42</v>
@@ -8482,10 +8884,10 @@
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="10" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="C84" s="16">
         <v>0.96</v>
@@ -8575,10 +8977,10 @@
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="10" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="B85" s="13" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C85" s="16">
         <v>0.96</v>
@@ -8668,10 +9070,10 @@
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="10" t="s">
-        <v>57</v>
+        <v>129</v>
       </c>
       <c r="B86" s="13" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C86" s="16">
         <v>0.96</v>
@@ -8761,10 +9163,10 @@
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B87" s="13" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C87" s="16">
         <v>0.95</v>
@@ -8854,10 +9256,10 @@
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="10" t="s">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="B88" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C88" s="16">
         <v>0.95</v>
@@ -8947,10 +9349,10 @@
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="10" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="B89" s="13" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="C89" s="16">
         <v>0.94</v>
@@ -9040,7 +9442,7 @@
     </row>
     <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="10" t="s">
-        <v>69</v>
+        <v>132</v>
       </c>
       <c r="B90" s="13" t="s">
         <v>42</v>
@@ -9133,10 +9535,10 @@
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="10" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="B91" s="13" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C91" s="16">
         <v>0.93</v>
@@ -9226,7 +9628,7 @@
     </row>
     <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="10" t="s">
-        <v>64</v>
+        <v>134</v>
       </c>
       <c r="B92" s="13" t="s">
         <v>42</v>
@@ -9319,10 +9721,10 @@
     </row>
     <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="10" t="s">
-        <v>102</v>
+        <v>135</v>
       </c>
       <c r="B93" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C93" s="16">
         <v>0.93</v>
@@ -9412,10 +9814,10 @@
     </row>
     <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="10" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="B94" s="13" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="C94" s="16">
         <v>0.93</v>
@@ -9505,7 +9907,7 @@
     </row>
     <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="10" t="s">
-        <v>104</v>
+        <v>137</v>
       </c>
       <c r="B95" s="13" t="s">
         <v>37</v>
@@ -9598,10 +10000,10 @@
     </row>
     <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="10" t="s">
-        <v>38</v>
+        <v>138</v>
       </c>
       <c r="B96" s="13" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C96" s="16">
         <v>0.92</v>
@@ -9691,10 +10093,10 @@
     </row>
     <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="10" t="s">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="B97" s="13" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C97" s="16">
         <v>0.91</v>
@@ -9784,10 +10186,10 @@
     </row>
     <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="10" t="s">
-        <v>106</v>
+        <v>140</v>
       </c>
       <c r="B98" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C98" s="16">
         <v>0.9</v>
@@ -9877,10 +10279,10 @@
     </row>
     <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="10" t="s">
-        <v>107</v>
+        <v>141</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C99" s="16">
         <v>0.9</v>
@@ -9970,7 +10372,7 @@
     </row>
     <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="10" t="s">
-        <v>108</v>
+        <v>142</v>
       </c>
       <c r="B100" s="10" t="s">
         <v>42</v>
@@ -10063,10 +10465,10 @@
     </row>
     <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="10" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C101" s="16">
         <v>0.88</v>
@@ -14674,67 +15076,67 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>110</v>
+        <v>144</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>111</v>
+        <v>145</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>112</v>
+        <v>146</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>113</v>
+        <v>147</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>114</v>
+        <v>148</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>115</v>
+        <v>149</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>116</v>
+        <v>150</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>117</v>
+        <v>151</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>118</v>
+        <v>152</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>119</v>
+        <v>153</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>120</v>
+        <v>154</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>121</v>
+        <v>155</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>122</v>
+        <v>156</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>123</v>
+        <v>157</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>124</v>
+        <v>158</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>125</v>
+        <v>159</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>126</v>
+        <v>160</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>127</v>
+        <v>161</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>128</v>
+        <v>162</v>
       </c>
       <c r="V1" s="9" t="s">
         <v>29</v>
@@ -14742,7 +15144,7 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="16" t="s">
-        <v>129</v>
+        <v>163</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>31</v>
@@ -14765,43 +15167,43 @@
       <c r="H2" s="21">
         <v>0.65</v>
       </c>
-      <c r="I2" s="20">
-        <v>41.21</v>
+      <c r="I2" s="8">
+        <v>233.79</v>
       </c>
       <c r="J2" s="22">
         <v>0.643</v>
       </c>
-      <c r="K2" s="20">
+      <c r="K2" s="8">
         <v>1.13</v>
       </c>
-      <c r="L2" s="20">
-        <v>233.79</v>
-      </c>
-      <c r="M2" s="20">
+      <c r="L2" s="8">
+        <v>41.21</v>
+      </c>
+      <c r="M2" s="8">
         <v>1.1</v>
       </c>
       <c r="N2" s="22">
         <v>0.583</v>
       </c>
-      <c r="O2" s="20">
+      <c r="O2" s="8">
         <v>1.02</v>
       </c>
-      <c r="P2" s="20">
+      <c r="P2" s="8">
         <v>4.92</v>
       </c>
-      <c r="Q2" s="20">
+      <c r="Q2" s="8">
         <v>0.42</v>
       </c>
       <c r="R2" s="22">
         <v>0.75</v>
       </c>
-      <c r="S2" s="20">
+      <c r="S2" s="8">
         <v>1.07</v>
       </c>
-      <c r="T2" s="20">
+      <c r="T2" s="8">
         <v>2.5</v>
       </c>
-      <c r="U2" s="20">
+      <c r="U2" s="8">
         <v>1.0</v>
       </c>
       <c r="V2" s="23">
@@ -14824,7 +15226,7 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="16" t="s">
-        <v>130</v>
+        <v>164</v>
       </c>
       <c r="B3" s="19" t="s">
         <v>40</v>
@@ -14847,43 +15249,43 @@
       <c r="H3" s="21">
         <v>0.63</v>
       </c>
-      <c r="I3" s="20">
-        <v>5.18</v>
+      <c r="I3" s="8">
+        <v>222.0</v>
       </c>
       <c r="J3" s="22">
         <v>0.545</v>
       </c>
-      <c r="K3" s="20">
+      <c r="K3" s="8">
         <v>1.0</v>
       </c>
-      <c r="L3" s="20">
-        <v>222.0</v>
-      </c>
-      <c r="M3" s="20">
+      <c r="L3" s="8">
+        <v>5.18</v>
+      </c>
+      <c r="M3" s="8">
         <v>1.04</v>
       </c>
       <c r="N3" s="22">
         <v>0.8</v>
       </c>
-      <c r="O3" s="20">
+      <c r="O3" s="8">
         <v>1.26</v>
       </c>
-      <c r="P3" s="20">
+      <c r="P3" s="8">
         <v>5.3</v>
       </c>
-      <c r="Q3" s="20">
+      <c r="Q3" s="8">
         <v>2.2</v>
       </c>
       <c r="R3" s="22">
         <v>0.5</v>
       </c>
-      <c r="S3" s="20">
+      <c r="S3" s="8">
         <v>1.03</v>
       </c>
-      <c r="T3" s="20">
+      <c r="T3" s="8">
         <v>2.17</v>
       </c>
-      <c r="U3" s="20">
+      <c r="U3" s="8">
         <v>0.0</v>
       </c>
       <c r="V3" s="23">
@@ -14906,7 +15308,7 @@
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="16" t="s">
-        <v>131</v>
+        <v>165</v>
       </c>
       <c r="B4" s="19" t="s">
         <v>42</v>
@@ -14929,43 +15331,43 @@
       <c r="H4" s="21">
         <v>0.62</v>
       </c>
-      <c r="I4" s="20">
-        <v>38.9</v>
+      <c r="I4" s="8">
+        <v>234.7</v>
       </c>
       <c r="J4" s="22">
         <v>0.7</v>
       </c>
-      <c r="K4" s="20">
+      <c r="K4" s="8">
         <v>1.05</v>
       </c>
-      <c r="L4" s="20">
-        <v>234.7</v>
-      </c>
-      <c r="M4" s="20">
+      <c r="L4" s="8">
+        <v>38.9</v>
+      </c>
+      <c r="M4" s="8">
         <v>1.04</v>
       </c>
       <c r="N4" s="22">
         <v>0.5</v>
       </c>
-      <c r="O4" s="20">
+      <c r="O4" s="8">
         <v>0.96</v>
       </c>
-      <c r="P4" s="20">
+      <c r="P4" s="8">
         <v>4.33</v>
       </c>
-      <c r="Q4" s="20">
+      <c r="Q4" s="8">
         <v>-0.67</v>
       </c>
       <c r="R4" s="22">
         <v>0.6</v>
       </c>
-      <c r="S4" s="20">
+      <c r="S4" s="8">
         <v>1.04</v>
       </c>
-      <c r="T4" s="20">
+      <c r="T4" s="8">
         <v>2.4</v>
       </c>
-      <c r="U4" s="20">
+      <c r="U4" s="8">
         <v>0.2</v>
       </c>
       <c r="V4" s="23">
@@ -14988,10 +15390,10 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="16" t="s">
-        <v>132</v>
+        <v>166</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C5" s="20">
         <v>5.0</v>
@@ -15011,43 +15413,43 @@
       <c r="H5" s="21">
         <v>0.55</v>
       </c>
-      <c r="I5" s="20">
-        <v>29.2</v>
+      <c r="I5" s="8">
+        <v>213.73</v>
       </c>
       <c r="J5" s="22">
         <v>0.733</v>
       </c>
-      <c r="K5" s="20">
+      <c r="K5" s="8">
         <v>1.1</v>
       </c>
-      <c r="L5" s="20">
-        <v>213.73</v>
-      </c>
-      <c r="M5" s="20">
+      <c r="L5" s="8">
+        <v>29.2</v>
+      </c>
+      <c r="M5" s="8">
         <v>1.04</v>
       </c>
       <c r="N5" s="22">
         <v>0.5</v>
       </c>
-      <c r="O5" s="20">
+      <c r="O5" s="8">
         <v>1.02</v>
       </c>
-      <c r="P5" s="20">
+      <c r="P5" s="8">
         <v>4.9</v>
       </c>
-      <c r="Q5" s="20">
+      <c r="Q5" s="8">
         <v>0.4</v>
       </c>
       <c r="R5" s="22">
         <v>0.25</v>
       </c>
-      <c r="S5" s="20">
+      <c r="S5" s="8">
         <v>0.95</v>
       </c>
-      <c r="T5" s="20">
+      <c r="T5" s="8">
         <v>2.13</v>
       </c>
-      <c r="U5" s="20">
+      <c r="U5" s="8">
         <v>-0.63</v>
       </c>
       <c r="V5" s="23">
@@ -15070,67 +15472,67 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="16" t="s">
-        <v>133</v>
+        <v>167</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C6" s="20">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="D6" s="20">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E6" s="21">
-        <v>0.86</v>
+        <v>0.67</v>
       </c>
       <c r="F6" s="21">
-        <v>19.0</v>
+        <v>16.0</v>
       </c>
       <c r="G6" s="21">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
       <c r="H6" s="21">
-        <v>0.63</v>
-      </c>
-      <c r="I6" s="20">
-        <v>17.46</v>
+        <v>0.55</v>
+      </c>
+      <c r="I6" s="8">
+        <v>231.33</v>
       </c>
       <c r="J6" s="22">
-        <v>0.538</v>
-      </c>
-      <c r="K6" s="20">
-        <v>1.03</v>
-      </c>
-      <c r="L6" s="20">
-        <v>218.62</v>
-      </c>
-      <c r="M6" s="20">
-        <v>1.03</v>
+        <v>0.667</v>
+      </c>
+      <c r="K6" s="8">
+        <v>1.04</v>
+      </c>
+      <c r="L6" s="8">
+        <v>26.42</v>
+      </c>
+      <c r="M6" s="8">
+        <v>1.02</v>
       </c>
       <c r="N6" s="22">
-        <v>0.7</v>
-      </c>
-      <c r="O6" s="20">
-        <v>1.04</v>
-      </c>
-      <c r="P6" s="20">
-        <v>5.1</v>
-      </c>
-      <c r="Q6" s="20">
-        <v>1.0</v>
+        <v>0.455</v>
+      </c>
+      <c r="O6" s="8">
+        <v>1.02</v>
+      </c>
+      <c r="P6" s="8">
+        <v>4.91</v>
+      </c>
+      <c r="Q6" s="8">
+        <v>0.45</v>
       </c>
       <c r="R6" s="22">
-        <v>0.714</v>
-      </c>
-      <c r="S6" s="20">
-        <v>1.05</v>
-      </c>
-      <c r="T6" s="20">
-        <v>2.43</v>
-      </c>
-      <c r="U6" s="20">
-        <v>0.57</v>
+        <v>0.5</v>
+      </c>
+      <c r="S6" s="8">
+        <v>0.98</v>
+      </c>
+      <c r="T6" s="8">
+        <v>1.83</v>
+      </c>
+      <c r="U6" s="8">
+        <v>0.0</v>
       </c>
       <c r="V6" s="23">
         <v>2025.0</v>
@@ -15152,67 +15554,67 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="16" t="s">
-        <v>134</v>
+        <v>168</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C7" s="20">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="D7" s="20">
         <v>2.0</v>
       </c>
       <c r="E7" s="21">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="F7" s="21">
-        <v>13.0</v>
+        <v>20.0</v>
       </c>
       <c r="G7" s="21">
-        <v>12.0</v>
+        <v>14.0</v>
       </c>
       <c r="H7" s="21">
-        <v>0.52</v>
-      </c>
-      <c r="I7" s="20">
-        <v>12.4</v>
+        <v>0.59</v>
+      </c>
+      <c r="I7" s="8">
+        <v>209.93</v>
       </c>
       <c r="J7" s="22">
-        <v>0.6</v>
-      </c>
-      <c r="K7" s="20">
+        <v>0.467</v>
+      </c>
+      <c r="K7" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="L7" s="8">
+        <v>2.27</v>
+      </c>
+      <c r="M7" s="8">
         <v>1.01</v>
       </c>
-      <c r="L7" s="20">
-        <v>227.6</v>
-      </c>
-      <c r="M7" s="20">
-        <v>1.01</v>
-      </c>
       <c r="N7" s="22">
-        <v>0.5</v>
-      </c>
-      <c r="O7" s="20">
-        <v>1.05</v>
-      </c>
-      <c r="P7" s="20">
-        <v>5.0</v>
-      </c>
-      <c r="Q7" s="20">
-        <v>0.7</v>
+        <v>0.727</v>
+      </c>
+      <c r="O7" s="8">
+        <v>1.06</v>
+      </c>
+      <c r="P7" s="8">
+        <v>5.18</v>
+      </c>
+      <c r="Q7" s="8">
+        <v>1.09</v>
       </c>
       <c r="R7" s="22">
-        <v>0.4</v>
-      </c>
-      <c r="S7" s="20">
-        <v>0.97</v>
-      </c>
-      <c r="T7" s="20">
-        <v>1.6</v>
-      </c>
-      <c r="U7" s="20">
-        <v>-0.2</v>
+        <v>0.625</v>
+      </c>
+      <c r="S7" s="8">
+        <v>1.04</v>
+      </c>
+      <c r="T7" s="8">
+        <v>2.38</v>
+      </c>
+      <c r="U7" s="8">
+        <v>0.38</v>
       </c>
       <c r="V7" s="23">
         <v>2025.0</v>
@@ -15234,10 +15636,10 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="16" t="s">
-        <v>135</v>
+        <v>169</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C8" s="20">
         <v>1.0</v>
@@ -15257,43 +15659,43 @@
       <c r="H8" s="21">
         <v>0.42</v>
       </c>
-      <c r="I8" s="20">
-        <v>-5.18</v>
+      <c r="I8" s="8">
+        <v>223.73</v>
       </c>
       <c r="J8" s="22">
         <v>0.364</v>
       </c>
-      <c r="K8" s="20">
+      <c r="K8" s="8">
         <v>1.0</v>
       </c>
-      <c r="L8" s="20">
-        <v>223.73</v>
-      </c>
-      <c r="M8" s="20">
+      <c r="L8" s="8">
+        <v>-5.18</v>
+      </c>
+      <c r="M8" s="8">
         <v>0.99</v>
       </c>
       <c r="N8" s="22">
         <v>0.333</v>
       </c>
-      <c r="O8" s="20">
+      <c r="O8" s="8">
         <v>0.95</v>
       </c>
-      <c r="P8" s="20">
+      <c r="P8" s="8">
         <v>4.11</v>
       </c>
-      <c r="Q8" s="20">
+      <c r="Q8" s="8">
         <v>-1.0</v>
       </c>
       <c r="R8" s="22">
         <v>0.667</v>
       </c>
-      <c r="S8" s="20">
+      <c r="S8" s="8">
         <v>1.0</v>
       </c>
-      <c r="T8" s="20">
+      <c r="T8" s="8">
         <v>2.33</v>
       </c>
-      <c r="U8" s="20">
+      <c r="U8" s="8">
         <v>0.33</v>
       </c>
       <c r="V8" s="23">
@@ -15316,67 +15718,67 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="16" t="s">
-        <v>136</v>
+        <v>170</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C9" s="20">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D9" s="20">
         <v>4.0</v>
       </c>
       <c r="E9" s="21">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="F9" s="21">
-        <v>10.0</v>
+        <v>13.0</v>
       </c>
       <c r="G9" s="21">
-        <v>12.0</v>
+        <v>14.0</v>
       </c>
       <c r="H9" s="21">
-        <v>0.45</v>
-      </c>
-      <c r="I9" s="20">
-        <v>-1.44</v>
+        <v>0.48</v>
+      </c>
+      <c r="I9" s="8">
+        <v>222.91</v>
       </c>
       <c r="J9" s="22">
-        <v>0.556</v>
-      </c>
-      <c r="K9" s="20">
+        <v>0.545</v>
+      </c>
+      <c r="K9" s="8">
         <v>0.99</v>
       </c>
-      <c r="L9" s="20">
-        <v>219.33</v>
-      </c>
-      <c r="M9" s="20">
-        <v>0.99</v>
+      <c r="L9" s="8">
+        <v>2.91</v>
+      </c>
+      <c r="M9" s="8">
+        <v>0.98</v>
       </c>
       <c r="N9" s="22">
-        <v>0.125</v>
-      </c>
-      <c r="O9" s="20">
+        <v>0.3</v>
+      </c>
+      <c r="O9" s="8">
+        <v>0.86</v>
+      </c>
+      <c r="P9" s="8">
+        <v>3.6</v>
+      </c>
+      <c r="Q9" s="8">
+        <v>-1.6</v>
+      </c>
+      <c r="R9" s="22">
+        <v>0.667</v>
+      </c>
+      <c r="S9" s="8">
+        <v>1.04</v>
+      </c>
+      <c r="T9" s="8">
+        <v>2.33</v>
+      </c>
+      <c r="U9" s="8">
         <v>0.83</v>
-      </c>
-      <c r="P9" s="20">
-        <v>3.0</v>
-      </c>
-      <c r="Q9" s="20">
-        <v>-2.63</v>
-      </c>
-      <c r="R9" s="22">
-        <v>0.8</v>
-      </c>
-      <c r="S9" s="20">
-        <v>1.08</v>
-      </c>
-      <c r="T9" s="20">
-        <v>2.8</v>
-      </c>
-      <c r="U9" s="20">
-        <v>1.6</v>
       </c>
       <c r="V9" s="23">
         <v>2025.0</v>
@@ -15398,10 +15800,10 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="16" t="s">
-        <v>137</v>
+        <v>171</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C10" s="20">
         <v>4.0</v>
@@ -15421,43 +15823,43 @@
       <c r="H10" s="21">
         <v>0.47</v>
       </c>
-      <c r="I10" s="20">
-        <v>-23.13</v>
+      <c r="I10" s="8">
+        <v>216.25</v>
       </c>
       <c r="J10" s="22">
         <v>0.313</v>
       </c>
-      <c r="K10" s="20">
+      <c r="K10" s="8">
         <v>0.95</v>
       </c>
-      <c r="L10" s="20">
-        <v>216.25</v>
-      </c>
-      <c r="M10" s="20">
+      <c r="L10" s="8">
+        <v>-23.13</v>
+      </c>
+      <c r="M10" s="8">
         <v>0.98</v>
       </c>
       <c r="N10" s="22">
         <v>0.571</v>
       </c>
-      <c r="O10" s="20">
+      <c r="O10" s="8">
         <v>0.98</v>
       </c>
-      <c r="P10" s="20">
+      <c r="P10" s="8">
         <v>4.43</v>
       </c>
-      <c r="Q10" s="20">
+      <c r="Q10" s="8">
         <v>0.0</v>
       </c>
       <c r="R10" s="22">
         <v>0.625</v>
       </c>
-      <c r="S10" s="20">
+      <c r="S10" s="8">
         <v>1.03</v>
       </c>
-      <c r="T10" s="20">
+      <c r="T10" s="8">
         <v>2.38</v>
       </c>
-      <c r="U10" s="20">
+      <c r="U10" s="8">
         <v>0.5</v>
       </c>
       <c r="V10" s="23">
@@ -15480,67 +15882,67 @@
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="16" t="s">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C11" s="20">
         <v>2.0</v>
       </c>
       <c r="D11" s="20">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="E11" s="21">
         <v>0.25</v>
       </c>
       <c r="F11" s="21">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
       <c r="G11" s="21">
-        <v>16.0</v>
+        <v>19.0</v>
       </c>
       <c r="H11" s="21">
         <v>0.41</v>
       </c>
-      <c r="I11" s="20">
-        <v>-26.27</v>
+      <c r="I11" s="8">
+        <v>198.46</v>
       </c>
       <c r="J11" s="22">
-        <v>0.545</v>
-      </c>
-      <c r="K11" s="20">
-        <v>0.94</v>
-      </c>
-      <c r="L11" s="20">
-        <v>195.18</v>
-      </c>
-      <c r="M11" s="20">
-        <v>0.93</v>
+        <v>0.538</v>
+      </c>
+      <c r="K11" s="8">
+        <v>0.96</v>
+      </c>
+      <c r="L11" s="8">
+        <v>-25.69</v>
+      </c>
+      <c r="M11" s="8">
+        <v>0.95</v>
       </c>
       <c r="N11" s="22">
-        <v>0.444</v>
-      </c>
-      <c r="O11" s="20">
-        <v>0.98</v>
-      </c>
-      <c r="P11" s="20">
-        <v>4.56</v>
-      </c>
-      <c r="Q11" s="20">
-        <v>-0.67</v>
+        <v>0.364</v>
+      </c>
+      <c r="O11" s="8">
+        <v>0.99</v>
+      </c>
+      <c r="P11" s="8">
+        <v>4.36</v>
+      </c>
+      <c r="Q11" s="8">
+        <v>-1.0</v>
       </c>
       <c r="R11" s="22">
-        <v>0.143</v>
-      </c>
-      <c r="S11" s="20">
-        <v>0.88</v>
-      </c>
-      <c r="T11" s="20">
-        <v>1.43</v>
-      </c>
-      <c r="U11" s="20">
-        <v>-1.29</v>
+        <v>0.25</v>
+      </c>
+      <c r="S11" s="8">
+        <v>0.91</v>
+      </c>
+      <c r="T11" s="8">
+        <v>1.63</v>
+      </c>
+      <c r="U11" s="8">
+        <v>-0.75</v>
       </c>
       <c r="V11" s="23">
         <v>2025.0</v>
@@ -15562,67 +15964,67 @@
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="16" t="s">
-        <v>139</v>
+        <v>173</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C12" s="20">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D12" s="20">
         <v>4.0</v>
       </c>
       <c r="E12" s="21">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="F12" s="21">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
       <c r="G12" s="21">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="H12" s="21">
-        <v>0.36</v>
-      </c>
-      <c r="I12" s="20">
-        <v>-48.78</v>
+        <v>0.42</v>
+      </c>
+      <c r="I12" s="8">
+        <v>197.45</v>
       </c>
       <c r="J12" s="22">
+        <v>0.455</v>
+      </c>
+      <c r="K12" s="8">
+        <v>0.91</v>
+      </c>
+      <c r="L12" s="8">
+        <v>-29.45</v>
+      </c>
+      <c r="M12" s="8">
+        <v>0.93</v>
+      </c>
+      <c r="N12" s="22">
         <v>0.333</v>
       </c>
-      <c r="K12" s="20">
-        <v>0.88</v>
-      </c>
-      <c r="L12" s="20">
-        <v>185.78</v>
-      </c>
-      <c r="M12" s="20">
-        <v>0.91</v>
-      </c>
-      <c r="N12" s="22">
-        <v>0.375</v>
-      </c>
-      <c r="O12" s="20">
-        <v>0.88</v>
-      </c>
-      <c r="P12" s="20">
-        <v>4.5</v>
-      </c>
-      <c r="Q12" s="20">
-        <v>-0.63</v>
+      <c r="O12" s="8">
+        <v>0.87</v>
+      </c>
+      <c r="P12" s="8">
+        <v>4.44</v>
+      </c>
+      <c r="Q12" s="8">
+        <v>-0.78</v>
       </c>
       <c r="R12" s="22">
-        <v>0.4</v>
-      </c>
-      <c r="S12" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="S12" s="8">
         <v>1.0</v>
       </c>
-      <c r="T12" s="20">
-        <v>1.6</v>
-      </c>
-      <c r="U12" s="20">
-        <v>-0.4</v>
+      <c r="T12" s="8">
+        <v>1.83</v>
+      </c>
+      <c r="U12" s="8">
+        <v>0.0</v>
       </c>
       <c r="V12" s="23">
         <v>2025.0</v>
@@ -15644,7 +16046,7 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="16" t="s">
-        <v>140</v>
+        <v>174</v>
       </c>
       <c r="B13" s="19" t="s">
         <v>33</v>
@@ -15653,58 +16055,58 @@
         <v>0.0</v>
       </c>
       <c r="D13" s="25">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="E13" s="9">
         <v>0.0</v>
       </c>
       <c r="F13" s="9">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="G13" s="9">
-        <v>18.0</v>
+        <v>21.0</v>
       </c>
       <c r="H13" s="9">
-        <v>0.14</v>
-      </c>
-      <c r="I13" s="20">
-        <v>-71.56</v>
+        <v>0.16</v>
+      </c>
+      <c r="I13" s="8">
+        <v>181.0</v>
       </c>
       <c r="J13" s="22">
         <v>0.0</v>
       </c>
-      <c r="K13" s="20">
-        <v>0.86</v>
-      </c>
-      <c r="L13" s="20">
-        <v>178.44</v>
-      </c>
-      <c r="M13" s="20">
-        <v>0.89</v>
+      <c r="K13" s="8">
+        <v>0.87</v>
+      </c>
+      <c r="L13" s="8">
+        <v>-69.0</v>
+      </c>
+      <c r="M13" s="8">
+        <v>0.9</v>
       </c>
       <c r="N13" s="22">
-        <v>0.333</v>
-      </c>
-      <c r="O13" s="20">
-        <v>0.97</v>
-      </c>
-      <c r="P13" s="20">
-        <v>4.5</v>
-      </c>
-      <c r="Q13" s="20">
-        <v>-0.5</v>
+        <v>0.429</v>
+      </c>
+      <c r="O13" s="8">
+        <v>1.01</v>
+      </c>
+      <c r="P13" s="8">
+        <v>4.71</v>
+      </c>
+      <c r="Q13" s="8">
+        <v>-0.14</v>
       </c>
       <c r="R13" s="22">
-        <v>0.167</v>
-      </c>
-      <c r="S13" s="20">
-        <v>0.91</v>
-      </c>
-      <c r="T13" s="20">
-        <v>1.17</v>
-      </c>
-      <c r="U13" s="20">
-        <v>-1.67</v>
+        <v>0.143</v>
+      </c>
+      <c r="S13" s="8">
+        <v>0.92</v>
+      </c>
+      <c r="T13" s="8">
+        <v>1.14</v>
+      </c>
+      <c r="U13" s="8">
+        <v>-1.71</v>
       </c>
       <c r="V13" s="24">
         <v>2025.0</v>
@@ -15726,7 +16128,7 @@
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="16" t="s">
-        <v>129</v>
+        <v>163</v>
       </c>
       <c r="B14" s="19" t="s">
         <v>31</v>
@@ -15794,7 +16196,7 @@
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="16" t="s">
-        <v>130</v>
+        <v>164</v>
       </c>
       <c r="B15" s="19" t="s">
         <v>40</v>
@@ -15876,10 +16278,10 @@
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="16" t="s">
-        <v>131</v>
+        <v>165</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C16" s="27">
         <v>37.0</v>
@@ -15944,10 +16346,10 @@
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="16" t="s">
-        <v>132</v>
+        <v>166</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C17" s="27">
         <v>30.0</v>
@@ -16026,10 +16428,10 @@
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="16" t="s">
-        <v>133</v>
+        <v>167</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C18" s="27">
         <v>16.0</v>
@@ -16094,10 +16496,10 @@
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="16" t="s">
-        <v>134</v>
+        <v>168</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C19" s="27">
         <v>11.0</v>
@@ -16176,7 +16578,7 @@
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="16" t="s">
-        <v>135</v>
+        <v>169</v>
       </c>
       <c r="B20" s="19" t="s">
         <v>42</v>
@@ -16244,10 +16646,10 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="16" t="s">
-        <v>136</v>
+        <v>170</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C21" s="27">
         <v>15.0</v>
@@ -16326,7 +16728,7 @@
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="16" t="s">
-        <v>137</v>
+        <v>171</v>
       </c>
       <c r="B22" s="19" t="s">
         <v>37</v>
@@ -16394,10 +16796,10 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="16" t="s">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C23" s="27">
         <v>17.0</v>
@@ -16476,10 +16878,10 @@
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="16" t="s">
-        <v>139</v>
+        <v>173</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C24" s="27">
         <v>6.0</v>
@@ -16544,10 +16946,10 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="16" t="s">
-        <v>140</v>
+        <v>174</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="C25" s="27">
         <v>17.0</v>
